--- a/AfDD_2023_Annex_Table_Tab22.xlsx
+++ b/AfDD_2023_Annex_Table_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -1530,16 +1530,16 @@
         <v>17</v>
       </c>
       <c r="D3" s="14">
-        <v>5.8616440796980002E-2</v>
+        <v>2.5214298614929999E-2</v>
       </c>
       <c r="E3" s="14">
-        <v>-4.8493805062095996</v>
+        <v>-4.8493790248251001</v>
       </c>
       <c r="F3" s="14">
         <v>4.0767337814000002E-3</v>
       </c>
       <c r="G3" s="15">
-        <v>-4.7866873316312004</v>
+        <v>-4.8200879924287996</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>17</v>
@@ -1548,16 +1548,16 @@
         <v>17</v>
       </c>
       <c r="J3" s="17">
-        <v>49.54</v>
+        <v>21.31</v>
       </c>
       <c r="K3" s="17">
-        <v>-4098.4799999999996</v>
+        <v>-4098.4787480000005</v>
       </c>
       <c r="L3" s="17">
         <v>3.4454734675930099</v>
       </c>
       <c r="M3" s="18">
-        <v>-4045.4945265324</v>
+        <v>-4073.7232745324</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>17</v>
@@ -1574,16 +1574,16 @@
         <v>17</v>
       </c>
       <c r="D4" s="21">
-        <v>0.41243459670086002</v>
+        <v>0.40488787012747002</v>
       </c>
       <c r="E4" s="21">
-        <v>0.56065667891191995</v>
+        <v>0.56065666172215001</v>
       </c>
       <c r="F4" s="21">
         <v>0.32160075955021</v>
       </c>
       <c r="G4" s="22">
-        <v>1.29469203516298</v>
+        <v>1.28714529139984</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>17</v>
@@ -1592,16 +1592,16 @@
         <v>17</v>
       </c>
       <c r="J4" s="24">
-        <v>68.86</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="K4" s="24">
-        <v>93.607129999999998</v>
+        <v>93.607127129999995</v>
       </c>
       <c r="L4" s="24">
         <v>53.694400226782598</v>
       </c>
       <c r="M4" s="25">
-        <v>216.16153022678299</v>
+        <v>214.90152735678299</v>
       </c>
       <c r="N4" s="26" t="s">
         <v>17</v>
@@ -1618,16 +1618,16 @@
         <v>17</v>
       </c>
       <c r="D5" s="29">
-        <v>1.6328575693087599</v>
+        <v>1.5685665832692199</v>
       </c>
       <c r="E5" s="29">
-        <v>2.8969095635114499</v>
+        <v>2.89690948342579</v>
       </c>
       <c r="F5" s="29">
         <v>2.6406484029257902</v>
       </c>
       <c r="G5" s="30">
-        <v>7.1704155357459998</v>
+        <v>7.1061244696208101</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>17</v>
@@ -1636,16 +1636,16 @@
         <v>17</v>
       </c>
       <c r="J5" s="31">
-        <v>73.400000000000006</v>
+        <v>70.510000000000005</v>
       </c>
       <c r="K5" s="31">
-        <v>130.22149999999999</v>
+        <v>130.22149640000001</v>
       </c>
       <c r="L5" s="31">
         <v>118.702081809135</v>
       </c>
       <c r="M5" s="32">
-        <v>322.32358180913502</v>
+        <v>319.43357820913502</v>
       </c>
       <c r="N5" s="26" t="s">
         <v>17</v>
@@ -1662,16 +1662,16 @@
         <v>17</v>
       </c>
       <c r="D6" s="29">
-        <v>6.3506157274065496</v>
+        <v>6.0987314620161897</v>
       </c>
       <c r="E6" s="29">
-        <v>5.1159912970476098</v>
+        <v>5.1159912926972702</v>
       </c>
       <c r="F6" s="29">
         <v>21.5438258404386</v>
       </c>
       <c r="G6" s="30">
-        <v>33.010432864892699</v>
+        <v>32.758548595152099</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>17</v>
@@ -1680,16 +1680,16 @@
         <v>17</v>
       </c>
       <c r="J6" s="31">
-        <v>145.97999999999999</v>
+        <v>140.19</v>
       </c>
       <c r="K6" s="31">
-        <v>117.6</v>
+        <v>117.5999999</v>
       </c>
       <c r="L6" s="31">
         <v>495.22248411518399</v>
       </c>
       <c r="M6" s="32">
-        <v>758.80248411518403</v>
+        <v>753.01248401518399</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>17</v>
@@ -1706,16 +1706,16 @@
         <v>17</v>
       </c>
       <c r="D7" s="29">
-        <v>10.935134708324901</v>
+        <v>10.58275397669</v>
       </c>
       <c r="E7" s="29">
-        <v>7.4563672157712997</v>
+        <v>7.4563674949924597</v>
       </c>
       <c r="F7" s="29">
         <v>1.9713915508572499</v>
       </c>
       <c r="G7" s="30">
-        <v>20.362893474953399</v>
+        <v>20.010513022539801</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>17</v>
@@ -1724,16 +1724,16 @@
         <v>17</v>
       </c>
       <c r="J7" s="31">
-        <v>1206.22</v>
+        <v>1167.3499999999999</v>
       </c>
       <c r="K7" s="31">
-        <v>822.48820000000001</v>
+        <v>822.4882308</v>
       </c>
       <c r="L7" s="31">
         <v>217.45794449744801</v>
       </c>
       <c r="M7" s="32">
-        <v>2246.1661444974502</v>
+        <v>2207.2961752974502</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>17</v>
@@ -1750,16 +1750,16 @@
         <v>17</v>
       </c>
       <c r="D8" s="29">
-        <v>12.396203632236</v>
+        <v>11.901532872231099</v>
       </c>
       <c r="E8" s="29">
-        <v>14.3706891507665</v>
+        <v>14.370691918791501</v>
       </c>
       <c r="F8" s="29">
         <v>1.9465037044308</v>
       </c>
       <c r="G8" s="30">
-        <v>28.7133964874333</v>
+        <v>28.218728495453401</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>17</v>
@@ -1768,16 +1768,16 @@
         <v>17</v>
       </c>
       <c r="J8" s="31">
-        <v>1907.78</v>
+        <v>1831.65</v>
       </c>
       <c r="K8" s="31">
-        <v>2211.654</v>
+        <v>2211.6544260000001</v>
       </c>
       <c r="L8" s="31">
         <v>299.56758919175201</v>
       </c>
       <c r="M8" s="32">
-        <v>4419.0015891917501</v>
+        <v>4342.8720151917496</v>
       </c>
       <c r="N8" s="26" t="s">
         <v>17</v>
@@ -1794,16 +1794,16 @@
         <v>17</v>
       </c>
       <c r="D9" s="29">
-        <v>1.1878474126729299</v>
+        <v>1.15271062848296</v>
       </c>
       <c r="E9" s="29">
-        <v>-1.4320920838213</v>
+        <v>-1.4320894513638001</v>
       </c>
       <c r="F9" s="29">
         <v>0.48583699302731997</v>
       </c>
       <c r="G9" s="30">
-        <v>0.24159232187897001</v>
+        <v>0.20645817014647</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>17</v>
@@ -1812,16 +1812,16 @@
         <v>17</v>
       </c>
       <c r="J9" s="31">
-        <v>148.41</v>
+        <v>144.02000000000001</v>
       </c>
       <c r="K9" s="31">
-        <v>-178.92599999999999</v>
+        <v>-178.92567109999999</v>
       </c>
       <c r="L9" s="31">
         <v>60.7006147135818</v>
       </c>
       <c r="M9" s="32">
-        <v>30.184614713581801</v>
+        <v>25.7949436135819</v>
       </c>
       <c r="N9" s="26" t="s">
         <v>17</v>
@@ -1838,16 +1838,16 @@
         <v>17</v>
       </c>
       <c r="D10" s="29">
-        <v>0.25047879588025002</v>
+        <v>0.24879515181440001</v>
       </c>
       <c r="E10" s="29">
-        <v>1.32138651610115</v>
+        <v>1.3213865063035199</v>
       </c>
       <c r="F10" s="29">
         <v>0.22948591855218001</v>
       </c>
       <c r="G10" s="30">
-        <v>1.8013512305335699</v>
+        <v>1.7996675766701</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>17</v>
@@ -1856,16 +1856,16 @@
         <v>17</v>
       </c>
       <c r="J10" s="31">
-        <v>971.48</v>
+        <v>964.95</v>
       </c>
       <c r="K10" s="31">
-        <v>5124.9870000000001</v>
+        <v>5124.9869619999999</v>
       </c>
       <c r="L10" s="31">
         <v>890.05929372820901</v>
       </c>
       <c r="M10" s="32">
-        <v>6986.5262937282096</v>
+        <v>6979.9962557282097</v>
       </c>
       <c r="N10" s="26" t="s">
         <v>17</v>
@@ -1882,16 +1882,16 @@
         <v>17</v>
       </c>
       <c r="D11" s="21">
-        <v>4.1884847693790901</v>
+        <v>4.0665129764575401</v>
       </c>
       <c r="E11" s="21">
-        <v>2.35091900198575</v>
+        <v>2.3509190431721398</v>
       </c>
       <c r="F11" s="21">
         <v>0.42155605338928998</v>
       </c>
       <c r="G11" s="22">
-        <v>6.9609598247541298</v>
+        <v>6.8389880730189798</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>17</v>
@@ -1900,16 +1900,16 @@
         <v>17</v>
       </c>
       <c r="J11" s="24">
-        <v>976.28</v>
+        <v>947.85</v>
       </c>
       <c r="K11" s="24">
-        <v>547.96789999999999</v>
+        <v>547.96790959999998</v>
       </c>
       <c r="L11" s="24">
         <v>98.259100000000004</v>
       </c>
       <c r="M11" s="25">
-        <v>1622.5070000000001</v>
+        <v>1594.0770096000001</v>
       </c>
       <c r="N11" s="26" t="s">
         <v>17</v>
@@ -1926,7 +1926,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="34">
-        <v>4.2396625328376398</v>
+        <v>3.6650038461251202</v>
       </c>
       <c r="E12" s="34">
         <v>1.21768149144472</v>
@@ -1935,7 +1935,7 @@
         <v>4.0084618901309996</v>
       </c>
       <c r="G12" s="35">
-        <v>9.46580591441335</v>
+        <v>8.8911472277008397</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>17</v>
@@ -1944,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="37">
-        <v>974.89</v>
+        <v>842.75</v>
       </c>
       <c r="K12" s="37">
         <v>280</v>
@@ -1953,7 +1953,7 @@
         <v>921.72652464730004</v>
       </c>
       <c r="M12" s="38">
-        <v>2176.6165246473001</v>
+        <v>2044.4765246473</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>17</v>
@@ -1970,16 +1970,16 @@
         <v>1.2943979965885299</v>
       </c>
       <c r="D13" s="42">
-        <v>1.19848706444622</v>
+        <v>1.14480224030164</v>
       </c>
       <c r="E13" s="42">
-        <v>0.82468963266209006</v>
+        <v>0.82469002103392997</v>
       </c>
       <c r="F13" s="42">
         <v>0.51377467349512995</v>
       </c>
       <c r="G13" s="43">
-        <v>3.8313493671919598</v>
+        <v>3.7776649314192201</v>
       </c>
       <c r="H13" s="44">
         <v>17.0355640441649</v>
@@ -1988,16 +1988,16 @@
         <v>7455.9799924651297</v>
       </c>
       <c r="J13" s="45">
-        <v>6522.84</v>
+        <v>6198.18</v>
       </c>
       <c r="K13" s="45">
-        <v>5051.1197300000003</v>
+        <v>5051.1217327300001</v>
       </c>
       <c r="L13" s="45">
         <v>3158.8355063969898</v>
       </c>
       <c r="M13" s="46">
-        <v>22188.775228862101</v>
+        <v>21864.117231592099</v>
       </c>
       <c r="N13" s="47">
         <v>92023.807633634104</v>
@@ -2014,16 +2014,16 @@
         <v>17</v>
       </c>
       <c r="D14" s="29">
-        <v>19.549994618770299</v>
+        <v>18.385174244584999</v>
       </c>
       <c r="E14" s="29">
-        <v>3.4687647004509999E-2</v>
+        <v>3.4687642489960001E-2</v>
       </c>
       <c r="F14" s="29">
         <v>1.6042797079856901</v>
       </c>
       <c r="G14" s="30">
-        <v>21.188961973760499</v>
+        <v>20.024141595060701</v>
       </c>
       <c r="H14" s="23" t="s">
         <v>17</v>
@@ -2032,16 +2032,16 @@
         <v>17</v>
       </c>
       <c r="J14" s="31">
-        <v>588.94000000000005</v>
+        <v>553.85</v>
       </c>
       <c r="K14" s="31">
-        <v>1.044959</v>
+        <v>1.044958864</v>
       </c>
       <c r="L14" s="31">
         <v>48.328631779466001</v>
       </c>
       <c r="M14" s="32">
-        <v>638.31359077946604</v>
+        <v>603.22359064346597</v>
       </c>
       <c r="N14" s="26" t="s">
         <v>17</v>
@@ -2058,16 +2058,16 @@
         <v>17</v>
       </c>
       <c r="D15" s="29">
-        <v>3.3655923464019399</v>
+        <v>3.27038824301553</v>
       </c>
       <c r="E15" s="29">
-        <v>2.58847026288203</v>
+        <v>2.5884710896478702</v>
       </c>
       <c r="F15" s="29">
         <v>0.89621076099979002</v>
       </c>
       <c r="G15" s="30">
-        <v>6.8502733702837499</v>
+        <v>6.75507009366319</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>17</v>
@@ -2076,16 +2076,16 @@
         <v>17</v>
       </c>
       <c r="J15" s="31">
-        <v>1335.22</v>
+        <v>1297.45</v>
       </c>
       <c r="K15" s="31">
-        <v>1026.915</v>
+        <v>1026.915328</v>
       </c>
       <c r="L15" s="31">
         <v>355.55064581170302</v>
       </c>
       <c r="M15" s="32">
-        <v>2717.6856458116999</v>
+        <v>2679.9159738117</v>
       </c>
       <c r="N15" s="26" t="s">
         <v>17</v>
@@ -2102,16 +2102,16 @@
         <v>17</v>
       </c>
       <c r="D16" s="29">
-        <v>33.093904271013102</v>
+        <v>30.235145836140902</v>
       </c>
       <c r="E16" s="29">
-        <v>1.1238871635827901</v>
+        <v>1.12388704461419</v>
       </c>
       <c r="F16" s="29">
         <v>0</v>
       </c>
       <c r="G16" s="30">
-        <v>34.217791434595902</v>
+        <v>31.359032880755102</v>
       </c>
       <c r="H16" s="23" t="s">
         <v>17</v>
@@ -2120,16 +2120,16 @@
         <v>17</v>
       </c>
       <c r="J16" s="31">
-        <v>753.85</v>
+        <v>688.73</v>
       </c>
       <c r="K16" s="31">
-        <v>25.60116</v>
+        <v>25.60115729</v>
       </c>
       <c r="L16" s="31">
         <v>0</v>
       </c>
       <c r="M16" s="32">
-        <v>779.45115999999996</v>
+        <v>714.33115728999996</v>
       </c>
       <c r="N16" s="26" t="s">
         <v>17</v>
@@ -2146,16 +2146,16 @@
         <v>17</v>
       </c>
       <c r="D17" s="14">
-        <v>6.43200059505652</v>
+        <v>5.8382424749245097</v>
       </c>
       <c r="E17" s="14">
-        <v>5.1546874223635903</v>
+        <v>5.1546878590173302</v>
       </c>
       <c r="F17" s="14">
         <v>0</v>
       </c>
       <c r="G17" s="15">
-        <v>11.5866880174201</v>
+        <v>10.9929303339418</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>17</v>
@@ -2164,16 +2164,16 @@
         <v>17</v>
       </c>
       <c r="J17" s="17">
-        <v>707.05</v>
+        <v>641.78</v>
       </c>
       <c r="K17" s="17">
-        <v>566.63890000000004</v>
+        <v>566.63894800000003</v>
       </c>
       <c r="L17" s="17">
         <v>0</v>
       </c>
       <c r="M17" s="18">
-        <v>1273.6889000000001</v>
+        <v>1208.418948</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>17</v>
@@ -2190,10 +2190,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="14">
-        <v>1.4641290117763399</v>
+        <v>1.3735151641419701</v>
       </c>
       <c r="E18" s="14">
-        <v>37.951010504058203</v>
+        <v>37.951007236017801</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>17</v>
@@ -2208,10 +2208,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="17">
-        <v>187.27</v>
+        <v>175.68</v>
       </c>
       <c r="K18" s="17">
-        <v>4854.1390000000001</v>
+        <v>4854.1385819999996</v>
       </c>
       <c r="L18" s="17" t="s">
         <v>17</v>
@@ -2234,7 +2234,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="21">
-        <v>6.0031747677036202</v>
+        <v>5.5750100880862403</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>17</v>
@@ -2252,7 +2252,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="24">
-        <v>3025.53</v>
+        <v>2809.74</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>17</v>
@@ -2278,16 +2278,16 @@
         <v>17</v>
       </c>
       <c r="D20" s="14">
-        <v>0.56116694069469997</v>
+        <v>0.54960551784911005</v>
       </c>
       <c r="E20" s="14">
-        <v>3.9614260687167202</v>
+        <v>3.9614261746964301</v>
       </c>
       <c r="F20" s="14">
         <v>0</v>
       </c>
       <c r="G20" s="15">
-        <v>4.5225930094114197</v>
+        <v>4.51103169254554</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>17</v>
@@ -2296,16 +2296,16 @@
         <v>17</v>
       </c>
       <c r="J20" s="17">
-        <v>64.069999999999993</v>
+        <v>62.75</v>
       </c>
       <c r="K20" s="17">
-        <v>452.28710000000001</v>
+        <v>452.2871121</v>
       </c>
       <c r="L20" s="17">
         <v>0</v>
       </c>
       <c r="M20" s="18">
-        <v>516.35709999999995</v>
+        <v>515.03711209999994</v>
       </c>
       <c r="N20" s="50" t="s">
         <v>17</v>
@@ -2322,16 +2322,16 @@
         <v>17</v>
       </c>
       <c r="D21" s="14">
-        <v>0.69160798906262</v>
+        <v>0.68633396703994998</v>
       </c>
       <c r="E21" s="14">
-        <v>9.2036839800252306</v>
+        <v>9.2036832392918004</v>
       </c>
       <c r="F21" s="14">
         <v>0.10937991159759</v>
       </c>
       <c r="G21" s="15">
-        <v>10.0046718806854</v>
+        <v>9.9993971179293393</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>17</v>
@@ -2340,16 +2340,16 @@
         <v>17</v>
       </c>
       <c r="J21" s="17">
-        <v>116.71</v>
+        <v>115.82</v>
       </c>
       <c r="K21" s="17">
-        <v>1553.1369999999999</v>
+        <v>1553.1368749999999</v>
       </c>
       <c r="L21" s="17">
         <v>18.458042249999998</v>
       </c>
       <c r="M21" s="18">
-        <v>1688.30504225</v>
+        <v>1687.4149172499999</v>
       </c>
       <c r="N21" s="50" t="s">
         <v>17</v>
@@ -2366,16 +2366,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="29">
-        <v>11.9279182216197</v>
+        <v>11.7932444320823</v>
       </c>
       <c r="E22" s="29">
-        <v>5.6172437616075497</v>
+        <v>5.6172436455094603</v>
       </c>
       <c r="F22" s="29">
         <v>2.5807281416588101</v>
       </c>
       <c r="G22" s="30">
-        <v>20.125890124886102</v>
+        <v>19.9912162192505</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>17</v>
@@ -2384,16 +2384,16 @@
         <v>17</v>
       </c>
       <c r="J22" s="31">
-        <v>51.37</v>
+        <v>50.79</v>
       </c>
       <c r="K22" s="31">
-        <v>24.191800000000001</v>
+        <v>24.191799499999998</v>
       </c>
       <c r="L22" s="31">
         <v>11.1144293726563</v>
       </c>
       <c r="M22" s="32">
-        <v>86.676229372656394</v>
+        <v>86.096228872656297</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>17</v>
@@ -2410,16 +2410,16 @@
         <v>1.805197348692E-2</v>
       </c>
       <c r="D23" s="42">
-        <v>4.7023449367015298</v>
+        <v>4.4101980111426702</v>
       </c>
       <c r="E23" s="42">
-        <v>7.32103476189008</v>
+        <v>7.3210347712605603</v>
       </c>
       <c r="F23" s="42">
         <v>1.7258497828453301</v>
       </c>
       <c r="G23" s="43">
-        <v>13.7672814549239</v>
+        <v>13.475134538735499</v>
       </c>
       <c r="H23" s="44">
         <v>14.8322421890675</v>
@@ -2428,16 +2428,16 @@
         <v>22.61502741164</v>
       </c>
       <c r="J23" s="45">
-        <v>6830.01</v>
+        <v>6396.59</v>
       </c>
       <c r="K23" s="45">
-        <v>8503.9549189999998</v>
+        <v>8503.9547607540007</v>
       </c>
       <c r="L23" s="45">
         <v>2509.7696770412499</v>
       </c>
       <c r="M23" s="46">
-        <v>17866.349623452901</v>
+        <v>17432.9294652069</v>
       </c>
       <c r="N23" s="47">
         <v>21507.566974691301</v>
@@ -2454,16 +2454,16 @@
         <v>17</v>
       </c>
       <c r="D24" s="29">
-        <v>6.5856032601686296</v>
+        <v>6.1302337095869301</v>
       </c>
       <c r="E24" s="29">
-        <v>0.30953017114540998</v>
+        <v>0.30953020683426002</v>
       </c>
       <c r="F24" s="29">
         <v>14.198017568666801</v>
       </c>
       <c r="G24" s="30">
-        <v>21.0931509999808</v>
+        <v>20.637781485087999</v>
       </c>
       <c r="H24" s="23" t="s">
         <v>17</v>
@@ -2472,16 +2472,16 @@
         <v>17</v>
       </c>
       <c r="J24" s="31">
-        <v>78.239999999999995</v>
+        <v>72.83</v>
       </c>
       <c r="K24" s="31">
-        <v>3.6773609999999999</v>
+        <v>3.6773614239999999</v>
       </c>
       <c r="L24" s="31">
         <v>168.678988194021</v>
       </c>
       <c r="M24" s="32">
-        <v>250.596349194021</v>
+        <v>245.18634961802101</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>17</v>
@@ -2498,7 +2498,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="29">
-        <v>8.2135005129228205</v>
+        <v>7.9120655263945299</v>
       </c>
       <c r="E25" s="29">
         <v>6.6918567009280201</v>
@@ -2507,7 +2507,7 @@
         <v>2.39526495597147</v>
       </c>
       <c r="G25" s="30">
-        <v>17.300622169822301</v>
+        <v>16.999187183294001</v>
       </c>
       <c r="H25" s="23" t="s">
         <v>17</v>
@@ -2516,7 +2516,7 @@
         <v>17</v>
       </c>
       <c r="J25" s="31">
-        <v>272.48</v>
+        <v>262.48</v>
       </c>
       <c r="K25" s="31">
         <v>222</v>
@@ -2525,7 +2525,7 @@
         <v>79.462075174431703</v>
       </c>
       <c r="M25" s="32">
-        <v>573.94207517443203</v>
+        <v>563.94207517443203</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>17</v>
@@ -2542,7 +2542,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="29">
-        <v>13.973258074616901</v>
+        <v>13.4217551289066</v>
       </c>
       <c r="E26" s="29">
         <v>3.3865207414725398</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="30">
-        <v>17.359778816089499</v>
+        <v>16.808275870379099</v>
       </c>
       <c r="H26" s="23" t="s">
         <v>17</v>
@@ -2560,7 +2560,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="31">
-        <v>276.93</v>
+        <v>266</v>
       </c>
       <c r="K26" s="31">
         <v>67.116</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="32">
-        <v>344.04599999999999</v>
+        <v>333.11599999999999</v>
       </c>
       <c r="N26" s="26" t="s">
         <v>17</v>
@@ -2586,7 +2586,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="29">
-        <v>5.1939104022664901</v>
+        <v>5.0502833063375201</v>
       </c>
       <c r="E27" s="29">
         <v>2.75224977147401</v>
@@ -2595,7 +2595,7 @@
         <v>0.57343306479516998</v>
       </c>
       <c r="G27" s="30">
-        <v>8.5195932385356699</v>
+        <v>8.3759661426066998</v>
       </c>
       <c r="H27" s="23" t="s">
         <v>17</v>
@@ -2604,7 +2604,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="31">
-        <v>4809.97</v>
+        <v>4676.96</v>
       </c>
       <c r="K27" s="31">
         <v>2548.8000000000002</v>
@@ -2613,7 +2613,7 @@
         <v>531.04417000902401</v>
       </c>
       <c r="M27" s="32">
-        <v>7889.81417000903</v>
+        <v>7756.8041700090198</v>
       </c>
       <c r="N27" s="26" t="s">
         <v>17</v>
@@ -2630,16 +2630,16 @@
         <v>17</v>
       </c>
       <c r="D28" s="29">
-        <v>3.2346725257657498</v>
+        <v>3.15600886234005</v>
       </c>
       <c r="E28" s="29">
-        <v>1.0928697189332699</v>
+        <v>1.0928696661989601</v>
       </c>
       <c r="F28" s="29">
         <v>2.8239640421313101</v>
       </c>
       <c r="G28" s="30">
-        <v>7.1515062868303199</v>
+        <v>7.0728425706703204</v>
       </c>
       <c r="H28" s="23" t="s">
         <v>17</v>
@@ -2648,16 +2648,16 @@
         <v>17</v>
       </c>
       <c r="J28" s="31">
-        <v>3250.97</v>
+        <v>3171.91</v>
       </c>
       <c r="K28" s="31">
-        <v>1098.376</v>
+        <v>1098.375947</v>
       </c>
       <c r="L28" s="31">
         <v>2838.1922154157701</v>
       </c>
       <c r="M28" s="32">
-        <v>7187.5382154157696</v>
+        <v>7108.4781624157704</v>
       </c>
       <c r="N28" s="26" t="s">
         <v>17</v>
@@ -2674,16 +2674,16 @@
         <v>17</v>
       </c>
       <c r="D29" s="29">
-        <v>5.3611341869143603</v>
+        <v>5.1214971535518901</v>
       </c>
       <c r="E29" s="29">
-        <v>3.36279812976343</v>
+        <v>3.3627983098456999</v>
       </c>
       <c r="F29" s="29">
         <v>2.89036438302927</v>
       </c>
       <c r="G29" s="30">
-        <v>11.614296699707101</v>
+        <v>11.3746598464268</v>
       </c>
       <c r="H29" s="23" t="s">
         <v>17</v>
@@ -2692,16 +2692,16 @@
         <v>17</v>
       </c>
       <c r="J29" s="31">
-        <v>756.17</v>
+        <v>722.37</v>
       </c>
       <c r="K29" s="31">
-        <v>474.31139999999999</v>
+        <v>474.31142540000002</v>
       </c>
       <c r="L29" s="31">
         <v>407.67620419760198</v>
       </c>
       <c r="M29" s="32">
-        <v>1638.1576041976</v>
+        <v>1604.3576295976</v>
       </c>
       <c r="N29" s="26" t="s">
         <v>17</v>
@@ -2721,13 +2721,13 @@
         <v>0.15791194845734999</v>
       </c>
       <c r="E30" s="29">
-        <v>3.3563202144659301</v>
+        <v>3.35632023867245</v>
       </c>
       <c r="F30" s="29">
         <v>2.2676644643701702</v>
       </c>
       <c r="G30" s="30">
-        <v>5.7818966272934498</v>
+        <v>5.7818966514999701</v>
       </c>
       <c r="H30" s="23" t="s">
         <v>17</v>
@@ -2739,13 +2739,13 @@
         <v>22.18</v>
       </c>
       <c r="K30" s="31">
-        <v>471.4221</v>
+        <v>471.42210340000003</v>
       </c>
       <c r="L30" s="31">
         <v>318.51166622338201</v>
       </c>
       <c r="M30" s="32">
-        <v>812.11376622338196</v>
+        <v>812.11376962338204</v>
       </c>
       <c r="N30" s="26" t="s">
         <v>17</v>
@@ -2762,16 +2762,16 @@
         <v>17</v>
       </c>
       <c r="D31" s="29">
-        <v>11.501196139568</v>
+        <v>11.280557795357501</v>
       </c>
       <c r="E31" s="29">
-        <v>3.4167030454263898</v>
+        <v>3.4167029112087501</v>
       </c>
       <c r="F31" s="29">
         <v>2.5174042775587102</v>
       </c>
       <c r="G31" s="30">
-        <v>17.435303462553101</v>
+        <v>17.214664984125001</v>
       </c>
       <c r="H31" s="23" t="s">
         <v>17</v>
@@ -2780,16 +2780,16 @@
         <v>17</v>
       </c>
       <c r="J31" s="31">
-        <v>1191.0999999999999</v>
+        <v>1168.25</v>
       </c>
       <c r="K31" s="31">
-        <v>353.84449999999998</v>
+        <v>353.84448609999998</v>
       </c>
       <c r="L31" s="31">
         <v>260.710294704425</v>
       </c>
       <c r="M31" s="32">
-        <v>1805.6547947044301</v>
+        <v>1782.80478080443</v>
       </c>
       <c r="N31" s="26" t="s">
         <v>17</v>
@@ -2809,7 +2809,7 @@
         <v>17</v>
       </c>
       <c r="E32" s="29">
-        <v>8.5417802586967593</v>
+        <v>8.5417776202521303</v>
       </c>
       <c r="F32" s="29">
         <v>1.4052819173600199</v>
@@ -2827,7 +2827,7 @@
         <v>17</v>
       </c>
       <c r="K32" s="31">
-        <v>143.74189999999999</v>
+        <v>143.74185560000001</v>
       </c>
       <c r="L32" s="31">
         <v>23.6482193078321</v>
@@ -2850,7 +2850,7 @@
         <v>17</v>
       </c>
       <c r="D33" s="29">
-        <v>28.802433790460199</v>
+        <v>26.5508300296991</v>
       </c>
       <c r="E33" s="29">
         <v>6.9011717022779502</v>
@@ -2859,7 +2859,7 @@
         <v>24.347086743830701</v>
       </c>
       <c r="G33" s="30">
-        <v>60.050692236568899</v>
+        <v>57.7990884758077</v>
       </c>
       <c r="H33" s="23" t="s">
         <v>17</v>
@@ -2868,7 +2868,7 @@
         <v>17</v>
       </c>
       <c r="J33" s="31">
-        <v>1865.58</v>
+        <v>1719.74</v>
       </c>
       <c r="K33" s="31">
         <v>447</v>
@@ -2877,7 +2877,7 @@
         <v>1577</v>
       </c>
       <c r="M33" s="32">
-        <v>3889.58</v>
+        <v>3743.74</v>
       </c>
       <c r="N33" s="26" t="s">
         <v>17</v>
@@ -2894,7 +2894,7 @@
         <v>17</v>
       </c>
       <c r="D34" s="21">
-        <v>35.446455001359901</v>
+        <v>31.5238370702764</v>
       </c>
       <c r="E34" s="21">
         <v>-4.3590075307597003</v>
@@ -2903,7 +2903,7 @@
         <v>13.1612546218589</v>
       </c>
       <c r="G34" s="22">
-        <v>44.248702092459098</v>
+        <v>40.326084161375597</v>
       </c>
       <c r="H34" s="23" t="s">
         <v>17</v>
@@ -2912,7 +2912,7 @@
         <v>17</v>
       </c>
       <c r="J34" s="24">
-        <v>1885.27</v>
+        <v>1676.64</v>
       </c>
       <c r="K34" s="24">
         <v>-231.84</v>
@@ -2921,7 +2921,7 @@
         <v>700</v>
       </c>
       <c r="M34" s="25">
-        <v>2353.4299999999998</v>
+        <v>2144.8000000000002</v>
       </c>
       <c r="N34" s="26" t="s">
         <v>17</v>
@@ -2938,16 +2938,16 @@
         <v>17</v>
       </c>
       <c r="D35" s="29">
-        <v>4.8405456742198103</v>
+        <v>4.5745148351872196</v>
       </c>
       <c r="E35" s="29">
-        <v>2.45906465617368</v>
+        <v>2.4590646332322801</v>
       </c>
       <c r="F35" s="29">
         <v>1.5561933733098601</v>
       </c>
       <c r="G35" s="30">
-        <v>8.8558037037033603</v>
+        <v>8.58977284172936</v>
       </c>
       <c r="H35" s="23" t="s">
         <v>17</v>
@@ -2956,16 +2956,16 @@
         <v>17</v>
       </c>
       <c r="J35" s="31">
-        <v>1624.67</v>
+        <v>1535.38</v>
       </c>
       <c r="K35" s="31">
-        <v>825.35500000000002</v>
+        <v>825.35499230000005</v>
       </c>
       <c r="L35" s="31">
         <v>522.31728775554598</v>
       </c>
       <c r="M35" s="32">
-        <v>2972.3422877555499</v>
+        <v>2883.05228005555</v>
       </c>
       <c r="N35" s="26" t="s">
         <v>17</v>
@@ -2982,16 +2982,16 @@
         <v>17</v>
       </c>
       <c r="D36" s="29">
-        <v>3.5407392432859099</v>
+        <v>3.4936749756847099</v>
       </c>
       <c r="E36" s="29">
-        <v>1.6290390136113799</v>
+        <v>1.6290389703622401</v>
       </c>
       <c r="F36" s="29">
         <v>0.71286779147571999</v>
       </c>
       <c r="G36" s="30">
-        <v>5.8826460483730099</v>
+        <v>5.83558173752267</v>
       </c>
       <c r="H36" s="23" t="s">
         <v>17</v>
@@ -3000,16 +3000,16 @@
         <v>17</v>
       </c>
       <c r="J36" s="31">
-        <v>2153.14</v>
+        <v>2124.52</v>
       </c>
       <c r="K36" s="31">
-        <v>990.62620000000004</v>
+        <v>990.62617369999998</v>
       </c>
       <c r="L36" s="31">
         <v>433.49821917798101</v>
       </c>
       <c r="M36" s="32">
-        <v>3577.26441917798</v>
+        <v>3548.64439287798</v>
       </c>
       <c r="N36" s="26" t="s">
         <v>17</v>
@@ -3026,16 +3026,16 @@
         <v>17</v>
       </c>
       <c r="D37" s="29">
-        <v>5.5178984704075003</v>
+        <v>5.3287142808706198</v>
       </c>
       <c r="E37" s="29">
-        <v>3.3077962170739301</v>
+        <v>3.3077951292648402</v>
       </c>
       <c r="F37" s="29">
         <v>3.7429794004952801</v>
       </c>
       <c r="G37" s="30">
-        <v>12.568674087976699</v>
+        <v>12.379488810630701</v>
       </c>
       <c r="H37" s="23" t="s">
         <v>17</v>
@@ -3044,16 +3044,16 @@
         <v>17</v>
       </c>
       <c r="J37" s="31">
-        <v>2100.0100000000002</v>
+        <v>2028.01</v>
       </c>
       <c r="K37" s="31">
-        <v>1258.886</v>
+        <v>1258.8855860000001</v>
       </c>
       <c r="L37" s="31">
         <v>1424.5086626709201</v>
       </c>
       <c r="M37" s="32">
-        <v>4783.4046626709196</v>
+        <v>4711.4042486709204</v>
       </c>
       <c r="N37" s="26" t="s">
         <v>17</v>
@@ -3070,16 +3070,16 @@
         <v>4.3970482129940001E-2</v>
       </c>
       <c r="D38" s="42">
-        <v>5.2896901350930996</v>
+        <v>5.0704225721893499</v>
       </c>
       <c r="E38" s="42">
-        <v>2.3149264000698402</v>
+        <v>2.3149262721944699</v>
       </c>
       <c r="F38" s="42">
         <v>2.2929326746216199</v>
       </c>
       <c r="G38" s="43">
-        <v>9.9415196919145004</v>
+        <v>9.7222520011353808</v>
       </c>
       <c r="H38" s="44">
         <v>18.979787118191101</v>
@@ -3088,16 +3088,16 @@
         <v>115.0599178634</v>
       </c>
       <c r="J38" s="45">
-        <v>20286.71</v>
+        <v>19447.27</v>
       </c>
       <c r="K38" s="45">
-        <v>8673.3164610000003</v>
+        <v>8673.315930924</v>
       </c>
       <c r="L38" s="45">
         <v>9285.2480028309292</v>
       </c>
       <c r="M38" s="46">
-        <v>38360.334381694302</v>
+        <v>37520.893851618297</v>
       </c>
       <c r="N38" s="47">
         <v>72556.798971697295</v>
@@ -3114,16 +3114,16 @@
         <v>17</v>
       </c>
       <c r="D39" s="14">
-        <v>0.10271792992904</v>
+        <v>0.10052000472683</v>
       </c>
       <c r="E39" s="14">
-        <v>0.80774452646887995</v>
+        <v>0.80774442007993996</v>
       </c>
       <c r="F39" s="14">
         <v>1.04392017259204</v>
       </c>
       <c r="G39" s="15">
-        <v>1.95438262898996</v>
+        <v>1.9521845973988099</v>
       </c>
       <c r="H39" s="49" t="s">
         <v>17</v>
@@ -3132,16 +3132,16 @@
         <v>17</v>
       </c>
       <c r="J39" s="17">
-        <v>175.72</v>
+        <v>171.96</v>
       </c>
       <c r="K39" s="17">
-        <v>1381.8119999999999</v>
+        <v>1381.8118179999999</v>
       </c>
       <c r="L39" s="17">
         <v>1785.8386832229901</v>
       </c>
       <c r="M39" s="18">
-        <v>3343.37068322299</v>
+        <v>3339.61050122299</v>
       </c>
       <c r="N39" s="50" t="s">
         <v>17</v>
@@ -3158,7 +3158,7 @@
         <v>17</v>
       </c>
       <c r="D40" s="29">
-        <v>0.57571608888722003</v>
+        <v>0.56522771587655996</v>
       </c>
       <c r="E40" s="29">
         <v>2.9801400449697102</v>
@@ -3167,7 +3167,7 @@
         <v>8.8581934073642508</v>
       </c>
       <c r="G40" s="30">
-        <v>12.4140495412212</v>
+        <v>12.4035611682105</v>
       </c>
       <c r="H40" s="23" t="s">
         <v>17</v>
@@ -3176,7 +3176,7 @@
         <v>17</v>
       </c>
       <c r="J40" s="31">
-        <v>1740.59</v>
+        <v>1708.88</v>
       </c>
       <c r="K40" s="31">
         <v>9010</v>
@@ -3185,7 +3185,7 @@
         <v>26781.4</v>
       </c>
       <c r="M40" s="32">
-        <v>37531.99</v>
+        <v>37500.28</v>
       </c>
       <c r="N40" s="26" t="s">
         <v>17</v>
@@ -3202,7 +3202,7 @@
         <v>17</v>
       </c>
       <c r="D41" s="14">
-        <v>0.80008635090511004</v>
+        <v>0.74481631185488995</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>17</v>
@@ -3220,7 +3220,7 @@
         <v>17</v>
       </c>
       <c r="J41" s="17">
-        <v>316.01</v>
+        <v>294.18</v>
       </c>
       <c r="K41" s="17" t="s">
         <v>17</v>
@@ -3246,16 +3246,16 @@
         <v>17</v>
       </c>
       <c r="D42" s="14">
-        <v>5.2248519826298701</v>
+        <v>5.0262168461171601</v>
       </c>
       <c r="E42" s="14">
-        <v>11.2426777402274</v>
+        <v>11.242677215435201</v>
       </c>
       <c r="F42" s="14">
         <v>0.81709030698742002</v>
       </c>
       <c r="G42" s="15">
-        <v>17.284620029844699</v>
+        <v>17.085984368539801</v>
       </c>
       <c r="H42" s="49" t="s">
         <v>17</v>
@@ -3264,16 +3264,16 @@
         <v>17</v>
       </c>
       <c r="J42" s="17">
-        <v>412.18</v>
+        <v>396.51</v>
       </c>
       <c r="K42" s="17">
-        <v>886.91639999999995</v>
+        <v>886.91635859999997</v>
       </c>
       <c r="L42" s="17">
         <v>64.458913640756407</v>
       </c>
       <c r="M42" s="18">
-        <v>1363.55531364076</v>
+        <v>1347.8852722407601</v>
       </c>
       <c r="N42" s="50" t="s">
         <v>17</v>
@@ -3290,16 +3290,16 @@
         <v>17</v>
       </c>
       <c r="D43" s="29">
-        <v>0.63223103390966995</v>
+        <v>0.62710884966957003</v>
       </c>
       <c r="E43" s="29">
-        <v>1.43484643775145</v>
+        <v>1.4348468148243001</v>
       </c>
       <c r="F43" s="29">
         <v>5.8084054761121502</v>
       </c>
       <c r="G43" s="30">
-        <v>7.8754829477732802</v>
+        <v>7.8703611406060201</v>
       </c>
       <c r="H43" s="23" t="s">
         <v>17</v>
@@ -3308,16 +3308,16 @@
         <v>17</v>
       </c>
       <c r="J43" s="31">
-        <v>757.86</v>
+        <v>751.72</v>
       </c>
       <c r="K43" s="31">
-        <v>1719.961</v>
+        <v>1719.961452</v>
       </c>
       <c r="L43" s="31">
         <v>6962.5784531723402</v>
       </c>
       <c r="M43" s="32">
-        <v>9440.3994531723401</v>
+        <v>9434.2599051723391</v>
       </c>
       <c r="N43" s="26" t="s">
         <v>17</v>
@@ -3334,16 +3334,16 @@
         <v>17</v>
       </c>
       <c r="D44" s="29">
-        <v>2.3557060042956302</v>
+        <v>2.3438320758774802</v>
       </c>
       <c r="E44" s="29">
-        <v>2.0223907093689499</v>
+        <v>2.0223907895658502</v>
       </c>
       <c r="F44" s="29">
         <v>4.9067649299609304</v>
       </c>
       <c r="G44" s="30">
-        <v>9.2848616436255096</v>
+        <v>9.2729877954042603</v>
       </c>
       <c r="H44" s="23" t="s">
         <v>17</v>
@@ -3352,16 +3352,16 @@
         <v>17</v>
       </c>
       <c r="J44" s="31">
-        <v>984.03</v>
+        <v>979.07</v>
       </c>
       <c r="K44" s="31">
-        <v>844.79690000000005</v>
+        <v>844.79693350000002</v>
       </c>
       <c r="L44" s="31">
         <v>2049.66319448389</v>
       </c>
       <c r="M44" s="32">
-        <v>3878.4900944838901</v>
+        <v>3873.53012798389</v>
       </c>
       <c r="N44" s="26" t="s">
         <v>17</v>
@@ -3378,16 +3378,16 @@
         <v>0.68397653249072998</v>
       </c>
       <c r="D45" s="42">
-        <v>0.64487004855261998</v>
+        <v>0.63290655399604001</v>
       </c>
       <c r="E45" s="42">
-        <v>2.30045940469721</v>
+        <v>2.3004594287029598</v>
       </c>
       <c r="F45" s="42">
         <v>6.0186656518032304</v>
       </c>
       <c r="G45" s="43">
-        <v>9.6479716375437903</v>
+        <v>9.6360081669929603</v>
       </c>
       <c r="H45" s="44">
         <v>23.099906664509401</v>
@@ -3396,16 +3396,16 @@
         <v>4146.8739152591797</v>
       </c>
       <c r="J45" s="45">
-        <v>4386.3900000000003</v>
+        <v>4302.32</v>
       </c>
       <c r="K45" s="45">
-        <v>13843.4863</v>
+        <v>13843.486562100001</v>
       </c>
       <c r="L45" s="45">
         <v>37643.939244519999</v>
       </c>
       <c r="M45" s="46">
-        <v>60020.689459779198</v>
+        <v>59936.6197218792</v>
       </c>
       <c r="N45" s="47">
         <v>154397.786219042</v>
@@ -3422,16 +3422,16 @@
         <v>17</v>
       </c>
       <c r="D46" s="29">
-        <v>4.1842521813433704</v>
+        <v>4.12102391404422</v>
       </c>
       <c r="E46" s="29">
-        <v>1.51614367340522</v>
+        <v>1.5161434760774399</v>
       </c>
       <c r="F46" s="29">
         <v>1.5077033610711299</v>
       </c>
       <c r="G46" s="30">
-        <v>7.2080992158197201</v>
+        <v>7.1448707511927898</v>
       </c>
       <c r="H46" s="23" t="s">
         <v>17</v>
@@ -3440,16 +3440,16 @@
         <v>17</v>
       </c>
       <c r="J46" s="31">
-        <v>602.21</v>
+        <v>593.11</v>
       </c>
       <c r="K46" s="31">
-        <v>218.2079</v>
+        <v>218.2078716</v>
       </c>
       <c r="L46" s="31">
         <v>216.99314518350599</v>
       </c>
       <c r="M46" s="32">
-        <v>1037.4110451835099</v>
+        <v>1028.31101678351</v>
       </c>
       <c r="N46" s="26" t="s">
         <v>17</v>
@@ -3466,16 +3466,16 @@
         <v>17</v>
       </c>
       <c r="D47" s="29">
-        <v>7.1838871447383204</v>
+        <v>6.92700038025521</v>
       </c>
       <c r="E47" s="29">
-        <v>1.01910193681673</v>
+        <v>1.01910220570989</v>
       </c>
       <c r="F47" s="29">
         <v>2.9218795964335702</v>
       </c>
       <c r="G47" s="30">
-        <v>11.1248686779886</v>
+        <v>10.8679821823987</v>
       </c>
       <c r="H47" s="23" t="s">
         <v>17</v>
@@ -3484,16 +3484,16 @@
         <v>17</v>
       </c>
       <c r="J47" s="31">
-        <v>1148.81</v>
+        <v>1107.73</v>
       </c>
       <c r="K47" s="31">
-        <v>162.96950000000001</v>
+        <v>162.96954299999999</v>
       </c>
       <c r="L47" s="31">
         <v>467.251841732701</v>
       </c>
       <c r="M47" s="32">
-        <v>1779.0313417327</v>
+        <v>1737.9513847327</v>
       </c>
       <c r="N47" s="26" t="s">
         <v>17</v>
@@ -3510,16 +3510,16 @@
         <v>17</v>
       </c>
       <c r="D48" s="29">
-        <v>7.6968637736353802</v>
+        <v>7.6665889718510503</v>
       </c>
       <c r="E48" s="29">
-        <v>5.3748016141783896</v>
+        <v>5.3748011045525601</v>
       </c>
       <c r="F48" s="29">
         <v>11.9014138229214</v>
       </c>
       <c r="G48" s="30">
-        <v>24.9730792107352</v>
+        <v>24.942803899325099</v>
       </c>
       <c r="H48" s="23" t="s">
         <v>17</v>
@@ -3528,16 +3528,16 @@
         <v>17</v>
       </c>
       <c r="J48" s="31">
-        <v>152.54</v>
+        <v>151.94</v>
       </c>
       <c r="K48" s="31">
-        <v>106.52030000000001</v>
+        <v>106.52028989999999</v>
       </c>
       <c r="L48" s="31">
         <v>235.867714167815</v>
       </c>
       <c r="M48" s="32">
-        <v>494.92801416781498</v>
+        <v>494.32800406781502</v>
       </c>
       <c r="N48" s="26" t="s">
         <v>17</v>
@@ -3554,16 +3554,16 @@
         <v>17</v>
       </c>
       <c r="D49" s="29">
-        <v>2.05200175516643</v>
+        <v>2.0048711237094698</v>
       </c>
       <c r="E49" s="29">
-        <v>1.5983836912849301</v>
+        <v>1.5983836859893601</v>
       </c>
       <c r="F49" s="29">
         <v>0.56080226262695998</v>
       </c>
       <c r="G49" s="30">
-        <v>4.2111877090783301</v>
+        <v>4.1640570723257904</v>
       </c>
       <c r="H49" s="23" t="s">
         <v>17</v>
@@ -3572,16 +3572,16 @@
         <v>17</v>
       </c>
       <c r="J49" s="31">
-        <v>1201.23</v>
+        <v>1173.6400000000001</v>
       </c>
       <c r="K49" s="31">
-        <v>935.68460000000005</v>
+        <v>935.68459689999997</v>
       </c>
       <c r="L49" s="31">
         <v>328.29041214964599</v>
       </c>
       <c r="M49" s="32">
-        <v>2465.20501214965</v>
+        <v>2437.6150090496499</v>
       </c>
       <c r="N49" s="26" t="s">
         <v>17</v>
@@ -3598,7 +3598,7 @@
         <v>17</v>
       </c>
       <c r="D50" s="29">
-        <v>10.7439932235659</v>
+        <v>10.5119929576066</v>
       </c>
       <c r="E50" s="29">
         <v>2.4324037431006502</v>
@@ -3607,7 +3607,7 @@
         <v>15.2532095204824</v>
       </c>
       <c r="G50" s="30">
-        <v>28.429606487148899</v>
+        <v>28.197606221189599</v>
       </c>
       <c r="H50" s="23" t="s">
         <v>17</v>
@@ -3616,7 +3616,7 @@
         <v>17</v>
       </c>
       <c r="J50" s="31">
-        <v>194.04</v>
+        <v>189.85</v>
       </c>
       <c r="K50" s="31">
         <v>43.93</v>
@@ -3625,7 +3625,7 @@
         <v>275.47790786599899</v>
       </c>
       <c r="M50" s="32">
-        <v>513.44790786599901</v>
+        <v>509.25790786599998</v>
       </c>
       <c r="N50" s="26" t="s">
         <v>17</v>
@@ -3642,7 +3642,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="21">
-        <v>1.36983853983909</v>
+        <v>1.3327221653562999</v>
       </c>
       <c r="E51" s="21">
         <v>5.6749868592316899</v>
@@ -3651,7 +3651,7 @@
         <v>4.9686346020763201</v>
       </c>
       <c r="G51" s="22">
-        <v>12.0134600011471</v>
+        <v>11.976343626664301</v>
       </c>
       <c r="H51" s="23" t="s">
         <v>17</v>
@@ -3660,7 +3660,7 @@
         <v>17</v>
       </c>
       <c r="J51" s="24">
-        <v>936.32</v>
+        <v>910.95</v>
       </c>
       <c r="K51" s="24">
         <v>3879</v>
@@ -3669,7 +3669,7 @@
         <v>3396.19</v>
       </c>
       <c r="M51" s="25">
-        <v>8211.51</v>
+        <v>8186.14</v>
       </c>
       <c r="N51" s="26" t="s">
         <v>17</v>
@@ -3686,7 +3686,7 @@
         <v>17</v>
       </c>
       <c r="D52" s="29">
-        <v>4.2968598261085296</v>
+        <v>4.1387281623971202</v>
       </c>
       <c r="E52" s="29">
         <v>0.32854683522632</v>
@@ -3695,7 +3695,7 @@
         <v>1.1701151138364401</v>
       </c>
       <c r="G52" s="30">
-        <v>5.79552177517128</v>
+        <v>5.6373901114598803</v>
       </c>
       <c r="H52" s="23" t="s">
         <v>17</v>
@@ -3704,7 +3704,7 @@
         <v>17</v>
       </c>
       <c r="J52" s="31">
-        <v>580.67999999999995</v>
+        <v>559.30999999999995</v>
       </c>
       <c r="K52" s="31">
         <v>44.4</v>
@@ -3713,7 +3713,7 @@
         <v>158.13</v>
       </c>
       <c r="M52" s="32">
-        <v>783.21</v>
+        <v>761.84</v>
       </c>
       <c r="N52" s="26" t="s">
         <v>17</v>
@@ -3730,16 +3730,16 @@
         <v>17</v>
       </c>
       <c r="D53" s="29">
-        <v>8.3707483860655802</v>
+        <v>7.8358984767409998</v>
       </c>
       <c r="E53" s="29">
-        <v>4.9774855195219398</v>
+        <v>4.9774855445279096</v>
       </c>
       <c r="F53" s="29">
         <v>10.5014824039226</v>
       </c>
       <c r="G53" s="30">
-        <v>23.8497163095101</v>
+        <v>23.3148664251915</v>
       </c>
       <c r="H53" s="23" t="s">
         <v>17</v>
@@ -3748,16 +3748,16 @@
         <v>17</v>
       </c>
       <c r="J53" s="31">
-        <v>120.51</v>
+        <v>112.81</v>
       </c>
       <c r="K53" s="31">
-        <v>71.658680000000004</v>
+        <v>71.658680360000005</v>
       </c>
       <c r="L53" s="31">
         <v>151.18524487050499</v>
       </c>
       <c r="M53" s="32">
-        <v>343.35392487050501</v>
+        <v>335.65392523050502</v>
       </c>
       <c r="N53" s="26" t="s">
         <v>17</v>
@@ -3774,7 +3774,7 @@
         <v>17</v>
       </c>
       <c r="D54" s="29">
-        <v>19.392364576876599</v>
+        <v>18.861218129508099</v>
       </c>
       <c r="E54" s="29">
         <v>2.8141671184538399</v>
@@ -3783,7 +3783,7 @@
         <v>11.2412175526936</v>
       </c>
       <c r="G54" s="30">
-        <v>33.447749248024003</v>
+        <v>32.916602800655497</v>
       </c>
       <c r="H54" s="23" t="s">
         <v>17</v>
@@ -3792,7 +3792,7 @@
         <v>17</v>
       </c>
       <c r="J54" s="31">
-        <v>597.30999999999995</v>
+        <v>580.95000000000005</v>
       </c>
       <c r="K54" s="31">
         <v>86.68</v>
@@ -3801,7 +3801,7 @@
         <v>346.24409157435701</v>
       </c>
       <c r="M54" s="32">
-        <v>1030.23409157436</v>
+        <v>1013.87409157436</v>
       </c>
       <c r="N54" s="26" t="s">
         <v>17</v>
@@ -3818,16 +3818,16 @@
         <v>17</v>
       </c>
       <c r="D55" s="29">
-        <v>10.7818234579946</v>
+        <v>10.4988541914622</v>
       </c>
       <c r="E55" s="29">
-        <v>4.17011518754253</v>
+        <v>4.1701153918127698</v>
       </c>
       <c r="F55" s="29">
         <v>5.91442941602131</v>
       </c>
       <c r="G55" s="30">
-        <v>20.8663680615585</v>
+        <v>20.5833989992963</v>
       </c>
       <c r="H55" s="23" t="s">
         <v>17</v>
@@ -3836,16 +3836,16 @@
         <v>17</v>
       </c>
       <c r="J55" s="31">
-        <v>1863.21</v>
+        <v>1814.31</v>
       </c>
       <c r="K55" s="31">
-        <v>720.63879999999995</v>
+        <v>720.63883529999998</v>
       </c>
       <c r="L55" s="31">
         <v>1022.07424144512</v>
       </c>
       <c r="M55" s="32">
-        <v>3605.9230414451199</v>
+        <v>3557.0230767451199</v>
       </c>
       <c r="N55" s="26" t="s">
         <v>17</v>
@@ -3862,16 +3862,16 @@
         <v>17</v>
       </c>
       <c r="D56" s="29">
-        <v>11.5424305059795</v>
+        <v>11.148453628172801</v>
       </c>
       <c r="E56" s="29">
-        <v>5.55414925053174</v>
+        <v>5.5541495572249602</v>
       </c>
       <c r="F56" s="29">
         <v>2.3905179329539901</v>
       </c>
       <c r="G56" s="30">
-        <v>19.487097689465202</v>
+        <v>19.093121118351799</v>
       </c>
       <c r="H56" s="23" t="s">
         <v>17</v>
@@ -3880,16 +3880,16 @@
         <v>17</v>
       </c>
       <c r="J56" s="31">
-        <v>1490.35</v>
+        <v>1439.48</v>
       </c>
       <c r="K56" s="31">
-        <v>717.14760000000001</v>
+        <v>717.14763960000005</v>
       </c>
       <c r="L56" s="31">
         <v>308.66188880516398</v>
       </c>
       <c r="M56" s="32">
-        <v>2516.15948880516</v>
+        <v>2465.2895284051601</v>
       </c>
       <c r="N56" s="26" t="s">
         <v>17</v>
@@ -3906,16 +3906,16 @@
         <v>17</v>
       </c>
       <c r="D57" s="14">
-        <v>0.78490507266472997</v>
+        <v>0.73136589367797</v>
       </c>
       <c r="E57" s="14">
-        <v>0.51439297050012001</v>
+        <v>0.51439292854711005</v>
       </c>
       <c r="F57" s="14">
         <v>5.3131434581323997</v>
       </c>
       <c r="G57" s="15">
-        <v>6.6124415012972397</v>
+        <v>6.5589022803574704</v>
       </c>
       <c r="H57" s="49" t="s">
         <v>17</v>
@@ -3924,16 +3924,16 @@
         <v>17</v>
       </c>
       <c r="J57" s="17">
-        <v>3517.32</v>
+        <v>3277.4</v>
       </c>
       <c r="K57" s="17">
-        <v>2305.1</v>
+        <v>2305.0998119999999</v>
       </c>
       <c r="L57" s="17">
         <v>23809.281401014501</v>
       </c>
       <c r="M57" s="18">
-        <v>29631.701401014499</v>
+        <v>29391.781213014499</v>
       </c>
       <c r="N57" s="50" t="s">
         <v>17</v>
@@ -3950,16 +3950,16 @@
         <v>17</v>
       </c>
       <c r="D58" s="29">
-        <v>6.1690486165304499</v>
+        <v>6.1440969280795201</v>
       </c>
       <c r="E58" s="29">
-        <v>4.5522432931506698</v>
+        <v>4.5522425240917803</v>
       </c>
       <c r="F58" s="29">
         <v>10.776248280697301</v>
       </c>
       <c r="G58" s="30">
-        <v>21.497540190378398</v>
+        <v>21.4725877328686</v>
       </c>
       <c r="H58" s="23" t="s">
         <v>17</v>
@@ -3968,16 +3968,16 @@
         <v>17</v>
       </c>
       <c r="J58" s="31">
-        <v>1443.88</v>
+        <v>1438.04</v>
       </c>
       <c r="K58" s="31">
-        <v>1065.463</v>
+        <v>1065.46282</v>
       </c>
       <c r="L58" s="31">
         <v>2522.2056648799999</v>
       </c>
       <c r="M58" s="32">
-        <v>5031.5486648799997</v>
+        <v>5025.7084848799996</v>
       </c>
       <c r="N58" s="26" t="s">
         <v>17</v>
@@ -3994,16 +3994,16 @@
         <v>17</v>
       </c>
       <c r="D59" s="29">
-        <v>14.596778531022499</v>
+        <v>13.8961999300616</v>
       </c>
       <c r="E59" s="29">
-        <v>9.0260249324918593</v>
+        <v>9.0260249300371402</v>
       </c>
       <c r="F59" s="29">
         <v>1.3005211943316699</v>
       </c>
       <c r="G59" s="30">
-        <v>24.923324657845999</v>
+        <v>24.222746054430399</v>
       </c>
       <c r="H59" s="23" t="s">
         <v>17</v>
@@ -4012,16 +4012,16 @@
         <v>17</v>
       </c>
       <c r="J59" s="31">
-        <v>594.64</v>
+        <v>566.1</v>
       </c>
       <c r="K59" s="31">
-        <v>367.7</v>
+        <v>367.69999990000002</v>
       </c>
       <c r="L59" s="31">
         <v>52.9803148930297</v>
       </c>
       <c r="M59" s="32">
-        <v>1015.3203148930299</v>
+        <v>986.78031479303002</v>
       </c>
       <c r="N59" s="26" t="s">
         <v>17</v>
@@ -4038,16 +4038,16 @@
         <v>17</v>
       </c>
       <c r="D60" s="21">
-        <v>5.7005541963069204</v>
+        <v>5.5911465432511296</v>
       </c>
       <c r="E60" s="21">
-        <v>4.78758195423136</v>
+        <v>4.7875814944422403</v>
       </c>
       <c r="F60" s="21">
         <v>6.3494988300766302</v>
       </c>
       <c r="G60" s="22">
-        <v>16.837634980614901</v>
+        <v>16.728226867770001</v>
       </c>
       <c r="H60" s="23" t="s">
         <v>17</v>
@@ -4056,16 +4056,16 @@
         <v>17</v>
       </c>
       <c r="J60" s="24">
-        <v>411.62</v>
+        <v>403.72</v>
       </c>
       <c r="K60" s="24">
-        <v>345.697</v>
+        <v>345.69696679999998</v>
       </c>
       <c r="L60" s="24">
         <v>458.47835463600001</v>
       </c>
       <c r="M60" s="25">
-        <v>1215.795354636</v>
+        <v>1207.8953214359999</v>
       </c>
       <c r="N60" s="26" t="s">
         <v>17</v>
@@ -4082,16 +4082,16 @@
         <v>1.1830296842650401</v>
       </c>
       <c r="D61" s="42">
-        <v>2.2378152180989601</v>
+        <v>2.1575309602091202</v>
       </c>
       <c r="E61" s="42">
-        <v>1.65096646373927</v>
+        <v>1.65096641852329</v>
       </c>
       <c r="F61" s="42">
         <v>4.8625648236843997</v>
       </c>
       <c r="G61" s="43">
-        <v>9.9343761897876703</v>
+        <v>9.8540918866818501</v>
       </c>
       <c r="H61" s="52">
         <v>13.985831057426999</v>
@@ -4100,16 +4100,16 @@
         <v>7938.9425065769601</v>
       </c>
       <c r="J61" s="45">
-        <v>14854.67</v>
+        <v>14319.34</v>
       </c>
       <c r="K61" s="45">
-        <v>11070.79738</v>
+        <v>11070.797055360001</v>
       </c>
       <c r="L61" s="45">
         <v>33749.312223218301</v>
       </c>
       <c r="M61" s="46">
-        <v>67613.722109795301</v>
+        <v>67078.391785155298</v>
       </c>
       <c r="N61" s="53">
         <v>96554.505860364705</v>
@@ -4126,16 +4126,16 @@
         <v>0.79241893938462005</v>
       </c>
       <c r="D62" s="56">
-        <v>2.1147554554077499</v>
+        <v>2.0298441390497302</v>
       </c>
       <c r="E62" s="56">
-        <v>2.0110369460530499</v>
+        <v>2.0110369984785099</v>
       </c>
       <c r="F62" s="56">
         <v>3.8449239561059598</v>
       </c>
       <c r="G62" s="57">
-        <v>8.7631352969513792</v>
+        <v>8.6782240330188092</v>
       </c>
       <c r="H62" s="58">
         <v>18.495851116046801</v>
@@ -4144,16 +4144,16 @@
         <v>19679.471359576299</v>
       </c>
       <c r="J62" s="59">
-        <v>52880.62</v>
+        <v>50663.7</v>
       </c>
       <c r="K62" s="59">
-        <v>47142.674789999997</v>
+        <v>47142.676041867999</v>
       </c>
       <c r="L62" s="59">
         <v>86347.104654007504</v>
       </c>
       <c r="M62" s="60">
-        <v>206049.870803584</v>
+        <v>203832.95205545201</v>
       </c>
       <c r="N62" s="61">
         <v>437040.46565943002</v>
@@ -4170,16 +4170,16 @@
         <v>1.12185993528426</v>
       </c>
       <c r="D63" s="56">
-        <v>0.23403329776085</v>
+        <v>0.22213400809458</v>
       </c>
       <c r="E63" s="56">
-        <v>1.7739128041614201</v>
+        <v>1.7739128907406201</v>
       </c>
       <c r="F63" s="56">
         <v>1.1713614587413601</v>
       </c>
       <c r="G63" s="57">
-        <v>4.3011674959478903</v>
+        <v>4.2892682928608199</v>
       </c>
       <c r="H63" s="58">
         <v>22.7491711374938</v>
@@ -4188,16 +4188,16 @@
         <v>1121488.6716590701</v>
       </c>
       <c r="J63" s="59">
-        <v>57668.57</v>
+        <v>54634.71</v>
       </c>
       <c r="K63" s="59">
-        <v>1394975.0063839999</v>
+        <v>1394975.0853468501</v>
       </c>
       <c r="L63" s="59">
         <v>625450.19243587798</v>
       </c>
       <c r="M63" s="60">
-        <v>3199582.4404789498</v>
+        <v>3196548.6594417999</v>
       </c>
       <c r="N63" s="61">
         <v>15317227.4004735</v>
@@ -4214,16 +4214,16 @@
         <v>0.21509421210766</v>
       </c>
       <c r="D64" s="64">
-        <v>0.16355106304767</v>
+        <v>0.15878610493799</v>
       </c>
       <c r="E64" s="64">
-        <v>3.0538820205102701</v>
+        <v>3.0538820725322302</v>
       </c>
       <c r="F64" s="64">
         <v>2.0324363601379898</v>
       </c>
       <c r="G64" s="65">
-        <v>5.4649636558035901</v>
+        <v>5.4601987497158699</v>
       </c>
       <c r="H64" s="66">
         <v>19.383164708622999</v>
@@ -4232,16 +4232,16 @@
         <v>11880.280384235801</v>
       </c>
       <c r="J64" s="67">
-        <v>7427.34</v>
+        <v>6869.31</v>
       </c>
       <c r="K64" s="67">
-        <v>161839.7126</v>
+        <v>161839.71576336</v>
       </c>
       <c r="L64" s="67">
         <v>97368.547438677298</v>
       </c>
       <c r="M64" s="68">
-        <v>278515.880422913</v>
+        <v>277957.85358627298</v>
       </c>
       <c r="N64" s="69">
         <v>906702.45755841804</v>
@@ -4258,16 +4258,16 @@
         <v>0.68757271900253003</v>
       </c>
       <c r="D65" s="71">
-        <v>0.23251086070181001</v>
+        <v>0.21961496942219</v>
       </c>
       <c r="E65" s="71">
-        <v>1.3958398723113801</v>
+        <v>1.39583987463586</v>
       </c>
       <c r="F65" s="71">
         <v>1.94267361694262</v>
       </c>
       <c r="G65" s="72">
-        <v>4.2585970689583501</v>
+        <v>4.2457011800032101</v>
       </c>
       <c r="H65" s="73">
         <v>25.498781220757198</v>
@@ -4276,16 +4276,16 @@
         <v>171122.56823946201</v>
       </c>
       <c r="J65" s="74">
-        <v>43593.45</v>
+        <v>41362.43</v>
       </c>
       <c r="K65" s="74">
-        <v>273823.639998</v>
+        <v>273823.639822784</v>
       </c>
       <c r="L65" s="74">
         <v>314032.68208623998</v>
       </c>
       <c r="M65" s="75">
-        <v>802572.34032370197</v>
+        <v>800341.32014848595</v>
       </c>
       <c r="N65" s="76">
         <v>1872623.70330718</v>
@@ -4302,16 +4302,16 @@
         <v>1.1055807542681499</v>
       </c>
       <c r="D66" s="78">
-        <v>0.42416101982753002</v>
+        <v>0.40488073012256998</v>
       </c>
       <c r="E66" s="78">
-        <v>1.7855762961953701</v>
+        <v>1.7855763810946399</v>
       </c>
       <c r="F66" s="78">
         <v>1.3070783411226501</v>
       </c>
       <c r="G66" s="79">
-        <v>4.6223964114137104</v>
+        <v>4.6031162066080098</v>
       </c>
       <c r="H66" s="80">
         <v>22.4892222503582</v>
@@ -4320,16 +4320,16 @@
         <v>1141168.1430186499</v>
       </c>
       <c r="J66" s="81">
-        <v>110549.19</v>
+        <v>105298.41</v>
       </c>
       <c r="K66" s="81">
-        <v>1442117.681174</v>
+        <v>1442117.76138872</v>
       </c>
       <c r="L66" s="81">
         <v>711797.29708988604</v>
       </c>
       <c r="M66" s="82">
-        <v>3405632.3112825402</v>
+        <v>3400381.6114972499</v>
       </c>
       <c r="N66" s="83">
         <v>15754267.8661329</v>
@@ -4346,16 +4346,16 @@
         <v>0.49158138890384001</v>
       </c>
       <c r="D67" s="71">
-        <v>2.8465454194775899</v>
+        <v>2.7324557976242301</v>
       </c>
       <c r="E67" s="71">
-        <v>2.7487447972122001</v>
+        <v>2.7487447507215399</v>
       </c>
       <c r="F67" s="71">
         <v>5.4753516717806203</v>
       </c>
       <c r="G67" s="72">
-        <v>11.562223277374301</v>
+        <v>11.448133609030201</v>
       </c>
       <c r="H67" s="73">
         <v>17.7477599377535</v>
@@ -4364,16 +4364,16 @@
         <v>2957.4889624047</v>
       </c>
       <c r="J67" s="74">
-        <v>26134.19</v>
+        <v>25020.29</v>
       </c>
       <c r="K67" s="74">
-        <v>19551.049719999999</v>
+        <v>19551.049286387999</v>
       </c>
       <c r="L67" s="74">
         <v>40463.605188697598</v>
       </c>
       <c r="M67" s="75">
-        <v>89106.333871102295</v>
+        <v>87992.433437490297</v>
       </c>
       <c r="N67" s="76">
         <v>130974.16398180299</v>
@@ -4390,16 +4390,16 @@
         <v>0.97180374822116999</v>
       </c>
       <c r="D68" s="71">
-        <v>1.8699638384019299</v>
+        <v>1.7935492202421499</v>
       </c>
       <c r="E68" s="71">
-        <v>2.2614170120521999</v>
+        <v>2.2614170230333301</v>
       </c>
       <c r="F68" s="71">
         <v>5.9622764386210898</v>
       </c>
       <c r="G68" s="72">
-        <v>11.0654610372964</v>
+        <v>10.9890464301177</v>
       </c>
       <c r="H68" s="73">
         <v>16.587073622561899</v>
@@ -4408,16 +4408,16 @@
         <v>12085.8164218361</v>
       </c>
       <c r="J68" s="74">
-        <v>23894.29</v>
+        <v>22903.75</v>
       </c>
       <c r="K68" s="74">
-        <v>25496.659801000002</v>
+        <v>25496.659968574</v>
       </c>
       <c r="L68" s="74">
         <v>71372.759329897104</v>
       </c>
       <c r="M68" s="75">
-        <v>132849.52555273299</v>
+        <v>131858.98572030701</v>
       </c>
       <c r="N68" s="76">
         <v>198751.392128034</v>
@@ -4434,16 +4434,16 @@
         <v>0.41978598633817998</v>
       </c>
       <c r="D69" s="71">
-        <v>5.1143522853973504</v>
+        <v>4.9196574575377499</v>
       </c>
       <c r="E69" s="71">
-        <v>1.6589667242314901</v>
+        <v>1.6589664752139801</v>
       </c>
       <c r="F69" s="71">
         <v>2.5727567950750299</v>
       </c>
       <c r="G69" s="72">
-        <v>9.76586179104204</v>
+        <v>9.5711667141649404</v>
       </c>
       <c r="H69" s="73">
         <v>16.425040039170401</v>
@@ -4452,16 +4452,16 @@
         <v>962.49291228279003</v>
       </c>
       <c r="J69" s="74">
-        <v>11169.43</v>
+        <v>10723.18</v>
       </c>
       <c r="K69" s="74">
-        <v>3470.9376590000002</v>
+        <v>3470.9371516639999</v>
       </c>
       <c r="L69" s="74">
         <v>5705.2380237485604</v>
       </c>
       <c r="M69" s="75">
-        <v>21308.098595031399</v>
+        <v>20861.848087695402</v>
       </c>
       <c r="N69" s="76">
         <v>35789.6345415619</v>
@@ -4478,16 +4478,16 @@
         <v>0.61277385658935002</v>
       </c>
       <c r="D70" s="71">
-        <v>3.2600005412368702</v>
+        <v>3.07125981726429</v>
       </c>
       <c r="E70" s="71">
-        <v>1.40390968385223</v>
+        <v>1.40391037078782</v>
       </c>
       <c r="F70" s="71">
         <v>1.0784048642970401</v>
       </c>
       <c r="G70" s="72">
-        <v>6.3550889459755</v>
+        <v>6.1663489089384997</v>
       </c>
       <c r="H70" s="73">
         <v>20.2817784550762</v>
@@ -4496,16 +4496,16 @@
         <v>1343.7212340460901</v>
       </c>
       <c r="J70" s="74">
-        <v>8070.65</v>
+        <v>7586.15</v>
       </c>
       <c r="K70" s="74">
-        <v>4759.3194190000004</v>
+        <v>4759.3204988540001</v>
       </c>
       <c r="L70" s="74">
         <v>2773.92544521327</v>
       </c>
       <c r="M70" s="75">
-        <v>16947.616098259401</v>
+        <v>16463.1171781134</v>
       </c>
       <c r="N70" s="76">
         <v>47600.226970870703</v>
@@ -4522,16 +4522,16 @@
         <v>1.1830296842650401</v>
       </c>
       <c r="D71" s="71">
-        <v>2.2378152180989601</v>
+        <v>2.1575309602091202</v>
       </c>
       <c r="E71" s="71">
-        <v>1.65096646373927</v>
+        <v>1.65096641852329</v>
       </c>
       <c r="F71" s="71">
         <v>4.8625648236843997</v>
       </c>
       <c r="G71" s="72">
-        <v>9.9343761897876703</v>
+        <v>9.8540918866818608</v>
       </c>
       <c r="H71" s="73">
         <v>13.985831057426999</v>
@@ -4540,16 +4540,16 @@
         <v>7938.9425065769601</v>
       </c>
       <c r="J71" s="74">
-        <v>14854.67</v>
+        <v>14319.34</v>
       </c>
       <c r="K71" s="74">
-        <v>11070.79738</v>
+        <v>11070.797055360001</v>
       </c>
       <c r="L71" s="74">
         <v>33749.312223218301</v>
       </c>
       <c r="M71" s="75">
-        <v>67613.722109795301</v>
+        <v>67078.391785155298</v>
       </c>
       <c r="N71" s="76">
         <v>96554.505860364705</v>
@@ -4566,16 +4566,16 @@
         <v>0.27923853081185002</v>
       </c>
       <c r="D72" s="71">
-        <v>5.5804233886152801</v>
+        <v>5.3226413518082696</v>
       </c>
       <c r="E72" s="71">
-        <v>2.2973873211522799</v>
+        <v>2.29738716382766</v>
       </c>
       <c r="F72" s="71">
         <v>2.51786779641693</v>
       </c>
       <c r="G72" s="72">
-        <v>10.6749170369963</v>
+        <v>10.4171348428647</v>
       </c>
       <c r="H72" s="73">
         <v>18.203766840756099</v>
@@ -4584,16 +4584,16 @@
         <v>953.23837003057997</v>
       </c>
       <c r="J72" s="74">
-        <v>16085.88</v>
+        <v>15337.12</v>
       </c>
       <c r="K72" s="74">
-        <v>6235.6930000000002</v>
+        <v>6235.6925252999999</v>
       </c>
       <c r="L72" s="74">
         <v>7672.5244110256899</v>
       </c>
       <c r="M72" s="75">
-        <v>30947.335781056299</v>
+        <v>30198.575306356299</v>
       </c>
       <c r="N72" s="76">
         <v>50589.598828301299</v>
@@ -4610,16 +4610,16 @@
         <v>0.91632422339062003</v>
       </c>
       <c r="D73" s="71">
-        <v>1.82108371920755</v>
+        <v>1.74062184646479</v>
       </c>
       <c r="E73" s="71">
-        <v>1.0455726066393001</v>
+        <v>1.04557293077486</v>
       </c>
       <c r="F73" s="71">
         <v>0.87215883530743998</v>
       </c>
       <c r="G73" s="72">
-        <v>4.6551393845449001</v>
+        <v>4.5746778359377096</v>
       </c>
       <c r="H73" s="73">
         <v>17.526189268699401</v>
@@ -4628,16 +4628,16 @@
         <v>6617.8015402979499</v>
       </c>
       <c r="J73" s="74">
-        <v>12558.1</v>
+        <v>11949.82</v>
       </c>
       <c r="K73" s="74">
-        <v>7134.8986910000003</v>
+        <v>7134.9006522540003</v>
       </c>
       <c r="L73" s="74">
         <v>6587.1667313252301</v>
       </c>
       <c r="M73" s="75">
-        <v>32897.966962623199</v>
+        <v>32289.688923877198</v>
       </c>
       <c r="N73" s="76">
         <v>118435.893733294</v>
@@ -4654,16 +4654,16 @@
         <v>0.25868883723539998</v>
       </c>
       <c r="D74" s="71">
-        <v>0.72452229054404005</v>
+        <v>0.71085973581924</v>
       </c>
       <c r="E74" s="71">
-        <v>1.44029455566938</v>
+        <v>1.4402946100554199</v>
       </c>
       <c r="F74" s="71">
         <v>2.7480683783913098</v>
       </c>
       <c r="G74" s="72">
-        <v>5.17157406184013</v>
+        <v>5.1579115615013702</v>
       </c>
       <c r="H74" s="73">
         <v>28.125052164348801</v>
@@ -4672,16 +4672,16 @@
         <v>1062.9739152591801</v>
       </c>
       <c r="J74" s="74">
-        <v>2645.8</v>
+        <v>2593.44</v>
       </c>
       <c r="K74" s="74">
-        <v>4833.4862999999996</v>
+        <v>4833.4865620999999</v>
       </c>
       <c r="L74" s="74">
         <v>10862.53924452</v>
       </c>
       <c r="M74" s="75">
-        <v>19404.7994597791</v>
+        <v>19352.4397218792</v>
       </c>
       <c r="N74" s="76">
         <v>96563.672326741405</v>
@@ -4698,16 +4698,16 @@
         <v>1.3391520300959801</v>
       </c>
       <c r="D75" s="78">
-        <v>2.0505465506955498</v>
+        <v>1.9485028999784999</v>
       </c>
       <c r="E75" s="78">
-        <v>-1.1318717732585</v>
+        <v>-1.1318702907259</v>
       </c>
       <c r="F75" s="78">
         <v>0.59403169986197002</v>
       </c>
       <c r="G75" s="79">
-        <v>2.8518585073949598</v>
+        <v>2.7498163392105801</v>
       </c>
       <c r="H75" s="73">
         <v>24.179083294517199</v>
@@ -4716,16 +4716,16 @@
         <v>1497.98466350942</v>
       </c>
       <c r="J75" s="81">
-        <v>2345.81</v>
+        <v>2231.25</v>
       </c>
       <c r="K75" s="81">
-        <v>-1232.16812</v>
+        <v>-1232.1664401400001</v>
       </c>
       <c r="L75" s="81">
         <v>701.18045107032196</v>
       </c>
       <c r="M75" s="82">
-        <v>3312.8069945797401</v>
+        <v>3198.2486744397402</v>
       </c>
       <c r="N75" s="76">
         <v>27570.574016950501</v>
@@ -4742,16 +4742,16 @@
         <v>0.78154596910755003</v>
       </c>
       <c r="D76" s="71">
-        <v>0.19776374280405001</v>
+        <v>0.19188898642731</v>
       </c>
       <c r="E76" s="71">
-        <v>4.3095030830895196</v>
+        <v>4.3095039561016897</v>
       </c>
       <c r="F76" s="71">
         <v>2.5526884466376401</v>
       </c>
       <c r="G76" s="72">
-        <v>7.8415012416387597</v>
+        <v>7.8356273582741904</v>
       </c>
       <c r="H76" s="66">
         <v>25.984597535893599</v>
@@ -4760,16 +4760,16 @@
         <v>20645.130234746499</v>
       </c>
       <c r="J76" s="74">
-        <v>4733.3599999999997</v>
+        <v>4580.0200000000004</v>
       </c>
       <c r="K76" s="74">
-        <v>180971.91810000001</v>
+        <v>180971.966927</v>
       </c>
       <c r="L76" s="74">
         <v>77876.690777211596</v>
       </c>
       <c r="M76" s="75">
-        <v>284227.099111958</v>
+        <v>284073.80793895799</v>
       </c>
       <c r="N76" s="69">
         <v>847456.61263042397</v>
@@ -4786,16 +4786,16 @@
         <v>-0.37818536044090001</v>
       </c>
       <c r="D77" s="71">
-        <v>0.1300538963841</v>
+        <v>0.12523903376518</v>
       </c>
       <c r="E77" s="71">
-        <v>3.15824988126599</v>
+        <v>3.1582500321313902</v>
       </c>
       <c r="F77" s="71">
         <v>0.63539632225391995</v>
       </c>
       <c r="G77" s="72">
-        <v>3.5455147394631399</v>
+        <v>3.5407000277096201</v>
       </c>
       <c r="H77" s="73">
         <v>18.8167959404465</v>
@@ -4804,16 +4804,16 @@
         <v>-10905.005920527999</v>
       </c>
       <c r="J77" s="74">
-        <v>3478.63</v>
+        <v>3351.42</v>
       </c>
       <c r="K77" s="74">
-        <v>112657.45570000001</v>
+        <v>112657.4611405</v>
       </c>
       <c r="L77" s="74">
         <v>19911.593634782901</v>
       </c>
       <c r="M77" s="75">
-        <v>125142.67341425399</v>
+        <v>125015.468854755</v>
       </c>
       <c r="N77" s="76">
         <v>565032.12462831195</v>
@@ -4833,7 +4833,7 @@
         <v>17</v>
       </c>
       <c r="E78" s="71">
-        <v>2.3831121168087499</v>
+        <v>2.3831120959108198</v>
       </c>
       <c r="F78" s="71">
         <v>0.93661351037026996</v>
@@ -4851,7 +4851,7 @@
         <v>17</v>
       </c>
       <c r="K78" s="74">
-        <v>380280.82140000002</v>
+        <v>380280.81909489998</v>
       </c>
       <c r="L78" s="74">
         <v>132031.16708863701</v>
@@ -4874,16 +4874,16 @@
         <v>1.6069487756023699</v>
       </c>
       <c r="D79" s="78">
-        <v>0.10112923023460001</v>
+        <v>9.2499498134429994E-2</v>
       </c>
       <c r="E79" s="78">
-        <v>1.55918305379276</v>
+        <v>1.5591830917234499</v>
       </c>
       <c r="F79" s="78">
         <v>0.47036172771064999</v>
       </c>
       <c r="G79" s="79">
-        <v>3.7376227873403902</v>
+        <v>3.7289930931709101</v>
       </c>
       <c r="H79" s="80">
         <v>21.7190629386076</v>
@@ -4892,16 +4892,16 @@
         <v>914898.79724921996</v>
       </c>
       <c r="J79" s="81">
-        <v>2323</v>
+        <v>2150.7199999999998</v>
       </c>
       <c r="K79" s="81">
-        <v>792792.6054</v>
+        <v>792792.63171580003</v>
       </c>
       <c r="L79" s="81">
         <v>199467.69362499501</v>
       </c>
       <c r="M79" s="82">
-        <v>1909482.0962742099</v>
+        <v>1909309.84259001</v>
       </c>
       <c r="N79" s="83">
         <v>11717424.2152489</v>
@@ -4918,16 +4918,16 @@
         <v>0.74145484148047003</v>
       </c>
       <c r="D80" s="71">
-        <v>0.66536065301644998</v>
+        <v>0.61904775259080003</v>
       </c>
       <c r="E80" s="71">
-        <v>0.79486184963326001</v>
+        <v>0.79486191809616003</v>
       </c>
       <c r="F80" s="71">
         <v>3.1074270536315902</v>
       </c>
       <c r="G80" s="72">
-        <v>5.3091043977617698</v>
+        <v>5.2627915657990201</v>
       </c>
       <c r="H80" s="73">
         <v>21.283630762951901</v>
@@ -4936,16 +4936,16 @@
         <v>5893.8635852614198</v>
       </c>
       <c r="J80" s="74">
-        <v>5545.87</v>
+        <v>5157.3900000000003</v>
       </c>
       <c r="K80" s="74">
-        <v>7901.5504000000001</v>
+        <v>7901.5507576999998</v>
       </c>
       <c r="L80" s="74">
         <v>25681.482513595802</v>
       </c>
       <c r="M80" s="75">
-        <v>45022.7664988572</v>
+        <v>44634.286856557199</v>
       </c>
       <c r="N80" s="76">
         <v>155727.46950607901</v>
@@ -4962,16 +4962,16 @@
         <v>0.80193227196772998</v>
       </c>
       <c r="D81" s="71">
-        <v>0.81150569763876002</v>
+        <v>0.74016788939112999</v>
       </c>
       <c r="E81" s="71">
-        <v>1.4797834275595301</v>
+        <v>1.47978348474777</v>
       </c>
       <c r="F81" s="71">
         <v>0.85005285140255005</v>
       </c>
       <c r="G81" s="72">
-        <v>3.9432742485685601</v>
+        <v>3.8719364975091701</v>
       </c>
       <c r="H81" s="73">
         <v>23.287634759236798</v>
@@ -4980,16 +4980,16 @@
         <v>40592.658010597297</v>
       </c>
       <c r="J81" s="74">
-        <v>9558.92</v>
+        <v>8719.56</v>
       </c>
       <c r="K81" s="74">
-        <v>66962.129199999996</v>
+        <v>66962.132318799995</v>
       </c>
       <c r="L81" s="74">
         <v>28251.909487640401</v>
       </c>
       <c r="M81" s="75">
-        <v>145365.61669823801</v>
+        <v>144526.25981703799</v>
       </c>
       <c r="N81" s="76">
         <v>1094833.29269831</v>
@@ -5006,16 +5006,16 @@
         <v>0.81384239713941997</v>
       </c>
       <c r="D82" s="71">
-        <v>2.7445144783124902</v>
+        <v>2.64283223062289</v>
       </c>
       <c r="E82" s="71">
-        <v>2.5251512452959499</v>
+        <v>2.5251512909418898</v>
       </c>
       <c r="F82" s="71">
         <v>4.1618043989260496</v>
       </c>
       <c r="G82" s="72">
-        <v>10.245312519673901</v>
+        <v>10.143630317630199</v>
       </c>
       <c r="H82" s="73">
         <v>17.326144697179199</v>
@@ -5024,16 +5024,16 @@
         <v>13785.6077743149</v>
       </c>
       <c r="J82" s="74">
-        <v>47334.75</v>
+        <v>45506.31</v>
       </c>
       <c r="K82" s="74">
-        <v>39241.124389999997</v>
+        <v>39241.125284168003</v>
       </c>
       <c r="L82" s="74">
         <v>60665.622140411702</v>
       </c>
       <c r="M82" s="75">
-        <v>161027.10430472699</v>
+        <v>159198.665198895</v>
       </c>
       <c r="N82" s="76">
         <v>281312.99615335098</v>
@@ -5050,16 +5050,16 @@
         <v>1.1509876679223301</v>
       </c>
       <c r="D83" s="78">
-        <v>0.20031616886572001</v>
+        <v>0.1918873414982</v>
       </c>
       <c r="E83" s="78">
-        <v>1.8006654730242</v>
+        <v>1.8006655622766601</v>
       </c>
       <c r="F83" s="78">
         <v>1.1984264744669799</v>
       </c>
       <c r="G83" s="79">
-        <v>4.35039578427922</v>
+        <v>4.3419670461641697</v>
       </c>
       <c r="H83" s="80">
         <v>22.688669841577799</v>
@@ -5068,16 +5068,16 @@
         <v>1080896.0136484699</v>
       </c>
       <c r="J83" s="81">
-        <v>48109.650000000103</v>
+        <v>45915.15</v>
       </c>
       <c r="K83" s="81">
-        <v>1328012.8771840001</v>
+        <v>1328012.95302805</v>
       </c>
       <c r="L83" s="81">
         <v>597198.28294823796</v>
       </c>
       <c r="M83" s="82">
-        <v>3054216.8237807099</v>
+        <v>3052022.3996247598</v>
       </c>
       <c r="N83" s="83">
         <v>14222394.1077752</v>
@@ -5094,16 +5094,16 @@
         <v>0.1467367670302</v>
       </c>
       <c r="D84" s="71">
-        <v>7.6057126633350203</v>
+        <v>7.2480867592052203</v>
       </c>
       <c r="E84" s="71">
-        <v>3.5709401873205402</v>
+        <v>3.5709402266378398</v>
       </c>
       <c r="F84" s="71">
         <v>2.8179278503595602</v>
       </c>
       <c r="G84" s="72">
-        <v>14.141317468045299</v>
+        <v>13.7836916032328</v>
       </c>
       <c r="H84" s="84">
         <v>14.545976018684399</v>
@@ -5112,16 +5112,16 @@
         <v>568.79580353596998</v>
       </c>
       <c r="J84" s="74">
-        <v>29700.240000000002</v>
+        <v>28260.71</v>
       </c>
       <c r="K84" s="74">
-        <v>11931.721699</v>
+        <v>11931.721875714</v>
       </c>
       <c r="L84" s="74">
         <v>11305.4125984565</v>
       </c>
       <c r="M84" s="75">
-        <v>53506.170100992502</v>
+        <v>52066.640277706501</v>
       </c>
       <c r="N84" s="85">
         <v>52371.241954636796</v>
@@ -5138,16 +5138,16 @@
         <v>0</v>
       </c>
       <c r="D85" s="71">
-        <v>21.5457636995705</v>
+        <v>19.821775368344401</v>
       </c>
       <c r="E85" s="71">
-        <v>-0.63386370471120002</v>
+        <v>-0.63386324677259998</v>
       </c>
       <c r="F85" s="71">
         <v>4.3896098300849999</v>
       </c>
       <c r="G85" s="72">
-        <v>25.301509824944301</v>
+        <v>23.577521951656799</v>
       </c>
       <c r="H85" s="73">
         <v>10.459175388256799</v>
@@ -5156,16 +5156,16 @@
         <v>0</v>
       </c>
       <c r="J85" s="74">
-        <v>19082.04</v>
+        <v>18053.88</v>
       </c>
       <c r="K85" s="74">
-        <v>-302.55466000000001</v>
+        <v>-302.55443409999998</v>
       </c>
       <c r="L85" s="74">
         <v>828.57190411117995</v>
       </c>
       <c r="M85" s="75">
-        <v>19608.057244111202</v>
+        <v>18579.897470011201</v>
       </c>
       <c r="N85" s="76">
         <v>4360.8966920984603</v>
@@ -5182,16 +5182,16 @@
         <v>0.85958401553848995</v>
       </c>
       <c r="D86" s="71">
-        <v>1.2292720756468301</v>
+        <v>1.1908819478295101</v>
       </c>
       <c r="E86" s="71">
-        <v>1.7541526583074301</v>
+        <v>1.7541527186733901</v>
       </c>
       <c r="F86" s="71">
         <v>4.9485648841938197</v>
       </c>
       <c r="G86" s="72">
-        <v>8.7915736336865695</v>
+        <v>8.7531835662352098</v>
       </c>
       <c r="H86" s="73">
         <v>20.5418419696123</v>
@@ -5200,16 +5200,16 @@
         <v>13828.945869728401</v>
       </c>
       <c r="J86" s="74">
-        <v>21472.66</v>
+        <v>20731.490000000002</v>
       </c>
       <c r="K86" s="74">
-        <v>27550.696861</v>
+        <v>27550.697802023999</v>
       </c>
       <c r="L86" s="74">
         <v>73676.619819101194</v>
       </c>
       <c r="M86" s="75">
-        <v>136528.92254982999</v>
+        <v>135787.753490854</v>
       </c>
       <c r="N86" s="76">
         <v>322786.46018051502</v>
@@ -5226,16 +5226,16 @@
         <v>0.48713507441137999</v>
       </c>
       <c r="D87" s="71">
-        <v>0.36949120653204998</v>
+        <v>0.35724306651905002</v>
       </c>
       <c r="E87" s="71">
-        <v>1.9853197939537699</v>
+        <v>1.9853198193306001</v>
       </c>
       <c r="F87" s="71">
         <v>4.0594084784762998</v>
       </c>
       <c r="G87" s="72">
-        <v>6.9013545533735003</v>
+        <v>6.8891064387373202</v>
       </c>
       <c r="H87" s="73">
         <v>26.101164448574</v>
@@ -5244,16 +5244,16 @@
         <v>32562.187641498302</v>
       </c>
       <c r="J87" s="74">
-        <v>23877.279999999999</v>
+        <v>23135.119999999999</v>
       </c>
       <c r="K87" s="74">
-        <v>125845.63885800001</v>
+        <v>125845.640600673</v>
       </c>
       <c r="L87" s="74">
         <v>255927.709608064</v>
       </c>
       <c r="M87" s="75">
-        <v>438212.81610756199</v>
+        <v>437470.657850235</v>
       </c>
       <c r="N87" s="76">
         <v>1678912.81092171</v>
@@ -5270,16 +5270,16 @@
         <v>1.15273708317904</v>
       </c>
       <c r="D88" s="71">
-        <v>0.34546762404951997</v>
+        <v>0.33775433307835001</v>
       </c>
       <c r="E88" s="71">
-        <v>1.6208211728775599</v>
+        <v>1.62082120989711</v>
       </c>
       <c r="F88" s="71">
         <v>0.26584751062095002</v>
       </c>
       <c r="G88" s="72">
-        <v>3.3848733907270798</v>
+        <v>3.37716013677545</v>
       </c>
       <c r="H88" s="73">
         <v>13.423594961276899</v>
@@ -5288,16 +5288,16 @@
         <v>5299.3890887343396</v>
       </c>
       <c r="J88" s="74">
-        <v>1707.72</v>
+        <v>1671.5</v>
       </c>
       <c r="K88" s="74">
-        <v>7516.51433</v>
+        <v>7516.5145085300001</v>
       </c>
       <c r="L88" s="74">
         <v>1341.4240171419499</v>
       </c>
       <c r="M88" s="75">
-        <v>15865.0474358763</v>
+        <v>15828.8276144063</v>
       </c>
       <c r="N88" s="76">
         <v>61784.3336808534</v>
@@ -5314,16 +5314,16 @@
         <v>0.65710089460246002</v>
       </c>
       <c r="D89" s="71">
-        <v>8.2909284874980005E-2</v>
+        <v>7.7715640300229996E-2</v>
       </c>
       <c r="E89" s="71">
-        <v>1.61250331323854</v>
+        <v>1.61250331573465</v>
       </c>
       <c r="F89" s="71">
         <v>0.97768714289214997</v>
       </c>
       <c r="G89" s="72">
-        <v>3.3302006356081302</v>
+        <v>3.3250069935294899</v>
       </c>
       <c r="H89" s="73">
         <v>20.962582030353001</v>
@@ -5332,16 +5332,16 @@
         <v>165490.406226658</v>
       </c>
       <c r="J89" s="74">
-        <v>14318.54</v>
+        <v>13079.16</v>
       </c>
       <c r="K89" s="74">
-        <v>362663.70041599998</v>
+        <v>362663.70102030598</v>
       </c>
       <c r="L89" s="74">
         <v>209968.30342633199</v>
       </c>
       <c r="M89" s="75">
-        <v>752440.95006899</v>
+        <v>751201.570673296</v>
       </c>
       <c r="N89" s="76">
         <v>1764762.6513600999</v>
@@ -5361,13 +5361,13 @@
         <v>4.5121901163118796</v>
       </c>
       <c r="E90" s="78">
-        <v>1.8269563391645101</v>
+        <v>1.8269565054358401</v>
       </c>
       <c r="F90" s="78">
         <v>0.34535518810215998</v>
       </c>
       <c r="G90" s="79">
-        <v>8.3539319721131804</v>
+        <v>8.3539321383845095</v>
       </c>
       <c r="H90" s="73">
         <v>22.238130282636799</v>
@@ -5379,13 +5379,13 @@
         <v>106.71</v>
       </c>
       <c r="K90" s="81">
-        <v>905977.96366999997</v>
+        <v>905978.04001557</v>
       </c>
       <c r="L90" s="81">
         <v>158470.25571668</v>
       </c>
       <c r="M90" s="82">
-        <v>1988003.9868062199</v>
+        <v>1988004.0631517901</v>
       </c>
       <c r="N90" s="76">
         <v>11869289.471342999</v>
@@ -5402,16 +5402,16 @@
         <v>0.36085372893533002</v>
       </c>
       <c r="D91" s="71">
-        <v>5.9165438202817997</v>
+        <v>5.6620869325171697</v>
       </c>
       <c r="E91" s="71">
-        <v>2.2574136615582701</v>
+        <v>2.2574138503260799</v>
       </c>
       <c r="F91" s="71">
         <v>2.4439167732156699</v>
       </c>
       <c r="G91" s="72">
-        <v>10.978727983991099</v>
+        <v>10.724271284994201</v>
       </c>
       <c r="H91" s="66">
         <v>18.991470720005001</v>
@@ -5420,16 +5420,16 @@
         <v>2155.0546739144002</v>
       </c>
       <c r="J91" s="74">
-        <v>35885.54</v>
+        <v>34308.339999999997</v>
       </c>
       <c r="K91" s="74">
-        <v>11909.892260000001</v>
+        <v>11909.893422038</v>
       </c>
       <c r="L91" s="74">
         <v>15398.7510916626</v>
       </c>
       <c r="M91" s="75">
-        <v>65349.238025576997</v>
+        <v>63772.039187615002</v>
       </c>
       <c r="N91" s="69">
         <v>111477.913005718</v>
@@ -5446,16 +5446,16 @@
         <v>-7.0143719485400005E-2</v>
       </c>
       <c r="D92" s="71">
-        <v>4.1143298087635696</v>
+        <v>3.9101172982383301</v>
       </c>
       <c r="E92" s="71">
-        <v>1.9563199007940899</v>
+        <v>1.95631994370871</v>
       </c>
       <c r="F92" s="71">
         <v>7.0954797557840399</v>
       </c>
       <c r="G92" s="72">
-        <v>13.0959857458563</v>
+        <v>12.891773278245701</v>
       </c>
       <c r="H92" s="73">
         <v>28.0331889874425</v>
@@ -5464,16 +5464,16 @@
         <v>-482.8860273889</v>
       </c>
       <c r="J92" s="74">
-        <v>19680.63</v>
+        <v>18660.11</v>
       </c>
       <c r="K92" s="74">
-        <v>9896.4384900000005</v>
+        <v>9896.4387033139992</v>
       </c>
       <c r="L92" s="74">
         <v>35213.941559484701</v>
       </c>
       <c r="M92" s="75">
-        <v>64308.124022095799</v>
+        <v>63287.604235409803</v>
       </c>
       <c r="N92" s="76">
         <v>136518.864930068</v>
@@ -5490,16 +5490,16 @@
         <v>-4.3792122088022003</v>
       </c>
       <c r="D93" s="71">
-        <v>2.3933824403575601</v>
+        <v>2.3036422165085999</v>
       </c>
       <c r="E93" s="71">
-        <v>3.8992528354326499</v>
+        <v>3.89925263299792</v>
       </c>
       <c r="F93" s="71">
         <v>4.5955340808467602</v>
       </c>
       <c r="G93" s="72">
-        <v>6.5089571478347601</v>
+        <v>6.41921672155107</v>
       </c>
       <c r="H93" s="73">
         <v>15.875849759490499</v>
@@ -5508,16 +5508,16 @@
         <v>-836.33440112436006</v>
       </c>
       <c r="J93" s="74">
-        <v>424.84</v>
+        <v>410.55</v>
       </c>
       <c r="K93" s="74">
-        <v>821.21214099999997</v>
+        <v>821.21209018399998</v>
       </c>
       <c r="L93" s="74">
         <v>909.00626213621103</v>
       </c>
       <c r="M93" s="75">
-        <v>1318.72400201185</v>
+        <v>1304.4339511958501</v>
       </c>
       <c r="N93" s="76">
         <v>3344.4427006784999</v>
@@ -5534,16 +5534,16 @@
         <v>0.46100737771733002</v>
       </c>
       <c r="D94" s="71">
-        <v>1.58534449430291</v>
+        <v>1.54328431351952</v>
       </c>
       <c r="E94" s="71">
-        <v>17.903538753224201</v>
+        <v>17.903545790674801</v>
       </c>
       <c r="F94" s="71">
         <v>3.3162327723480201</v>
       </c>
       <c r="G94" s="72">
-        <v>23.266123397592398</v>
+        <v>23.224070254259701</v>
       </c>
       <c r="H94" s="73">
         <v>30.583249326734901</v>
@@ -5552,16 +5552,16 @@
         <v>1769.2229921723499</v>
       </c>
       <c r="J94" s="74">
-        <v>3903.55</v>
+        <v>3469.25</v>
       </c>
       <c r="K94" s="74">
-        <v>123298.93648600001</v>
+        <v>123298.98611164901</v>
       </c>
       <c r="L94" s="74">
         <v>15186.0380847871</v>
       </c>
       <c r="M94" s="75">
-        <v>144157.747562959</v>
+        <v>143723.49718860799</v>
       </c>
       <c r="N94" s="76">
         <v>182564.66136845</v>
@@ -5578,16 +5578,16 @@
         <v>7.2564235729210003E-2</v>
       </c>
       <c r="D95" s="71">
-        <v>6.8592266217167799</v>
+        <v>6.5602008043542002</v>
       </c>
       <c r="E95" s="71">
-        <v>2.8706501877923101</v>
+        <v>2.8706500981216299</v>
       </c>
       <c r="F95" s="71">
         <v>2.1945799159330002</v>
       </c>
       <c r="G95" s="72">
-        <v>11.9970209611713</v>
+        <v>11.697995054138</v>
       </c>
       <c r="H95" s="73">
         <v>19.991253670918098</v>
@@ -5596,16 +5596,16 @@
         <v>135.40135860548</v>
       </c>
       <c r="J95" s="74">
-        <v>19984.189999999999</v>
+        <v>19031.990000000002</v>
       </c>
       <c r="K95" s="74">
-        <v>8115.6161490000004</v>
+        <v>8115.6159179839997</v>
       </c>
       <c r="L95" s="74">
         <v>6667.64226644267</v>
       </c>
       <c r="M95" s="75">
-        <v>34902.849774048198</v>
+        <v>33950.649543032101</v>
       </c>
       <c r="N95" s="76">
         <v>52887.431274455201</v>
@@ -5622,16 +5622,16 @@
         <v>0.22622321761777001</v>
       </c>
       <c r="D96" s="78">
-        <v>2.3741625658539101</v>
+        <v>2.2889776950317202</v>
       </c>
       <c r="E96" s="78">
-        <v>2.5370008475203001</v>
+        <v>2.53700078494537</v>
       </c>
       <c r="F96" s="78">
         <v>6.5916217903285501</v>
       </c>
       <c r="G96" s="79">
-        <v>11.729008421320501</v>
+        <v>11.643823487923401</v>
       </c>
       <c r="H96" s="80">
         <v>21.136404333789098</v>
@@ -5640,16 +5640,16 @@
         <v>1259.8588102353999</v>
       </c>
       <c r="J96" s="81">
-        <v>10695.31</v>
+        <v>10326.84</v>
       </c>
       <c r="K96" s="81">
-        <v>14176.350688</v>
+        <v>14176.350170284</v>
       </c>
       <c r="L96" s="81">
         <v>30804.906407516701</v>
       </c>
       <c r="M96" s="82">
-        <v>56936.425905752199</v>
+        <v>56567.9553880362</v>
       </c>
       <c r="N96" s="83">
         <v>101904.12761619101</v>
@@ -5666,16 +5666,16 @@
         <v>0.66117817890506003</v>
       </c>
       <c r="D97" s="71">
-        <v>3.4440096442950399</v>
+        <v>3.2830858344304601</v>
       </c>
       <c r="E97" s="71">
-        <v>1.69267133384908</v>
+        <v>1.6926714320206999</v>
       </c>
       <c r="F97" s="71">
         <v>3.0888982672464902</v>
       </c>
       <c r="G97" s="72">
-        <v>8.8867574242956699</v>
+        <v>8.7258337126027108</v>
       </c>
       <c r="H97" s="73">
         <v>16.6676078627587</v>
@@ -5684,16 +5684,16 @@
         <v>8281.5362744260092</v>
       </c>
       <c r="J97" s="74">
-        <v>42311.14</v>
+        <v>40257.07</v>
       </c>
       <c r="K97" s="74">
-        <v>20508.42006</v>
+        <v>20508.421088438001</v>
       </c>
       <c r="L97" s="74">
         <v>40542.012893872597</v>
       </c>
       <c r="M97" s="75">
-        <v>111643.109228299</v>
+        <v>109589.040256737</v>
       </c>
       <c r="N97" s="76">
         <v>197475.55173379101</v>
@@ -5710,16 +5710,16 @@
         <v>-4.1188818013100002E-2</v>
       </c>
       <c r="D98" s="71">
-        <v>1.59328460743084</v>
+        <v>1.5084909042796999</v>
       </c>
       <c r="E98" s="71">
-        <v>0.86403567693727001</v>
+        <v>0.86403570270594998</v>
       </c>
       <c r="F98" s="71">
         <v>4.44555459619228</v>
       </c>
       <c r="G98" s="72">
-        <v>6.86168606254728</v>
+        <v>6.7768923851648202</v>
       </c>
       <c r="H98" s="73">
         <v>18.3203811416451</v>
@@ -5728,16 +5728,16 @@
         <v>163.78798435237999</v>
       </c>
       <c r="J98" s="74">
-        <v>35362.129999999997</v>
+        <v>33775.82</v>
       </c>
       <c r="K98" s="74">
-        <v>12552.67146</v>
+        <v>12552.67209113</v>
       </c>
       <c r="L98" s="74">
         <v>71568.857693604194</v>
       </c>
       <c r="M98" s="75">
-        <v>119647.447137957</v>
+        <v>118061.137769087</v>
       </c>
       <c r="N98" s="76">
         <v>318520.53310729202</v>
@@ -5754,16 +5754,16 @@
         <v>-2.287330447E-4</v>
       </c>
       <c r="D99" s="78">
-        <v>6.5393979902950203</v>
+        <v>6.0507768469513197</v>
       </c>
       <c r="E99" s="78">
-        <v>0.86298128608284996</v>
+        <v>0.86298129011104996</v>
       </c>
       <c r="F99" s="78">
         <v>2.7964570276396201</v>
       </c>
       <c r="G99" s="79">
-        <v>10.198607570972801</v>
+        <v>9.7099864316573203</v>
       </c>
       <c r="H99" s="80">
         <v>9.4143137252201008</v>
@@ -5772,16 +5772,16 @@
         <v>-1.3697066905699999</v>
       </c>
       <c r="J99" s="81">
-        <v>32507.29</v>
+        <v>30580.83</v>
       </c>
       <c r="K99" s="81">
-        <v>3154.889349</v>
+        <v>3154.8891940540002</v>
       </c>
       <c r="L99" s="81">
         <v>9938.6617447750996</v>
       </c>
       <c r="M99" s="82">
-        <v>45599.471387084501</v>
+        <v>43673.011232138502</v>
       </c>
       <c r="N99" s="83">
         <v>35975.592789623501</v>

--- a/AfDD_2023_Annex_Table_Tab22.xlsx
+++ b/AfDD_2023_Annex_Table_Tab22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A8210A3-8D8B-4782-AA73-00153ADB808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0367369-AFBA-4DBF-A677-73862D585926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{C1E2CB89-A3CA-4270-9914-34A61F12DA25}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08B9B79B-5AC3-4456-8F46-ACA8BC76F5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>The returns on inward direct investments are calculated by taking the direct investment debits in year N and dividing it by the average of the direct investment liabilities over year N and year N-1 and then multiplying by 100. For 2020, this means taking 2020 debits and dividing by the liabilities averaged over 2019 and 2020.</t>
@@ -1475,7 +1475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C48012-B863-4CC7-8FB6-2A6DD883DA3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6487008-1781-469A-8C9E-0A4AB6FFD9B9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1551,16 +1551,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="11">
-        <v>29.7911468302886</v>
+        <v>30.305406140536601</v>
       </c>
       <c r="D3" s="12">
-        <v>3.7651923628195401</v>
+        <v>3.8301876863794302</v>
       </c>
       <c r="E3" s="12">
-        <v>5.5164012930129198</v>
+        <v>5.6116262516275297</v>
       </c>
       <c r="F3" s="13">
-        <v>0.18914336396463999</v>
+        <v>0.19240838549753</v>
       </c>
       <c r="G3" s="14">
         <v>17316.138698394301</v>
@@ -1633,7 +1633,7 @@
         <v>11.416816711968901</v>
       </c>
       <c r="E5" s="26">
-        <v>3.6746874676690799</v>
+        <v>3.6746874676690702</v>
       </c>
       <c r="F5" s="27">
         <v>0.11189049739077001</v>
@@ -1665,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="25">
-        <v>54.827719003756201</v>
+        <v>52.946773309302799</v>
       </c>
       <c r="D6" s="26">
-        <v>4.7228372712722004</v>
+        <v>4.5608133791165697</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>21</v>
@@ -1709,7 +1709,7 @@
         <v>0.86307601827188996</v>
       </c>
       <c r="E7" s="26">
-        <v>1.8845616099574201</v>
+        <v>1.8845616099574101</v>
       </c>
       <c r="F7" s="27">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="25">
-        <v>327.02940918528401</v>
+        <v>327.02940918528202</v>
       </c>
       <c r="D8" s="26">
         <v>0.88995715607935</v>
@@ -1779,13 +1779,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="25">
-        <v>62.653176129461301</v>
+        <v>62.653176129461002</v>
       </c>
       <c r="D9" s="26">
-        <v>0.51447416018651004</v>
+        <v>0.51447416018650005</v>
       </c>
       <c r="E9" s="26">
-        <v>9.9814292652195604</v>
+        <v>9.9814292652195107</v>
       </c>
       <c r="F9" s="27">
         <v>2.191505130189E-2</v>
@@ -1817,13 +1817,13 @@
         <v>29</v>
       </c>
       <c r="C10" s="25">
-        <v>39.442468335695999</v>
+        <v>39.442468335695899</v>
       </c>
       <c r="D10" s="26">
         <v>1.10580743434324</v>
       </c>
       <c r="E10" s="26">
-        <v>74.354970928109907</v>
+        <v>74.354970928109793</v>
       </c>
       <c r="F10" s="27">
         <v>1.1391847298870701</v>
@@ -1855,13 +1855,13 @@
         <v>31</v>
       </c>
       <c r="C11" s="18">
-        <v>83.585893807635202</v>
+        <v>83.585893807635003</v>
       </c>
       <c r="D11" s="19">
         <v>2.1303668043248898</v>
       </c>
       <c r="E11" s="19">
-        <v>6.19235800668437</v>
+        <v>6.1923580066843504</v>
       </c>
       <c r="F11" s="20">
         <v>4.8330169210800002E-2</v>
@@ -1896,13 +1896,13 @@
         <v>21</v>
       </c>
       <c r="D12" s="26">
-        <v>0.99716727637313995</v>
+        <v>0.86000344502129</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="27">
-        <v>1.6214709671429999E-2</v>
+        <v>1.3984319890810001E-2</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>21</v>
@@ -1931,16 +1931,16 @@
         <v>35</v>
       </c>
       <c r="C13" s="33">
-        <v>49.338610604461799</v>
+        <v>49.4160904925279</v>
       </c>
       <c r="D13" s="34">
-        <v>1.65224340372221</v>
+        <v>1.6602433520187401</v>
       </c>
       <c r="E13" s="34">
-        <v>50.551042928279998</v>
+        <v>50.558355368560598</v>
       </c>
       <c r="F13" s="35">
-        <v>0.76235657198809004</v>
+        <v>0.76328974018243001</v>
       </c>
       <c r="G13" s="36">
         <v>227842.04825894799</v>
@@ -2124,7 +2124,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="41">
-        <v>-1.8473057754177</v>
+        <v>-1.8169762694291001</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>21</v>
@@ -2273,13 +2273,13 @@
         <v>53</v>
       </c>
       <c r="C22" s="25">
-        <v>73.637673648231399</v>
+        <v>73.694309523913205</v>
       </c>
       <c r="D22" s="26">
         <v>0</v>
       </c>
       <c r="E22" s="26">
-        <v>0.87972506573703002</v>
+        <v>0.88040167591479002</v>
       </c>
       <c r="F22" s="27">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>54</v>
       </c>
       <c r="C23" s="33">
-        <v>38.8608657109191</v>
+        <v>39.103475544518702</v>
       </c>
       <c r="D23" s="34">
-        <v>0.84560767849175</v>
+        <v>0.83716412036222998</v>
       </c>
       <c r="E23" s="34">
-        <v>2.3940386620876501</v>
+        <v>2.39265609690572</v>
       </c>
       <c r="F23" s="35">
-        <v>3.6501582330299999E-3</v>
+        <v>3.6298533975400002E-3</v>
       </c>
       <c r="G23" s="36">
         <v>36376.820357201002</v>
@@ -2504,13 +2504,13 @@
         <v>21</v>
       </c>
       <c r="D28" s="26">
-        <v>0.60984679553279997</v>
+        <v>0.61144638749821001</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="27">
-        <v>-6.4272874585299997E-2</v>
+        <v>-6.4441458522400005E-2</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>21</v>
@@ -2539,13 +2539,13 @@
         <v>66</v>
       </c>
       <c r="C29" s="25">
-        <v>31.407310953690502</v>
+        <v>31.4184741730162</v>
       </c>
       <c r="D29" s="26">
-        <v>2.5535675884073501</v>
+        <v>2.55447521259378</v>
       </c>
       <c r="E29" s="26">
-        <v>5.4664095508028403</v>
+        <v>5.4683524974253599</v>
       </c>
       <c r="F29" s="27">
         <v>0</v>
@@ -2577,16 +2577,16 @@
         <v>68</v>
       </c>
       <c r="C30" s="25">
-        <v>3030.0980115728798</v>
+        <v>2902.4220790751501</v>
       </c>
       <c r="D30" s="26">
-        <v>45.299699065212401</v>
+        <v>43.390955091278897</v>
       </c>
       <c r="E30" s="26">
-        <v>2598.1725125749999</v>
+        <v>2488.6961533727499</v>
       </c>
       <c r="F30" s="27">
-        <v>56.663533931026798</v>
+        <v>54.275964451218002</v>
       </c>
       <c r="G30" s="28">
         <v>330906.33111215697</v>
@@ -2615,13 +2615,13 @@
         <v>70</v>
       </c>
       <c r="C31" s="25">
-        <v>26.579630269138701</v>
+        <v>26.579630269138502</v>
       </c>
       <c r="D31" s="26">
-        <v>0.40626657054214999</v>
+        <v>0.40626657054213999</v>
       </c>
       <c r="E31" s="26">
-        <v>0.72306599699448004</v>
+        <v>0.72306599699447005</v>
       </c>
       <c r="F31" s="27">
         <v>0</v>
@@ -2653,10 +2653,10 @@
         <v>72</v>
       </c>
       <c r="C32" s="25">
-        <v>312.98088955567698</v>
+        <v>312.98088955567499</v>
       </c>
       <c r="D32" s="26">
-        <v>3.2864766877045102</v>
+        <v>3.2864766877044902</v>
       </c>
       <c r="E32" s="26">
         <v>145.945483816158</v>
@@ -2732,7 +2732,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="19">
-        <v>4.4815668739513299</v>
+        <v>5.6183232388320397</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>21</v>
@@ -2767,16 +2767,16 @@
         <v>78</v>
       </c>
       <c r="C35" s="25">
-        <v>84.966694177572904</v>
+        <v>84.897956867966101</v>
       </c>
       <c r="D35" s="26">
-        <v>7.8702745490400003E-2</v>
+        <v>7.863907566028E-2</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="27">
-        <v>1.9309667830000001E-5</v>
+        <v>1.9294046479999999E-5</v>
       </c>
       <c r="G35" s="28">
         <v>29210.837597010701</v>
@@ -2805,13 +2805,13 @@
         <v>80</v>
       </c>
       <c r="C36" s="25">
-        <v>24.242069536195501</v>
+        <v>23.818016157120098</v>
       </c>
       <c r="D36" s="26">
-        <v>0.84634598579397002</v>
+        <v>0.83154131432782996</v>
       </c>
       <c r="E36" s="26">
-        <v>3.14639107965349</v>
+        <v>3.09135296637576</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>21</v>
@@ -2843,16 +2843,16 @@
         <v>82</v>
       </c>
       <c r="C37" s="25">
-        <v>41.2129024867235</v>
+        <v>41.218143746922202</v>
       </c>
       <c r="D37" s="26">
-        <v>0.89746868031578997</v>
+        <v>0.89758281609826995</v>
       </c>
       <c r="E37" s="26">
-        <v>0.46283906376436001</v>
+        <v>0.46289792542701003</v>
       </c>
       <c r="F37" s="27">
-        <v>8.7435889563999998E-4</v>
+        <v>8.7447009242999998E-4</v>
       </c>
       <c r="G37" s="28">
         <v>15462.590618795</v>
@@ -2881,16 +2881,16 @@
         <v>83</v>
       </c>
       <c r="C38" s="33">
-        <v>187.37374442708401</v>
+        <v>186.219708352</v>
       </c>
       <c r="D38" s="34">
-        <v>2.1512756554884298</v>
+        <v>2.13213907954239</v>
       </c>
       <c r="E38" s="34">
-        <v>182.79500956147501</v>
+        <v>181.39509903295499</v>
       </c>
       <c r="F38" s="35">
-        <v>2.2806562708811402</v>
+        <v>2.26607428668015</v>
       </c>
       <c r="G38" s="36">
         <v>403856.43503691599</v>
@@ -2919,16 +2919,16 @@
         <v>85</v>
       </c>
       <c r="C39" s="40">
-        <v>13.3720937057826</v>
+        <v>13.304715415917499</v>
       </c>
       <c r="D39" s="41">
-        <v>2.5968743675531401</v>
+        <v>2.58378943427866</v>
       </c>
       <c r="E39" s="41">
-        <v>1.7598412263482499</v>
+        <v>1.75097387207491</v>
       </c>
       <c r="F39" s="42">
-        <v>9.4244714488610007E-2</v>
+        <v>9.3769841381170005E-2</v>
       </c>
       <c r="G39" s="43">
         <v>19379.0541635146</v>
@@ -2957,16 +2957,16 @@
         <v>87</v>
       </c>
       <c r="C40" s="25">
-        <v>34.6324659280369</v>
+        <v>34.632118353758401</v>
       </c>
       <c r="D40" s="26">
-        <v>1.78954685026476</v>
+        <v>1.78952889022527</v>
       </c>
       <c r="E40" s="26">
-        <v>2.2171568924796801</v>
+        <v>2.2171346409106198</v>
       </c>
       <c r="F40" s="27">
-        <v>2.622075394886E-2</v>
+        <v>2.622049079522E-2</v>
       </c>
       <c r="G40" s="28">
         <v>132476.6</v>
@@ -2998,13 +2998,13 @@
         <v>21</v>
       </c>
       <c r="D41" s="41">
-        <v>0.67743834070945996</v>
+        <v>0.67725751205016005</v>
       </c>
       <c r="E41" s="41" t="s">
         <v>21</v>
       </c>
       <c r="F41" s="42">
-        <v>0.1119820934737</v>
+        <v>0.11195220208638</v>
       </c>
       <c r="G41" s="43" t="s">
         <v>21</v>
@@ -3071,16 +3071,16 @@
         <v>93</v>
       </c>
       <c r="C43" s="25">
-        <v>59.313124305927403</v>
+        <v>59.313124305926898</v>
       </c>
       <c r="D43" s="26">
-        <v>0.83152197830274999</v>
+        <v>0.83152197830273999</v>
       </c>
       <c r="E43" s="26">
-        <v>6.0350737116593303</v>
+        <v>6.0350737116592796</v>
       </c>
       <c r="F43" s="27">
-        <v>0.34120971910103998</v>
+        <v>0.34120971910102998</v>
       </c>
       <c r="G43" s="28">
         <v>71975.013475878193</v>
@@ -3109,16 +3109,16 @@
         <v>95</v>
       </c>
       <c r="C44" s="25">
-        <v>89.273048713518605</v>
+        <v>89.222993879663406</v>
       </c>
       <c r="D44" s="26">
-        <v>2.0751817291910801</v>
+        <v>2.0740181879188699</v>
       </c>
       <c r="E44" s="26">
-        <v>1.52739667867833</v>
+        <v>1.52654027701978</v>
       </c>
       <c r="F44" s="27">
-        <v>5.1350565498860003E-2</v>
+        <v>5.1321773561529997E-2</v>
       </c>
       <c r="G44" s="28">
         <v>37955.337005952599</v>
@@ -3147,16 +3147,16 @@
         <v>96</v>
       </c>
       <c r="C45" s="33">
-        <v>36.2915655921949</v>
+        <v>36.355087325383302</v>
       </c>
       <c r="D45" s="34">
-        <v>1.7940341634450401</v>
+        <v>1.7886593325157201</v>
       </c>
       <c r="E45" s="34">
-        <v>2.57573950229999</v>
+        <v>2.5756746369311001</v>
       </c>
       <c r="F45" s="35">
-        <v>8.485770866174E-2</v>
+        <v>8.4593192436469997E-2</v>
       </c>
       <c r="G45" s="36">
         <v>261786.004645345</v>
@@ -3185,13 +3185,13 @@
         <v>98</v>
       </c>
       <c r="C46" s="25">
-        <v>21.874758853687901</v>
+        <v>21.874758853687698</v>
       </c>
       <c r="D46" s="26">
         <v>0.31204443385049002</v>
       </c>
       <c r="E46" s="26">
-        <v>3.4499275010899799</v>
+        <v>3.4499275010899599</v>
       </c>
       <c r="F46" s="27">
         <v>8.3613140674139996E-2</v>
@@ -3223,16 +3223,16 @@
         <v>100</v>
       </c>
       <c r="C47" s="25">
-        <v>21.7348709269273</v>
+        <v>21.031688418619101</v>
       </c>
       <c r="D47" s="26">
-        <v>3.0486142843617099</v>
+        <v>2.94998327585244</v>
       </c>
       <c r="E47" s="26">
-        <v>1.1737744081163599</v>
+        <v>1.13579959633753</v>
       </c>
       <c r="F47" s="27">
-        <v>0.12493595276951</v>
+        <v>0.12089393306111</v>
       </c>
       <c r="G47" s="28">
         <v>3777.19204519496</v>
@@ -3267,7 +3267,7 @@
         <v>0.88756956292599998</v>
       </c>
       <c r="E48" s="41">
-        <v>4.6998990936943699</v>
+        <v>4.6998990936943503</v>
       </c>
       <c r="F48" s="42">
         <v>6.8601782447239995E-2</v>
@@ -3299,16 +3299,16 @@
         <v>104</v>
       </c>
       <c r="C49" s="25">
-        <v>19.432894729609298</v>
+        <v>18.964783577578299</v>
       </c>
       <c r="D49" s="26">
-        <v>2.0913199511470602</v>
+        <v>2.0409429895456999</v>
       </c>
       <c r="E49" s="26">
-        <v>3.9778121555700299</v>
+        <v>3.8819922452264799</v>
       </c>
       <c r="F49" s="27">
-        <v>0.20821539136164</v>
+        <v>0.20319977489909</v>
       </c>
       <c r="G49" s="28">
         <v>11939.0500925082</v>
@@ -3527,16 +3527,16 @@
         <v>116</v>
       </c>
       <c r="C55" s="25">
-        <v>29.206652569072201</v>
+        <v>28.9546657623249</v>
       </c>
       <c r="D55" s="26">
-        <v>4.0793692837264297</v>
+        <v>4.0441736296911497</v>
       </c>
       <c r="E55" s="26">
-        <v>0.31156950839329001</v>
+        <v>0.30888137406108002</v>
       </c>
       <c r="F55" s="27">
-        <v>2.2457115740059999E-2</v>
+        <v>2.2263362044020001E-2</v>
       </c>
       <c r="G55" s="28">
         <v>5108.4295699336999</v>
@@ -3565,16 +3565,16 @@
         <v>118</v>
       </c>
       <c r="C56" s="25">
-        <v>70.2760084161295</v>
+        <v>70.244065622370599</v>
       </c>
       <c r="D56" s="26">
-        <v>1.0601339687174001</v>
+        <v>1.0596521024093599</v>
       </c>
       <c r="E56" s="26">
-        <v>2.3646415317123899</v>
+        <v>2.3635667231331401</v>
       </c>
       <c r="F56" s="27">
-        <v>3.991251940967E-2</v>
+        <v>3.9894377836120001E-2</v>
       </c>
       <c r="G56" s="28">
         <v>9668.4282726764195</v>
@@ -3755,16 +3755,16 @@
         <v>127</v>
       </c>
       <c r="C61" s="33">
-        <v>21.791816174800299</v>
+        <v>21.718109951788801</v>
       </c>
       <c r="D61" s="34">
-        <v>1.57429287025793</v>
+        <v>1.56635484298759</v>
       </c>
       <c r="E61" s="34">
-        <v>3.1061252120750802</v>
+        <v>3.09631075807442</v>
       </c>
       <c r="F61" s="35">
-        <v>0.14081876368099999</v>
+        <v>0.14021616623058</v>
       </c>
       <c r="G61" s="36">
         <v>139414.33760979399</v>
@@ -3793,16 +3793,16 @@
         <v>128</v>
       </c>
       <c r="C62" s="49">
-        <v>49.809125256801401</v>
+        <v>49.748763459982001</v>
       </c>
       <c r="D62" s="50">
-        <v>1.7221834620173599</v>
+        <v>1.71604947159812</v>
       </c>
       <c r="E62" s="50">
-        <v>24.9814276836114</v>
+        <v>24.9135841790938</v>
       </c>
       <c r="F62" s="51">
-        <v>0.48069147106544002</v>
+        <v>0.47939239783311</v>
       </c>
       <c r="G62" s="52">
         <v>1069275.6459081999</v>
@@ -3831,16 +3831,16 @@
         <v>129</v>
       </c>
       <c r="C63" s="56">
-        <v>58.389367352874999</v>
+        <v>58.116096340745401</v>
       </c>
       <c r="D63" s="57">
-        <v>2.2349253004645302</v>
+        <v>2.2233684770181501</v>
       </c>
       <c r="E63" s="57">
-        <v>51.773663191239301</v>
+        <v>51.517837722464797</v>
       </c>
       <c r="F63" s="58">
-        <v>2.0763994389076101</v>
+        <v>2.0651806103389099</v>
       </c>
       <c r="G63" s="59">
         <v>53080069.5707817</v>
@@ -3869,16 +3869,16 @@
         <v>130</v>
       </c>
       <c r="C64" s="49">
-        <v>54.976304260162301</v>
+        <v>54.601576580978097</v>
       </c>
       <c r="D64" s="50">
-        <v>2.32420908470823</v>
+        <v>2.3060602964333499</v>
       </c>
       <c r="E64" s="50">
-        <v>23.453924982464599</v>
+        <v>23.248711954181701</v>
       </c>
       <c r="F64" s="51">
-        <v>0.57709516936036998</v>
+        <v>0.57176939034961005</v>
       </c>
       <c r="G64" s="52">
         <v>2382399.5365433898</v>
@@ -3907,16 +3907,16 @@
         <v>131</v>
       </c>
       <c r="C65" s="64">
-        <v>22.911264828305999</v>
+        <v>22.883906873950298</v>
       </c>
       <c r="D65" s="65">
-        <v>1.3114778492294901</v>
+        <v>1.3089581452264101</v>
       </c>
       <c r="E65" s="65">
-        <v>14.5419972226449</v>
+        <v>14.5219285708756</v>
       </c>
       <c r="F65" s="66">
-        <v>0.29859920753961999</v>
+        <v>0.29801258944643</v>
       </c>
       <c r="G65" s="67">
         <v>4735341.4218918197</v>
@@ -3945,16 +3945,16 @@
         <v>132</v>
       </c>
       <c r="C66" s="71">
-        <v>57.986827861989703</v>
+        <v>57.724233533023899</v>
       </c>
       <c r="D66" s="72">
-        <v>2.2028628659701202</v>
+        <v>2.1917431309344799</v>
       </c>
       <c r="E66" s="72">
-        <v>50.553592300253101</v>
+        <v>50.308464340114</v>
       </c>
       <c r="F66" s="73">
-        <v>1.98345330162948</v>
+        <v>1.97307095297372</v>
       </c>
       <c r="G66" s="74">
         <v>54149345.2166899</v>
@@ -3983,16 +3983,16 @@
         <v>133</v>
       </c>
       <c r="C67" s="78">
-        <v>82.542808977198206</v>
+        <v>82.159572657814806</v>
       </c>
       <c r="D67" s="79">
-        <v>1.90694845339895</v>
+        <v>1.90079852234406</v>
       </c>
       <c r="E67" s="79">
-        <v>38.075406793956397</v>
+        <v>37.7290335708133</v>
       </c>
       <c r="F67" s="80">
-        <v>0.64042139767630002</v>
+        <v>0.63601686624280995</v>
       </c>
       <c r="G67" s="81">
         <v>603379.74077919498</v>
@@ -4021,16 +4021,16 @@
         <v>134</v>
       </c>
       <c r="C68" s="64">
-        <v>35.500225459041403</v>
+        <v>35.460495589670302</v>
       </c>
       <c r="D68" s="65">
-        <v>1.5086614741747699</v>
+        <v>1.50556513085725</v>
       </c>
       <c r="E68" s="65">
-        <v>2.9443804358644798</v>
+        <v>2.9385184416694101</v>
       </c>
       <c r="F68" s="66">
-        <v>0.10228024150063</v>
+        <v>0.10192166004738</v>
       </c>
       <c r="G68" s="67">
         <v>410525.239970528</v>
@@ -4059,16 +4059,16 @@
         <v>135</v>
       </c>
       <c r="C69" s="64">
-        <v>30.381015464828501</v>
+        <v>30.148019847312298</v>
       </c>
       <c r="D69" s="65">
-        <v>0.80019539044120003</v>
+        <v>0.77306798785177999</v>
       </c>
       <c r="E69" s="65">
-        <v>1.98233833421394</v>
+        <v>1.95154953720749</v>
       </c>
       <c r="F69" s="66">
-        <v>-4.1308447038600003E-2</v>
+        <v>-4.1410227333000003E-2</v>
       </c>
       <c r="G69" s="67">
         <v>33782.252215739303</v>
@@ -4097,16 +4097,16 @@
         <v>136</v>
       </c>
       <c r="C70" s="64">
-        <v>33.765197755588602</v>
+        <v>34.152545664949201</v>
       </c>
       <c r="D70" s="65">
-        <v>2.1460702746283</v>
+        <v>2.1619031441017502</v>
       </c>
       <c r="E70" s="65">
-        <v>3.7696935391594701</v>
+        <v>3.8057489466351702</v>
       </c>
       <c r="F70" s="66">
-        <v>0.11136854640459</v>
+        <v>0.11311002504985999</v>
       </c>
       <c r="G70" s="67">
         <v>56400.0564577736</v>
@@ -4135,16 +4135,16 @@
         <v>137</v>
       </c>
       <c r="C71" s="64">
-        <v>21.791816174800299</v>
+        <v>21.718109951788801</v>
       </c>
       <c r="D71" s="65">
-        <v>1.57429287025793</v>
+        <v>1.56635484298759</v>
       </c>
       <c r="E71" s="65">
-        <v>3.1061252120750802</v>
+        <v>3.09631075807442</v>
       </c>
       <c r="F71" s="66">
-        <v>0.14081876368099999</v>
+        <v>0.14021616623058</v>
       </c>
       <c r="G71" s="67">
         <v>139414.33760979399</v>
@@ -4173,16 +4173,16 @@
         <v>138</v>
       </c>
       <c r="C72" s="64">
-        <v>68.884000578163196</v>
+        <v>68.836928532987898</v>
       </c>
       <c r="D72" s="65">
-        <v>0.59373281525048005</v>
+        <v>0.56884405169050001</v>
       </c>
       <c r="E72" s="65">
-        <v>0.46283906376436001</v>
+        <v>0.46289792542701003</v>
       </c>
       <c r="F72" s="66">
-        <v>-2.92528592358E-2</v>
+        <v>-2.93264101547E-2</v>
       </c>
       <c r="G72" s="67">
         <v>46580.095383922802</v>
@@ -4211,16 +4211,16 @@
         <v>139</v>
       </c>
       <c r="C73" s="64">
-        <v>96.615534974327502</v>
+        <v>96.242164380724603</v>
       </c>
       <c r="D73" s="65">
-        <v>2.2348266455503798</v>
+        <v>2.2317969861051901</v>
       </c>
       <c r="E73" s="65">
-        <v>83.693497754228602</v>
+        <v>83.272835772126598</v>
       </c>
       <c r="F73" s="66">
-        <v>1.8398705414444101</v>
+        <v>1.83469214721989</v>
       </c>
       <c r="G73" s="67">
         <v>609505.47454495903</v>
@@ -4249,16 +4249,16 @@
         <v>140</v>
       </c>
       <c r="C74" s="64">
-        <v>38.726172879343601</v>
+        <v>38.914646700679597</v>
       </c>
       <c r="D74" s="65">
-        <v>1.79977598107976</v>
+        <v>1.7875341771629401</v>
       </c>
       <c r="E74" s="65">
-        <v>3.10193322879707</v>
+        <v>3.1083043147409199</v>
       </c>
       <c r="F74" s="66">
-        <v>0.16172313264303001</v>
+        <v>0.16198554191483</v>
       </c>
       <c r="G74" s="67">
         <v>129309.404645345</v>
@@ -4287,16 +4287,16 @@
         <v>141</v>
       </c>
       <c r="C75" s="71">
-        <v>77.312407619524805</v>
+        <v>77.6834440508254</v>
       </c>
       <c r="D75" s="72">
-        <v>3.2151909962815202</v>
+        <v>3.2683672479403398</v>
       </c>
       <c r="E75" s="72">
-        <v>4.5538345677295498</v>
+        <v>4.6318965602296496</v>
       </c>
       <c r="F75" s="73">
-        <v>0.16647055200302999</v>
+        <v>0.16913707725161001</v>
       </c>
       <c r="G75" s="74">
         <v>66720.935686480501</v>
@@ -4325,16 +4325,16 @@
         <v>142</v>
       </c>
       <c r="C76" s="78">
-        <v>80.236395818033699</v>
+        <v>79.940829681193307</v>
       </c>
       <c r="D76" s="79">
-        <v>1.85655191355579</v>
+        <v>1.85422911275599</v>
       </c>
       <c r="E76" s="79">
-        <v>48.126428162438799</v>
+        <v>47.959675872383897</v>
       </c>
       <c r="F76" s="80">
-        <v>0.51181313673395001</v>
+        <v>0.51147006983928001</v>
       </c>
       <c r="G76" s="81">
         <v>2841006.8408494201</v>
@@ -4363,16 +4363,16 @@
         <v>143</v>
       </c>
       <c r="C77" s="64">
-        <v>53.995786321091401</v>
+        <v>53.430217617031197</v>
       </c>
       <c r="D77" s="65">
-        <v>2.3757755300082199</v>
+        <v>2.3477255167898199</v>
       </c>
       <c r="E77" s="65">
-        <v>26.173938391780698</v>
+        <v>25.856738500850199</v>
       </c>
       <c r="F77" s="66">
-        <v>0.65989326586606001</v>
+        <v>0.65159869549225002</v>
       </c>
       <c r="G77" s="67">
         <v>1538262.4326911301</v>
@@ -4401,16 +4401,16 @@
         <v>144</v>
       </c>
       <c r="C78" s="64">
-        <v>135.06978296333199</v>
+        <v>134.58735838015701</v>
       </c>
       <c r="D78" s="65">
-        <v>4.7898052363813104</v>
+        <v>4.7734169161231002</v>
       </c>
       <c r="E78" s="65">
-        <v>144.70842328356201</v>
+        <v>144.15862805823201</v>
       </c>
       <c r="F78" s="66">
-        <v>4.4242554167519401</v>
+        <v>4.4063092216186197</v>
       </c>
       <c r="G78" s="67">
         <v>22357976.312177699</v>
@@ -4439,16 +4439,16 @@
         <v>145</v>
       </c>
       <c r="C79" s="71">
-        <v>79.552175329287707</v>
+        <v>79.224233834341007</v>
       </c>
       <c r="D79" s="72">
-        <v>2.32254061810964</v>
+        <v>2.3125591302771298</v>
       </c>
       <c r="E79" s="72">
-        <v>79.945470724159193</v>
+        <v>79.604404073165199</v>
       </c>
       <c r="F79" s="73">
-        <v>2.8079542741849899</v>
+        <v>2.7965393356768402</v>
       </c>
       <c r="G79" s="74">
         <v>42984180.507339202</v>
@@ -4477,16 +4477,16 @@
         <v>146</v>
       </c>
       <c r="C80" s="78">
-        <v>19.712425027447701</v>
+        <v>19.785120793608201</v>
       </c>
       <c r="D80" s="79">
-        <v>1.73689273135559</v>
+        <v>1.7364827874584701</v>
       </c>
       <c r="E80" s="79">
-        <v>2.8720171665989098</v>
+        <v>2.8863077929169401</v>
       </c>
       <c r="F80" s="80">
-        <v>0.11963808396003001</v>
+        <v>0.11994962543796001</v>
       </c>
       <c r="G80" s="81">
         <v>126121.30750398801</v>
@@ -4515,16 +4515,16 @@
         <v>147</v>
       </c>
       <c r="C81" s="64">
-        <v>39.456643280983599</v>
+        <v>38.994125667030701</v>
       </c>
       <c r="D81" s="65">
-        <v>2.8804681503326401</v>
+        <v>2.8490187140931198</v>
       </c>
       <c r="E81" s="65">
-        <v>25.992303993926001</v>
+        <v>25.663230665091799</v>
       </c>
       <c r="F81" s="66">
-        <v>1.53678630152893</v>
+        <v>1.51914507699318</v>
       </c>
       <c r="G81" s="67">
         <v>1032116.11410135</v>
@@ -4553,16 +4553,16 @@
         <v>148</v>
       </c>
       <c r="C82" s="64">
-        <v>62.983398986543399</v>
+        <v>62.774398794798302</v>
       </c>
       <c r="D82" s="65">
-        <v>1.7157360509582</v>
+        <v>1.7071341314647199</v>
       </c>
       <c r="E82" s="65">
-        <v>35.150961090896402</v>
+        <v>34.974470534561704</v>
       </c>
       <c r="F82" s="66">
-        <v>0.65570218451398998</v>
+        <v>0.65270290252694996</v>
       </c>
       <c r="G82" s="67">
         <v>943154.33840421599</v>
@@ -4591,16 +4591,16 @@
         <v>149</v>
       </c>
       <c r="C83" s="71">
-        <v>59.573709483184402</v>
+        <v>59.323096234591198</v>
       </c>
       <c r="D83" s="72">
-        <v>2.1781467472952301</v>
+        <v>2.1679231402692198</v>
       </c>
       <c r="E83" s="72">
-        <v>53.3444215628775</v>
+        <v>53.107785371671902</v>
       </c>
       <c r="F83" s="73">
-        <v>2.1228647948222199</v>
+        <v>2.1125592504928399</v>
       </c>
       <c r="G83" s="74">
         <v>52047953.456680298</v>
@@ -4629,16 +4629,16 @@
         <v>150</v>
       </c>
       <c r="C84" s="78">
-        <v>68.355801031265401</v>
+        <v>68.200122271905499</v>
       </c>
       <c r="D84" s="79">
-        <v>1.1101155499098301</v>
+        <v>1.0849419215490901</v>
       </c>
       <c r="E84" s="79">
-        <v>3.1383264140945402</v>
+        <v>3.1285052764010799</v>
       </c>
       <c r="F84" s="80">
-        <v>7.2573748737720004E-2</v>
+        <v>7.2265431441199998E-2</v>
       </c>
       <c r="G84" s="81">
         <v>147590.676604968</v>
@@ -4667,7 +4667,7 @@
         <v>151</v>
       </c>
       <c r="C85" s="64">
-        <v>7.90713651018884</v>
+        <v>7.9071365101888196</v>
       </c>
       <c r="D85" s="65">
         <v>3.6226851339529999E-2</v>
@@ -4705,16 +4705,16 @@
         <v>152</v>
       </c>
       <c r="C86" s="64">
-        <v>30.5396410106116</v>
+        <v>30.559236979911802</v>
       </c>
       <c r="D86" s="65">
-        <v>1.72623340544959</v>
+        <v>1.72318264148311</v>
       </c>
       <c r="E86" s="65">
-        <v>2.8584703105251199</v>
+        <v>2.8582386188041098</v>
       </c>
       <c r="F86" s="66">
-        <v>9.0578380548999998E-2</v>
+        <v>9.0425192776000002E-2</v>
       </c>
       <c r="G86" s="67">
         <v>441339.43845804199</v>
@@ -4743,16 +4743,16 @@
         <v>153</v>
       </c>
       <c r="C87" s="64">
-        <v>20.3352813925985</v>
+        <v>20.291669826692001</v>
       </c>
       <c r="D87" s="65">
-        <v>1.24732336846782</v>
+        <v>1.24512682502788</v>
       </c>
       <c r="E87" s="65">
-        <v>6.9605655090402498</v>
+        <v>6.9545652229053898</v>
       </c>
       <c r="F87" s="66">
-        <v>0.18632012879974</v>
+        <v>0.18635040348303</v>
       </c>
       <c r="G87" s="67">
         <v>1074498.3599005099</v>
@@ -4781,16 +4781,16 @@
         <v>154</v>
       </c>
       <c r="C88" s="64">
-        <v>128.22899915509899</v>
+        <v>127.667565516058</v>
       </c>
       <c r="D88" s="65">
-        <v>2.1636144390754701</v>
+        <v>2.1558338274664202</v>
       </c>
       <c r="E88" s="65">
-        <v>144.29206352524801</v>
+        <v>143.77104970335199</v>
       </c>
       <c r="F88" s="66">
-        <v>2.4070881579686598</v>
+        <v>2.39767084244547</v>
       </c>
       <c r="G88" s="67">
         <v>476395.747585012</v>
@@ -4819,16 +4819,16 @@
         <v>155</v>
       </c>
       <c r="C89" s="64">
-        <v>33.882983416251903</v>
+        <v>33.798155601820703</v>
       </c>
       <c r="D89" s="65">
-        <v>2.4310735816795699</v>
+        <v>2.4200543339106302</v>
       </c>
       <c r="E89" s="65">
-        <v>19.7720622367423</v>
+        <v>19.722608533960202</v>
       </c>
       <c r="F89" s="66">
-        <v>0.85008865495782004</v>
+        <v>0.84605961561764997</v>
       </c>
       <c r="G89" s="67">
         <v>7037111.7355533997</v>
@@ -4857,16 +4857,16 @@
         <v>156</v>
       </c>
       <c r="C90" s="71">
-        <v>87.757841126769705</v>
+        <v>87.262889639713606</v>
       </c>
       <c r="D90" s="72">
-        <v>2.4637165935699299</v>
+        <v>2.4499562902648302</v>
       </c>
       <c r="E90" s="72">
-        <v>88.452025020680296</v>
+        <v>87.949605471618099</v>
       </c>
       <c r="F90" s="73">
-        <v>3.0488086211683498</v>
+        <v>3.0325005677119101</v>
       </c>
       <c r="G90" s="74">
         <v>44970817.113320902</v>
@@ -4895,16 +4895,16 @@
         <v>157</v>
       </c>
       <c r="C91" s="78">
-        <v>54.195707040716101</v>
+        <v>54.160454531208799</v>
       </c>
       <c r="D91" s="79">
-        <v>1.5604460253107799</v>
+        <v>1.55518659976872</v>
       </c>
       <c r="E91" s="79">
-        <v>3.8574366431318201</v>
+        <v>3.8614579261409299</v>
       </c>
       <c r="F91" s="80">
-        <v>9.719019362728E-2</v>
+        <v>9.7726090823660003E-2</v>
       </c>
       <c r="G91" s="81">
         <v>202473.799741139</v>
@@ -4933,16 +4933,16 @@
         <v>158</v>
       </c>
       <c r="C92" s="64">
-        <v>13.2607550207417</v>
+        <v>13.085525326191799</v>
       </c>
       <c r="D92" s="65">
-        <v>0.80831270585618997</v>
+        <v>0.80239468024454996</v>
       </c>
       <c r="E92" s="65">
-        <v>0.79362542047969997</v>
+        <v>0.80094208822498003</v>
       </c>
       <c r="F92" s="66">
-        <v>2.0437980228299998E-2</v>
+        <v>2.035270654548E-2</v>
       </c>
       <c r="G92" s="67">
         <v>62746.061521785399</v>
@@ -4971,16 +4971,16 @@
         <v>159</v>
       </c>
       <c r="C93" s="64">
-        <v>2110.5410466858698</v>
+        <v>2046.2228599114401</v>
       </c>
       <c r="D93" s="65">
-        <v>29.2874802351248</v>
+        <v>28.441134982597699</v>
       </c>
       <c r="E93" s="65">
-        <v>1786.14741322389</v>
+        <v>1731.60971490884</v>
       </c>
       <c r="F93" s="66">
-        <v>38.737620311707602</v>
+        <v>37.553846355923099</v>
       </c>
       <c r="G93" s="67">
         <v>337963.78184215399</v>
@@ -5009,16 +5009,16 @@
         <v>160</v>
       </c>
       <c r="C94" s="64">
-        <v>374.80550570966898</v>
+        <v>371.46288478766701</v>
       </c>
       <c r="D94" s="65">
-        <v>3.2373539816136301</v>
+        <v>3.24433529122765</v>
       </c>
       <c r="E94" s="65">
-        <v>237.67452919790301</v>
+        <v>235.390898572597</v>
       </c>
       <c r="F94" s="66">
-        <v>4.6334051972369998E-2</v>
+        <v>4.758293762304E-2</v>
       </c>
       <c r="G94" s="67">
         <v>2053173.24689634</v>
@@ -5047,16 +5047,16 @@
         <v>161</v>
       </c>
       <c r="C95" s="64">
-        <v>42.712682717528502</v>
+        <v>42.5660383774675</v>
       </c>
       <c r="D95" s="65">
-        <v>1.9232450500212199</v>
+        <v>1.8840739018588499</v>
       </c>
       <c r="E95" s="65">
-        <v>2.42527895553842</v>
+        <v>2.4194891146887501</v>
       </c>
       <c r="F95" s="66">
-        <v>1.8738401927989999E-2</v>
+        <v>1.8154407605859998E-2</v>
       </c>
       <c r="G95" s="67">
         <v>61196.4919816486</v>
@@ -5085,16 +5085,16 @@
         <v>162</v>
       </c>
       <c r="C96" s="71">
-        <v>55.002105448423301</v>
+        <v>54.895013256311699</v>
       </c>
       <c r="D96" s="72">
-        <v>3.7106509414185398</v>
+        <v>3.7047873758133298</v>
       </c>
       <c r="E96" s="72">
-        <v>8.6128531877935792</v>
+        <v>8.5922781874925391</v>
       </c>
       <c r="F96" s="73">
-        <v>0.31003073906436002</v>
+        <v>0.30933598386127997</v>
       </c>
       <c r="G96" s="74">
         <v>249612.84167296099</v>
@@ -5123,16 +5123,16 @@
         <v>163</v>
       </c>
       <c r="C97" s="78">
-        <v>36.968445000829703</v>
+        <v>36.943988970044003</v>
       </c>
       <c r="D97" s="79">
-        <v>1.3597504193435901</v>
+        <v>1.3531880023490801</v>
       </c>
       <c r="E97" s="79">
-        <v>3.3953643580237798</v>
+        <v>3.3918278524004202</v>
       </c>
       <c r="F97" s="80">
-        <v>9.5467806411270006E-2</v>
+        <v>9.5374640588750004E-2</v>
       </c>
       <c r="G97" s="81">
         <v>303322.95860770898</v>
@@ -5161,16 +5161,16 @@
         <v>164</v>
       </c>
       <c r="C98" s="71">
-        <v>15.376936109438301</v>
+        <v>15.2987489613603</v>
       </c>
       <c r="D98" s="72">
-        <v>1.0165506478686701</v>
+        <v>1.0141234788311999</v>
       </c>
       <c r="E98" s="72">
-        <v>1.06971423909644</v>
+        <v>1.06856606670292</v>
       </c>
       <c r="F98" s="73">
-        <v>2.5321582450730001E-2</v>
+        <v>2.5289223923949999E-2</v>
       </c>
       <c r="G98" s="74">
         <v>140550.77860870201</v>
@@ -5424,11 +5424,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9017F369-E4E0-4FFD-8506-DF37D710624F}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{981082BA-362B-4C39-AB01-72AE05FFC911}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{EDC8392C-2858-44FF-A92B-785D19B65025}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{985C8438-3FBD-4BC6-B592-72063BD31AA8}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{6A6F0767-2E25-413E-BF90-2CC06F83764F}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{DED09269-B26F-4DC3-9C4C-114B548C2952}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C878530A-7447-4893-A9DE-05A9B73A4332}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{532A78E4-EB67-4683-B97B-3278D7DA6F75}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B00F50FB-627B-42C7-B64E-AF8635DD10BF}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{9D618F1D-63D0-4A97-A92C-493FEBA3D120}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab22.xlsx
+++ b/AfDD_2023_Annex_Table_Tab22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0367369-AFBA-4DBF-A677-73862D585926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B619139-294E-4D64-83C9-6B8A43082DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08B9B79B-5AC3-4456-8F46-ACA8BC76F5AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F2B77C1E-6B42-43A0-88F3-E1B89F992FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab22'!$A$2:$L$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab22'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -267,7 +267,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -399,7 +399,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1475,7 +1475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6487008-1781-469A-8C9E-0A4AB6FFD9B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D6B3C8-8980-422A-A002-DF5413CDF129}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2725,37 +2725,37 @@
       <c r="A34" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="19">
+      <c r="C34" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="41">
         <v>5.6183232388320397</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="22">
+      <c r="E34" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="44">
         <v>300.7</v>
       </c>
-      <c r="I34" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="20" t="s">
+      <c r="I34" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="42" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3599,37 +3599,37 @@
       <c r="A57" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="25">
         <v>20.262669221723801</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57" s="26">
         <v>1.1315767497812299</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E57" s="26">
         <v>2.8576293000889299</v>
       </c>
-      <c r="F57" s="42">
+      <c r="F57" s="27">
         <v>0.12085091378288999</v>
       </c>
-      <c r="G57" s="43">
+      <c r="G57" s="28">
         <v>87012.561755854505</v>
       </c>
-      <c r="H57" s="44">
+      <c r="H57" s="29">
         <v>4859.2508096745196</v>
       </c>
-      <c r="I57" s="44">
+      <c r="I57" s="29">
         <v>12271.317427555299</v>
       </c>
-      <c r="J57" s="45">
+      <c r="J57" s="30">
         <v>518.96161772758899</v>
       </c>
-      <c r="K57" s="41">
+      <c r="K57" s="26">
         <v>5.66214772068746</v>
       </c>
-      <c r="L57" s="42">
+      <c r="L57" s="27">
         <v>4.23846604074458</v>
       </c>
     </row>
@@ -4059,31 +4059,31 @@
         <v>135</v>
       </c>
       <c r="C69" s="64">
-        <v>30.148019847312298</v>
+        <v>36.690634136619003</v>
       </c>
       <c r="D69" s="65">
-        <v>0.77306798785177999</v>
+        <v>0.74768207435212997</v>
       </c>
       <c r="E69" s="65">
-        <v>1.95154953720749</v>
+        <v>2.0405584313023999</v>
       </c>
       <c r="F69" s="66">
         <v>-4.1410227333000003E-2</v>
       </c>
       <c r="G69" s="67">
-        <v>33782.252215739303</v>
+        <v>60876.436250935803</v>
       </c>
       <c r="H69" s="68">
-        <v>1839.3895488278099</v>
+        <v>2138.1350130799201</v>
       </c>
       <c r="I69" s="68">
-        <v>2273.65794745007</v>
+        <v>3393.0233183550999</v>
       </c>
       <c r="J69" s="69">
         <v>-64.542951375607998</v>
       </c>
       <c r="K69" s="65">
-        <v>2.8110695435461901</v>
+        <v>2.07337977734506</v>
       </c>
       <c r="L69" s="66">
         <v>0.13274302042426001</v>
@@ -4477,34 +4477,34 @@
         <v>146</v>
       </c>
       <c r="C80" s="78">
-        <v>19.785120793608201</v>
+        <v>19.0614225238368</v>
       </c>
       <c r="D80" s="79">
-        <v>1.7364827874584701</v>
+        <v>2.5074757786566999</v>
       </c>
       <c r="E80" s="79">
-        <v>2.8863077929169401</v>
+        <v>2.92976846500245</v>
       </c>
       <c r="F80" s="80">
-        <v>0.11994962543796001</v>
+        <v>0.1187973363186</v>
       </c>
       <c r="G80" s="81">
-        <v>126121.30750398801</v>
+        <v>39108.745748133697</v>
       </c>
       <c r="H80" s="82">
-        <v>11038.059038826999</v>
+        <v>6479.5082291524895</v>
       </c>
       <c r="I80" s="82">
-        <v>18116.0455503015</v>
+        <v>5844.7281227461599</v>
       </c>
       <c r="J80" s="83">
-        <v>819.26574460377503</v>
+        <v>300.30412687618502</v>
       </c>
       <c r="K80" s="79">
-        <v>8.5828354208480597</v>
+        <v>14.796868826854499</v>
       </c>
       <c r="L80" s="80">
-        <v>4.1966393288018402</v>
+        <v>4.1116646737781002</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -4553,34 +4553,34 @@
         <v>148</v>
       </c>
       <c r="C82" s="64">
-        <v>62.774398794798302</v>
+        <v>53.951431182420698</v>
       </c>
       <c r="D82" s="65">
-        <v>1.7071341314647199</v>
+        <v>1.59101058873733</v>
       </c>
       <c r="E82" s="65">
-        <v>34.974470534561704</v>
+        <v>28.0439544544484</v>
       </c>
       <c r="F82" s="66">
-        <v>0.65270290252694996</v>
+        <v>0.53945114165399999</v>
       </c>
       <c r="G82" s="67">
-        <v>943154.33840421599</v>
+        <v>1030166.90016007</v>
       </c>
       <c r="H82" s="68">
-        <v>27599.326906897</v>
+        <v>32157.8777165715</v>
       </c>
       <c r="I82" s="68">
-        <v>569427.28509593301</v>
+        <v>581698.60252348799</v>
       </c>
       <c r="J82" s="69">
-        <v>10835.5478913567</v>
+        <v>11354.509509084301</v>
       </c>
       <c r="K82" s="65">
-        <v>2.8194555556512699</v>
+        <v>3.0582265439515601</v>
       </c>
       <c r="L82" s="66">
-        <v>2.0144726192834099</v>
+        <v>2.06370063785694</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4629,34 +4629,34 @@
         <v>150</v>
       </c>
       <c r="C84" s="78">
-        <v>68.200122271905499</v>
+        <v>69.499203270528795</v>
       </c>
       <c r="D84" s="79">
-        <v>1.0849419215490901</v>
+        <v>1.16657329783616</v>
       </c>
       <c r="E84" s="79">
-        <v>3.1285052764010799</v>
+        <v>3.4719858176028802</v>
       </c>
       <c r="F84" s="80">
-        <v>7.2265431441199998E-2</v>
+        <v>7.0101678377609999E-2</v>
       </c>
       <c r="G84" s="81">
-        <v>147590.676604968</v>
+        <v>162728.61576704701</v>
       </c>
       <c r="H84" s="82">
-        <v>3179.1934868365702</v>
+        <v>3565.0165199789999</v>
       </c>
       <c r="I84" s="82">
-        <v>6302.0119047879998</v>
+        <v>7423.4874852338098</v>
       </c>
       <c r="J84" s="83">
-        <v>186.19744027675799</v>
+        <v>194.95034256538901</v>
       </c>
       <c r="K84" s="79">
-        <v>1.95962943717083</v>
+        <v>1.9798226411423301</v>
       </c>
       <c r="L84" s="80">
-        <v>3.5297469660838199</v>
+        <v>3.0759170930317201</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -4705,34 +4705,34 @@
         <v>152</v>
       </c>
       <c r="C86" s="64">
-        <v>30.559236979911802</v>
+        <v>29.760349740908801</v>
       </c>
       <c r="D86" s="65">
-        <v>1.72318264148311</v>
+        <v>1.7174896298581099</v>
       </c>
       <c r="E86" s="65">
-        <v>2.8582386188041098</v>
+        <v>2.8078753019437399</v>
       </c>
       <c r="F86" s="66">
-        <v>9.0425192776000002E-2</v>
+        <v>9.1068577459979996E-2</v>
       </c>
       <c r="G86" s="67">
-        <v>441339.43845804199</v>
+        <v>426201.49929596297</v>
       </c>
       <c r="H86" s="68">
-        <v>26358.936381570998</v>
+        <v>25973.113348428498</v>
       </c>
       <c r="I86" s="68">
-        <v>42527.891399143002</v>
+        <v>41406.415818697198</v>
       </c>
       <c r="J86" s="69">
-        <v>1397.8673468714201</v>
+        <v>1389.1144445827899</v>
       </c>
       <c r="K86" s="65">
-        <v>5.8748957742246999</v>
+        <v>6.03587724989971</v>
       </c>
       <c r="L86" s="66">
-        <v>3.7253821714111601</v>
+        <v>3.8062768190143701</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4746,25 +4746,25 @@
         <v>20.291669826692001</v>
       </c>
       <c r="D87" s="65">
-        <v>1.24512682502788</v>
+        <v>1.2375107916135699</v>
       </c>
       <c r="E87" s="65">
         <v>6.9545652229053898</v>
       </c>
       <c r="F87" s="66">
-        <v>0.18635040348303</v>
+        <v>0.19472585487301</v>
       </c>
       <c r="G87" s="67">
         <v>1074498.3599005099</v>
       </c>
       <c r="H87" s="68">
-        <v>66418.027762413607</v>
+        <v>66285.885816394104</v>
       </c>
       <c r="I87" s="68">
         <v>369636.19774130097</v>
       </c>
       <c r="J87" s="69">
-        <v>9893.4618689174604</v>
+        <v>10390.168083770201</v>
       </c>
       <c r="K87" s="65">
         <v>6.3281791643486196</v>
@@ -4819,34 +4819,34 @@
         <v>155</v>
       </c>
       <c r="C89" s="64">
-        <v>33.798155601820703</v>
+        <v>33.3743102830813</v>
       </c>
       <c r="D89" s="65">
-        <v>2.4200543339106302</v>
+        <v>2.4186560379346198</v>
       </c>
       <c r="E89" s="65">
-        <v>19.722608533960202</v>
+        <v>19.924035442266199</v>
       </c>
       <c r="F89" s="66">
-        <v>0.84605961561764997</v>
+        <v>0.86995375635842997</v>
       </c>
       <c r="G89" s="67">
-        <v>7037111.7355533997</v>
+        <v>6853275.5712793004</v>
       </c>
       <c r="H89" s="68">
-        <v>193318.80069973599</v>
+        <v>185093.11859906599</v>
       </c>
       <c r="I89" s="68">
-        <v>4325493.2181647699</v>
+        <v>4301821.18448833</v>
       </c>
       <c r="J89" s="69">
-        <v>64388.493385699199</v>
+        <v>63646.704079387397</v>
       </c>
       <c r="K89" s="65">
-        <v>4.9797169978128597</v>
+        <v>4.9939239431145399</v>
       </c>
       <c r="L89" s="66">
-        <v>3.6764510872756899</v>
+        <v>3.7148036778474398</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4857,34 +4857,34 @@
         <v>156</v>
       </c>
       <c r="C90" s="71">
-        <v>87.262889639713606</v>
+        <v>86.929863166266799</v>
       </c>
       <c r="D90" s="72">
-        <v>2.4499562902648302</v>
+        <v>2.4537890056082299</v>
       </c>
       <c r="E90" s="72">
-        <v>87.949605471618099</v>
+        <v>86.988131639663294</v>
       </c>
       <c r="F90" s="73">
-        <v>3.0325005677119101</v>
+        <v>2.99688913552116</v>
       </c>
       <c r="G90" s="74">
-        <v>44970817.113320902</v>
+        <v>45154653.277594998</v>
       </c>
       <c r="H90" s="75">
-        <v>1248045.60118178</v>
+        <v>1256403.42522847</v>
       </c>
       <c r="I90" s="75">
-        <v>46304265.108991303</v>
+        <v>46327937.1426678</v>
       </c>
       <c r="J90" s="76">
-        <v>1632136.8681041701</v>
+        <v>1632381.95119563</v>
       </c>
       <c r="K90" s="72">
-        <v>3.02351935980588</v>
+        <v>3.0306990879355</v>
       </c>
       <c r="L90" s="73">
-        <v>3.7289277516235599</v>
+        <v>3.7274183084243999</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -5123,34 +5123,34 @@
         <v>163</v>
       </c>
       <c r="C97" s="78">
-        <v>36.943988970044003</v>
+        <v>36.683292636919397</v>
       </c>
       <c r="D97" s="79">
-        <v>1.3531880023490801</v>
+        <v>1.3382153502671199</v>
       </c>
       <c r="E97" s="79">
-        <v>3.3918278524004202</v>
+        <v>3.3929205642157201</v>
       </c>
       <c r="F97" s="80">
-        <v>9.5374640588750004E-2</v>
+        <v>9.518497842326E-2</v>
       </c>
       <c r="G97" s="81">
-        <v>303322.95860770898</v>
+        <v>306751.64893913298</v>
       </c>
       <c r="H97" s="82">
-        <v>14685.122493676599</v>
+        <v>14734.032917808499</v>
       </c>
       <c r="I97" s="82">
-        <v>28243.791215425899</v>
+        <v>28784.5392596087</v>
       </c>
       <c r="J97" s="83">
-        <v>949.41299179519001</v>
+        <v>962.51867076184396</v>
       </c>
       <c r="K97" s="79">
-        <v>4.41170922556464</v>
+        <v>4.3813649214839998</v>
       </c>
       <c r="L97" s="80">
-        <v>3.81690008519577</v>
+        <v>3.7924631951532501</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5161,31 +5161,31 @@
         <v>164</v>
       </c>
       <c r="C98" s="71">
-        <v>15.2987489613603</v>
+        <v>15.3080570612793</v>
       </c>
       <c r="D98" s="72">
-        <v>1.0141234788311999</v>
+        <v>1.0182464883970599</v>
       </c>
       <c r="E98" s="72">
-        <v>1.06856606670292</v>
+        <v>1.15549583830757</v>
       </c>
       <c r="F98" s="73">
         <v>2.5289223923949999E-2</v>
       </c>
       <c r="G98" s="74">
-        <v>140550.77860870201</v>
+        <v>140963.565896774</v>
       </c>
       <c r="H98" s="75">
-        <v>11134.1528379476</v>
+        <v>11198.2733716449</v>
       </c>
       <c r="I98" s="75">
-        <v>10363.2797922301</v>
+        <v>11147.6297922301</v>
       </c>
       <c r="J98" s="76">
         <v>396.20125163019497</v>
       </c>
       <c r="K98" s="72">
-        <v>6.7670142843608003</v>
+        <v>6.7941702901216701</v>
       </c>
       <c r="L98" s="73">
         <v>4.0386732729527104</v>
@@ -5424,11 +5424,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{DED09269-B26F-4DC3-9C4C-114B548C2952}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C878530A-7447-4893-A9DE-05A9B73A4332}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{532A78E4-EB67-4683-B97B-3278D7DA6F75}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B00F50FB-627B-42C7-B64E-AF8635DD10BF}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{9D618F1D-63D0-4A97-A92C-493FEBA3D120}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{73D6FA88-5300-425A-B61B-17517E64A766}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C1EEBBFE-9EC2-400E-B2D3-0C9EE3EC5285}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{46A42020-B323-4ADD-A8C7-BA48AD6028A6}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4B1EE429-D579-4951-B20B-80FCD3A442E8}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{FCC46C12-FF12-4762-B005-A0E7F4233A90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab22.xlsx
+++ b/AfDD_2023_Annex_Table_Tab22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B619139-294E-4D64-83C9-6B8A43082DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD48A1EE-2746-46E7-9B0D-0028C5140E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F2B77C1E-6B42-43A0-88F3-E1B89F992FBA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{28839769-11C1-4DBC-AD37-8DBF2DE5CDA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -1475,7 +1475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D6B3C8-8980-422A-A002-DF5413CDF129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57A34B4-3552-41BD-98E2-9EE28A130EA7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5424,11 +5424,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{73D6FA88-5300-425A-B61B-17517E64A766}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C1EEBBFE-9EC2-400E-B2D3-0C9EE3EC5285}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{46A42020-B323-4ADD-A8C7-BA48AD6028A6}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4B1EE429-D579-4951-B20B-80FCD3A442E8}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{FCC46C12-FF12-4762-B005-A0E7F4233A90}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7A0EE431-551E-4941-9673-3755046B6A05}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{628C91FD-C126-4DCA-8A9A-AF71F7099ADD}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{59EC4CCD-5C09-40BF-9046-3FE13A304DCE}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{59BE65E4-D249-49F6-8998-3390A731C4BD}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{4363C0C9-5E04-4FCB-A4D5-ECD5C7ACB7AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab22.xlsx
+++ b/AfDD_2023_Annex_Table_Tab22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD48A1EE-2746-46E7-9B0D-0028C5140E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE22E6BA-BC84-448D-870E-5B41323D476B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{28839769-11C1-4DBC-AD37-8DBF2DE5CDA0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{6EFB383E-0C0F-47E6-8DC9-B4AB5CC127A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>The returns on inward direct investments are calculated by taking the direct investment debits in year N and dividing it by the average of the direct investment liabilities over year N and year N-1 and then multiplying by 100. For 2020, this means taking 2020 debits and dividing by the liabilities averaged over 2019 and 2020.</t>
@@ -1475,7 +1475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57A34B4-3552-41BD-98E2-9EE28A130EA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28555B30-6A4B-4530-9D86-CB418D7C1B4F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5123,28 +5123,28 @@
         <v>163</v>
       </c>
       <c r="C97" s="78">
-        <v>36.683292636919397</v>
+        <v>31.624337064585202</v>
       </c>
       <c r="D97" s="79">
-        <v>1.3382153502671199</v>
+        <v>1.4714017087003199</v>
       </c>
       <c r="E97" s="79">
-        <v>3.3929205642157201</v>
+        <v>3.44642195504687</v>
       </c>
       <c r="F97" s="80">
-        <v>9.518497842326E-2</v>
+        <v>0.1032730827561</v>
       </c>
       <c r="G97" s="81">
-        <v>306751.64893913298</v>
+        <v>250446.62730692601</v>
       </c>
       <c r="H97" s="82">
-        <v>14734.032917808499</v>
+        <v>14298.353025403499</v>
       </c>
       <c r="I97" s="82">
-        <v>28784.5392596087</v>
+        <v>27665.173888703699</v>
       </c>
       <c r="J97" s="83">
-        <v>962.51867076184396</v>
+        <v>962.51203225982204</v>
       </c>
       <c r="K97" s="79">
         <v>4.3813649214839998</v>
@@ -5161,28 +5161,28 @@
         <v>164</v>
       </c>
       <c r="C98" s="71">
-        <v>15.3080570612793</v>
+        <v>15.561673464932399</v>
       </c>
       <c r="D98" s="72">
-        <v>1.0182464883970599</v>
+        <v>1.0423373870709201</v>
       </c>
       <c r="E98" s="72">
-        <v>1.15549583830757</v>
+        <v>1.17065038347686</v>
       </c>
       <c r="F98" s="73">
-        <v>2.5289223923949999E-2</v>
+        <v>2.7339055875000001E-2</v>
       </c>
       <c r="G98" s="74">
-        <v>140963.565896774</v>
+        <v>137421.45062971799</v>
       </c>
       <c r="H98" s="75">
-        <v>11198.2733716449</v>
+        <v>9403.3788966062893</v>
       </c>
       <c r="I98" s="75">
-        <v>11147.6297922301</v>
+        <v>11013.8110996097</v>
       </c>
       <c r="J98" s="76">
-        <v>396.20125163019497</v>
+        <v>367.29606944624101</v>
       </c>
       <c r="K98" s="72">
         <v>6.7941702901216701</v>
@@ -5424,11 +5424,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7A0EE431-551E-4941-9673-3755046B6A05}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{628C91FD-C126-4DCA-8A9A-AF71F7099ADD}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{59EC4CCD-5C09-40BF-9046-3FE13A304DCE}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{59BE65E4-D249-49F6-8998-3390A731C4BD}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{4363C0C9-5E04-4FCB-A4D5-ECD5C7ACB7AE}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7EB936C6-BBD8-4AEF-9369-99C0804C4B06}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BCC2A01E-2ECD-48D7-9A06-8D29F24EE926}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{5B51CE9B-FC73-4BBA-A634-95304E7D3BA2}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8F252A70-AB3F-4786-9E2D-BAE61BE9F485}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{9C9458C8-547C-47CD-B479-CE35590E1003}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab22.xlsx
+++ b/AfDD_2023_Annex_Table_Tab22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE22E6BA-BC84-448D-870E-5B41323D476B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7931AA1-D425-4DCF-A791-C8C7D2BC2C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{6EFB383E-0C0F-47E6-8DC9-B4AB5CC127A3}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{90EE0B6E-BCAD-4170-9520-8AF28AF31759}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="177">
   <si>
     <t>Table 22: Returns on direct investments</t>
   </si>
@@ -555,16 +555,19 @@
     <t>Source: IMF Balance of Payments and International Investment Position Statistics (retrieved 19/12/2022).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28555B30-6A4B-4530-9D86-CB418D7C1B4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD54E67F-BC37-48CA-8D0A-25132E2A1E65}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5338,7 +5341,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C109" s="86"/>
       <c r="D109" s="86"/>
@@ -5353,7 +5356,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C110" s="86"/>
       <c r="D110" s="86"/>
@@ -5367,7 +5370,9 @@
       <c r="L110" s="86"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="C111" s="86"/>
       <c r="D111" s="86"/>
       <c r="E111" s="86"/>
@@ -5381,7 +5386,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C112" s="86"/>
       <c r="D112" s="86"/>
@@ -5396,7 +5401,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C113" s="86"/>
       <c r="D113" s="86"/>
@@ -5424,13 +5429,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7EB936C6-BBD8-4AEF-9369-99C0804C4B06}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BCC2A01E-2ECD-48D7-9A06-8D29F24EE926}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{5B51CE9B-FC73-4BBA-A634-95304E7D3BA2}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8F252A70-AB3F-4786-9E2D-BAE61BE9F485}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{9C9458C8-547C-47CD-B479-CE35590E1003}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7E696392-BE4C-4084-9A2E-1A3BC12C1CE7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{77A12B42-D7FC-4D8C-B134-EE2D9D2BBC0B}"/>
+    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{30F7292F-BB56-4DE4-867F-A1862FC97607}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{8FC708D2-6A8A-4BC9-92ED-C61790B67623}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{8F5688E6-E98B-4120-9922-C6D1B156030B}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{E304CE5C-EEBA-4F61-AE5F-23D7F15570F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab22.xlsx
+++ b/AfDD_2023_Annex_Table_Tab22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7931AA1-D425-4DCF-A791-C8C7D2BC2C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB33F5D3-B4AA-4DB3-837A-A37F96A47482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{90EE0B6E-BCAD-4170-9520-8AF28AF31759}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{72EAADEB-CF40-4ECD-B30C-142B2DD7919B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab22'!$A$2:$L$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab22'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="177">
   <si>
     <t>Table 22: Returns on direct investments</t>
   </si>
@@ -552,7 +552,7 @@
     <t>The returns on outward direct investments are calculated by taking the direct investment credits in year N and dividing it by the average of the direct investment assets over year N and year N-1 and then multiplying by 100. For 2020, this means taking 2020 credits and dividing by assets averaged over 2019 and 2020.</t>
   </si>
   <si>
-    <t>Source: IMF Balance of Payments and International Investment Position Statistics (retrieved 19/12/2022).</t>
+    <t>Source: IMF Balance of Payments and International Investment Position Statistics (updated 25/10/2023).</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
@@ -1478,7 +1478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD54E67F-BC37-48CA-8D0A-25132E2A1E65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C663D6C-708C-4EEE-8F94-22A03C719B69}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1486,14 +1486,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="12.36328125" style="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="12.33203125" style="88" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1508,7 +1508,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1554,37 +1554,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="11">
-        <v>30.305406140536601</v>
+        <v>37.793897434793102</v>
       </c>
       <c r="D3" s="12">
-        <v>3.8301876863794302</v>
+        <v>3.83017279663627</v>
       </c>
       <c r="E3" s="12">
-        <v>5.6116262516275297</v>
+        <v>8.4707680603003208</v>
       </c>
       <c r="F3" s="13">
-        <v>0.19240838549753</v>
+        <v>0.19240763751553</v>
       </c>
       <c r="G3" s="14">
-        <v>17316.138698394301</v>
+        <v>21595.055055266399</v>
       </c>
       <c r="H3" s="15">
         <v>2188.5224342699998</v>
       </c>
       <c r="I3" s="15">
-        <v>3206.4146590253299</v>
+        <v>4840.1121619750002</v>
       </c>
       <c r="J3" s="16">
         <v>109.93980000000001</v>
       </c>
       <c r="K3" s="12">
-        <v>11.992315920439401</v>
+        <v>10.814415339865</v>
       </c>
       <c r="L3" s="13">
-        <v>3.22976504693959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.2716142341359999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1592,37 +1592,37 @@
         <v>16</v>
       </c>
       <c r="C4" s="18">
-        <v>38.401765110158898</v>
+        <v>38.401811811407804</v>
       </c>
       <c r="D4" s="19">
-        <v>4.2811920461319999E-2</v>
+        <v>4.2792340346119999E-2</v>
       </c>
       <c r="E4" s="19">
-        <v>7.4656365852719597</v>
+        <v>7.4656456644002702</v>
       </c>
       <c r="F4" s="20">
-        <v>-0.13642350704289999</v>
+        <v>-0.13636111348630001</v>
       </c>
       <c r="G4" s="21">
         <v>5733.39050344319</v>
       </c>
       <c r="H4" s="22">
-        <v>6.3918274981105698</v>
+        <v>6.3888964136758197</v>
       </c>
       <c r="I4" s="22">
         <v>1114.6208976949599</v>
       </c>
       <c r="J4" s="23">
-        <v>-20.368054371525002</v>
+        <v>-20.358714243502</v>
       </c>
       <c r="K4" s="19">
-        <v>0.11426925038443</v>
+        <v>0.11421685021855001</v>
       </c>
       <c r="L4" s="20">
-        <v>-1.9151893297322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-1.9143110861257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
@@ -1630,16 +1630,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="25">
-        <v>24.167132706668099</v>
+        <v>24.1657376925404</v>
       </c>
       <c r="D5" s="26">
-        <v>11.416816711968901</v>
+        <v>11.416157692100899</v>
       </c>
       <c r="E5" s="26">
-        <v>3.6746874676690702</v>
+        <v>3.6744753514451798</v>
       </c>
       <c r="F5" s="27">
-        <v>0.11189049739077001</v>
+        <v>0.11188403866740999</v>
       </c>
       <c r="G5" s="28">
         <v>962.76298967081095</v>
@@ -1660,7 +1660,7 @@
         <v>2.8330333973603299</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
@@ -1668,10 +1668,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="25">
-        <v>52.946773309302799</v>
+        <v>52.958962659692503</v>
       </c>
       <c r="D6" s="26">
-        <v>4.5608133791165697</v>
+        <v>4.5618633647694304</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>21</v>
@@ -1698,7 +1698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="25">
-        <v>12.7374358246493</v>
+        <v>12.7377964391503</v>
       </c>
       <c r="D7" s="26">
-        <v>0.86307601827188996</v>
+        <v>0.86310045315282002</v>
       </c>
       <c r="E7" s="26">
-        <v>1.8845616099574101</v>
+        <v>1.88461496451433</v>
       </c>
       <c r="F7" s="27">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1744,16 +1744,16 @@
         <v>25</v>
       </c>
       <c r="C8" s="25">
-        <v>327.02940918528202</v>
+        <v>327.02641462365801</v>
       </c>
       <c r="D8" s="26">
-        <v>0.88995715607935</v>
+        <v>0.88994900686869005</v>
       </c>
       <c r="E8" s="26">
-        <v>5.9731163076689998E-2</v>
+        <v>0.13192105195375001</v>
       </c>
       <c r="F8" s="27">
-        <v>7.6936415902370006E-2</v>
+        <v>7.6935711406590002E-2</v>
       </c>
       <c r="G8" s="28">
         <v>46297.129518271198</v>
@@ -1762,7 +1762,7 @@
         <v>125.9900809024</v>
       </c>
       <c r="I8" s="29">
-        <v>8.4560633250928401</v>
+        <v>18.676063325092802</v>
       </c>
       <c r="J8" s="30">
         <v>10.891788663830299</v>
@@ -1771,10 +1771,10 @@
         <v>0.28183709019759001</v>
       </c>
       <c r="L8" s="27">
-        <v>22.429797653109102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>19.015173373142598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -1782,37 +1782,37 @@
         <v>27</v>
       </c>
       <c r="C9" s="25">
-        <v>62.653176129461002</v>
+        <v>66.584132003183399</v>
       </c>
       <c r="D9" s="26">
-        <v>0.51447416018650005</v>
+        <v>0.51438613566207003</v>
       </c>
       <c r="E9" s="26">
-        <v>9.9814292652195107</v>
+        <v>10.0747554392241</v>
       </c>
       <c r="F9" s="27">
-        <v>2.191505130189E-2</v>
+        <v>2.191130172199E-2</v>
       </c>
       <c r="G9" s="28">
-        <v>6629.4511624121596</v>
+        <v>7046.5986898969004</v>
       </c>
       <c r="H9" s="29">
         <v>54.437484737117003</v>
       </c>
       <c r="I9" s="29">
-        <v>1056.1539243934501</v>
+        <v>1066.21136813309</v>
       </c>
       <c r="J9" s="30">
         <v>2.3188730612381301</v>
       </c>
       <c r="K9" s="26">
-        <v>0.80906401018000995</v>
+        <v>0.78473809184518994</v>
       </c>
       <c r="L9" s="27">
-        <v>0.21620309226048001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.21420023291314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1820,37 +1820,37 @@
         <v>29</v>
       </c>
       <c r="C10" s="25">
-        <v>39.442468335695899</v>
+        <v>39.364083469202498</v>
       </c>
       <c r="D10" s="26">
-        <v>1.10580743434324</v>
+        <v>1.1038669713736999</v>
       </c>
       <c r="E10" s="26">
-        <v>74.354970928109793</v>
+        <v>74.207203693571699</v>
       </c>
       <c r="F10" s="27">
-        <v>1.1391847298870701</v>
+        <v>1.13780929159358</v>
       </c>
       <c r="G10" s="28">
         <v>133126.574807</v>
       </c>
       <c r="H10" s="29">
-        <v>3732.33122423534</v>
+        <v>3733.2008264978499</v>
       </c>
       <c r="I10" s="29">
         <v>250963.568387401</v>
       </c>
       <c r="J10" s="30">
-        <v>3844.9865731413402</v>
+        <v>3847.9913775190598</v>
       </c>
       <c r="K10" s="26">
-        <v>2.6815315460798201</v>
+        <v>2.6821563207204799</v>
       </c>
       <c r="L10" s="27">
-        <v>1.6503447231975099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.65163444500919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -1858,16 +1858,16 @@
         <v>31</v>
       </c>
       <c r="C11" s="18">
-        <v>83.585893807635003</v>
+        <v>83.584225951514597</v>
       </c>
       <c r="D11" s="19">
-        <v>2.1303668043248898</v>
+        <v>2.1303242954139798</v>
       </c>
       <c r="E11" s="19">
-        <v>6.1923580066843504</v>
+        <v>6.1922344456176397</v>
       </c>
       <c r="F11" s="20">
-        <v>4.8330169210800002E-2</v>
+        <v>4.8329204840320002E-2</v>
       </c>
       <c r="G11" s="21">
         <v>15137.939162078799</v>
@@ -1888,7 +1888,7 @@
         <v>0.82396231805705999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -1899,13 +1899,13 @@
         <v>21</v>
       </c>
       <c r="D12" s="26">
-        <v>0.86000344502129</v>
+        <v>0.85915402787586004</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="27">
-        <v>1.3984319890810001E-2</v>
+        <v>1.397050771232E-2</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>21</v>
@@ -1926,7 +1926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>34</v>
       </c>
@@ -1934,37 +1934,37 @@
         <v>35</v>
       </c>
       <c r="C13" s="33">
-        <v>49.4160904925279</v>
+        <v>50.718023469329701</v>
       </c>
       <c r="D13" s="34">
-        <v>1.6602433520187401</v>
+        <v>1.65758338695817</v>
       </c>
       <c r="E13" s="34">
-        <v>50.558355368560598</v>
+        <v>51.027310954075197</v>
       </c>
       <c r="F13" s="35">
-        <v>0.76328974018243001</v>
+        <v>0.76334992050674999</v>
       </c>
       <c r="G13" s="36">
-        <v>227842.04825894799</v>
+        <v>232538.11214330501</v>
       </c>
       <c r="H13" s="37">
-        <v>7379.0272546942397</v>
+        <v>7379.8939258723103</v>
       </c>
       <c r="I13" s="37">
-        <v>257840.35094513299</v>
+        <v>259494.32589182301</v>
       </c>
       <c r="J13" s="38">
-        <v>3964.7381079840202</v>
+        <v>3967.7522524897699</v>
       </c>
       <c r="K13" s="34">
-        <v>3.0276985879318801</v>
+        <v>3.0001551358001501</v>
       </c>
       <c r="L13" s="35">
-        <v>1.6497230006964401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.6410370404201899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
@@ -2010,16 +2010,16 @@
         <v>39</v>
       </c>
       <c r="C15" s="25">
-        <v>21.8560157219475</v>
+        <v>21.856269520457499</v>
       </c>
       <c r="D15" s="26">
-        <v>1.6061909398696499</v>
+        <v>1.6062095914332499</v>
       </c>
       <c r="E15" s="26">
-        <v>2.5031397224315399</v>
+        <v>2.5031687896293202</v>
       </c>
       <c r="F15" s="27">
-        <v>4.3903424367500001E-3</v>
+        <v>4.3903934187000003E-3</v>
       </c>
       <c r="G15" s="28">
         <v>8931.1274141445301</v>
@@ -2040,7 +2040,7 @@
         <v>0.17914762203019999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
@@ -2116,45 +2116,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>21</v>
+      <c r="C18" s="40">
+        <v>86.481807284811794</v>
       </c>
       <c r="D18" s="41">
-        <v>-1.8169762694291001</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>21</v>
+        <v>-1.661496877367</v>
+      </c>
+      <c r="E18" s="41">
+        <v>8.8479068632792401</v>
       </c>
       <c r="F18" s="42">
         <v>0</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>21</v>
+      <c r="G18" s="43">
+        <v>9932.4355666606298</v>
       </c>
       <c r="H18" s="44">
         <v>-190.82291636560001</v>
       </c>
-      <c r="I18" s="44" t="s">
-        <v>21</v>
+      <c r="I18" s="44">
+        <v>1016.18210324762</v>
       </c>
       <c r="J18" s="45">
         <v>0</v>
       </c>
-      <c r="K18" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K18" s="41">
+        <v>-1.8932839123123</v>
+      </c>
+      <c r="L18" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
@@ -2162,13 +2162,13 @@
         <v>47</v>
       </c>
       <c r="C19" s="18">
-        <v>55.627423796465699</v>
+        <v>55.626879165615797</v>
       </c>
       <c r="D19" s="19">
-        <v>0.61335822203156998</v>
+        <v>0.61335221683148999</v>
       </c>
       <c r="E19" s="19">
-        <v>2.29818369099192</v>
+        <v>2.2981611901883299</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>21</v>
@@ -2192,7 +2192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>50</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -2276,13 +2276,13 @@
         <v>53</v>
       </c>
       <c r="C22" s="25">
-        <v>73.694309523913205</v>
+        <v>73.846409214276903</v>
       </c>
       <c r="D22" s="26">
         <v>0</v>
       </c>
       <c r="E22" s="26">
-        <v>0.88040167591479002</v>
+        <v>0.88221876088604001</v>
       </c>
       <c r="F22" s="27">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>34</v>
       </c>
@@ -2314,37 +2314,37 @@
         <v>54</v>
       </c>
       <c r="C23" s="33">
-        <v>39.103475544518702</v>
+        <v>43.7035624980184</v>
       </c>
       <c r="D23" s="34">
-        <v>0.83716412036222998</v>
+        <v>0.83032967388839996</v>
       </c>
       <c r="E23" s="34">
-        <v>2.39265609690572</v>
+        <v>3.02256898899472</v>
       </c>
       <c r="F23" s="35">
-        <v>3.6298533975400002E-3</v>
+        <v>3.57704455989E-3</v>
       </c>
       <c r="G23" s="36">
-        <v>36376.820357201002</v>
+        <v>46309.255923861601</v>
       </c>
       <c r="H23" s="37">
         <v>764.26797323388598</v>
       </c>
       <c r="I23" s="37">
-        <v>2146.4345947130801</v>
+        <v>3162.6166979607001</v>
       </c>
       <c r="J23" s="38">
         <v>1.7940464626842201</v>
       </c>
       <c r="K23" s="34">
-        <v>2.7180078552122402</v>
+        <v>1.6901736709566999</v>
       </c>
       <c r="L23" s="35">
-        <v>0.17841352168440999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.10596953031502999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>55</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="26">
-        <v>0.17428843952216</v>
+        <v>0.17425804987530999</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>21</v>
@@ -2382,7 +2382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>57</v>
       </c>
@@ -2390,10 +2390,10 @@
         <v>58</v>
       </c>
       <c r="C25" s="25">
-        <v>59.9378975182928</v>
+        <v>59.863961322356403</v>
       </c>
       <c r="D25" s="26">
-        <v>3.7258433448500901</v>
+        <v>3.7212473430719299</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>21</v>
@@ -2420,7 +2420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>59</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
@@ -2496,45 +2496,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>21</v>
+      <c r="C28" s="25">
+        <v>11.8097770035551</v>
       </c>
       <c r="D28" s="26">
-        <v>0.61144638749821001</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>21</v>
+        <v>0.60995922514342005</v>
+      </c>
+      <c r="E28" s="26">
+        <v>1.4622214478430999</v>
       </c>
       <c r="F28" s="27">
-        <v>-6.4441458522400005E-2</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>21</v>
+        <v>-6.4284723748600003E-2</v>
+      </c>
+      <c r="G28" s="28">
+        <v>11917.482169827499</v>
       </c>
       <c r="H28" s="29">
         <v>615.522053276728</v>
       </c>
-      <c r="I28" s="29" t="s">
-        <v>21</v>
+      <c r="I28" s="29">
+        <v>1475.5569074474299</v>
       </c>
       <c r="J28" s="30">
         <v>-64.871000429215002</v>
       </c>
-      <c r="K28" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K28" s="26">
+        <v>5.4926258838881097</v>
+      </c>
+      <c r="L28" s="27">
+        <v>-4.0411496659382999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
@@ -2542,13 +2542,13 @@
         <v>66</v>
       </c>
       <c r="C29" s="25">
-        <v>31.4184741730162</v>
+        <v>31.419536309169001</v>
       </c>
       <c r="D29" s="26">
-        <v>2.55447521259378</v>
+        <v>2.5545615694441999</v>
       </c>
       <c r="E29" s="26">
-        <v>5.4683524974253599</v>
+        <v>5.4685373611094299</v>
       </c>
       <c r="F29" s="27">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>67</v>
       </c>
@@ -2580,16 +2580,16 @@
         <v>68</v>
       </c>
       <c r="C30" s="25">
-        <v>2902.4220790751501</v>
+        <v>2902.4325156754398</v>
       </c>
       <c r="D30" s="26">
-        <v>43.390955091278897</v>
+        <v>43.391111117536397</v>
       </c>
       <c r="E30" s="26">
-        <v>2488.6961533727499</v>
+        <v>2488.7051022872402</v>
       </c>
       <c r="F30" s="27">
-        <v>54.275964451218002</v>
+        <v>54.276159618058301</v>
       </c>
       <c r="G30" s="28">
         <v>330906.33111215697</v>
@@ -2610,7 +2610,7 @@
         <v>2.2278112015920102</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>69</v>
       </c>
@@ -2618,13 +2618,13 @@
         <v>70</v>
       </c>
       <c r="C31" s="25">
-        <v>26.579630269138502</v>
+        <v>26.610610460810801</v>
       </c>
       <c r="D31" s="26">
-        <v>0.40626657054213999</v>
+        <v>0.40674009918411003</v>
       </c>
       <c r="E31" s="26">
-        <v>0.72306599699447005</v>
+        <v>0.72390877482666005</v>
       </c>
       <c r="F31" s="27">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>71</v>
       </c>
@@ -2656,22 +2656,22 @@
         <v>72</v>
       </c>
       <c r="C32" s="25">
-        <v>312.98088955567499</v>
+        <v>286.21617827409</v>
       </c>
       <c r="D32" s="26">
-        <v>3.2864766877044902</v>
+        <v>3.0054320533022199</v>
       </c>
       <c r="E32" s="26">
-        <v>145.945483816158</v>
+        <v>133.46488558303199</v>
       </c>
       <c r="F32" s="27">
-        <v>0.26042222820097</v>
+        <v>0.23815209612037</v>
       </c>
       <c r="G32" s="28">
         <v>3949.7832601824398</v>
       </c>
       <c r="H32" s="29">
-        <v>41.474962335570702</v>
+        <v>41.474962335570602</v>
       </c>
       <c r="I32" s="29">
         <v>1841.8154210458399</v>
@@ -2686,7 +2686,7 @@
         <v>0.17583551495856001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>73</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>75</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="41">
-        <v>5.6183232388320397</v>
+        <v>5.6184603886397602</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>21</v>
@@ -2762,7 +2762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>77</v>
       </c>
@@ -2770,16 +2770,16 @@
         <v>78</v>
       </c>
       <c r="C35" s="25">
-        <v>84.897956867966101</v>
+        <v>84.747701047379294</v>
       </c>
       <c r="D35" s="26">
-        <v>7.863907566028E-2</v>
+        <v>7.8499897059530005E-2</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="27">
-        <v>1.9294046479999999E-5</v>
+        <v>1.9259899100000001E-5</v>
       </c>
       <c r="G35" s="28">
         <v>29210.837597010701</v>
@@ -2800,7 +2800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>79</v>
       </c>
@@ -2808,13 +2808,13 @@
         <v>80</v>
       </c>
       <c r="C36" s="25">
-        <v>23.818016157120098</v>
+        <v>23.818157706091601</v>
       </c>
       <c r="D36" s="26">
-        <v>0.83154131432782996</v>
+        <v>0.83154625612554001</v>
       </c>
       <c r="E36" s="26">
-        <v>3.09135296637576</v>
+        <v>3.0913713380919501</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>21</v>
@@ -2838,7 +2838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>81</v>
       </c>
@@ -2846,16 +2846,16 @@
         <v>82</v>
       </c>
       <c r="C37" s="25">
-        <v>41.218143746922202</v>
+        <v>40.769348007474903</v>
       </c>
       <c r="D37" s="26">
-        <v>0.89758281609826995</v>
+        <v>0.88780966022451002</v>
       </c>
       <c r="E37" s="26">
-        <v>0.46289792542701003</v>
+        <v>0.45785937248718001</v>
       </c>
       <c r="F37" s="27">
-        <v>8.7447009242999998E-4</v>
+        <v>8.6494859495000001E-4</v>
       </c>
       <c r="G37" s="28">
         <v>15462.590618795</v>
@@ -2864,7 +2864,7 @@
         <v>336.71956983334798</v>
       </c>
       <c r="I37" s="29">
-        <v>173.651709381063</v>
+        <v>173.652324203213</v>
       </c>
       <c r="J37" s="30">
         <v>0.32804905360676001</v>
@@ -2873,10 +2873,10 @@
         <v>2.2409567711963998</v>
       </c>
       <c r="L37" s="27">
-        <v>0.18909068610971</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.18909016742358001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>34</v>
       </c>
@@ -2884,37 +2884,37 @@
         <v>83</v>
       </c>
       <c r="C38" s="33">
-        <v>186.219708352</v>
+        <v>133.32111122870799</v>
       </c>
       <c r="D38" s="34">
-        <v>2.13213907954239</v>
+        <v>2.1298950766537299</v>
       </c>
       <c r="E38" s="34">
-        <v>181.39509903295499</v>
+        <v>110.216282415512</v>
       </c>
       <c r="F38" s="35">
-        <v>2.26607428668015</v>
+        <v>2.26530853347536</v>
       </c>
       <c r="G38" s="36">
-        <v>403856.43503691599</v>
+        <v>415773.91720674402</v>
       </c>
       <c r="H38" s="37">
         <v>7308.9824555446703</v>
       </c>
       <c r="I38" s="37">
-        <v>288566.44089126203</v>
+        <v>290041.99841353198</v>
       </c>
       <c r="J38" s="38">
         <v>6126.7751441077098</v>
       </c>
       <c r="K38" s="34">
-        <v>1.60080211923689</v>
+        <v>1.70706635322183</v>
       </c>
       <c r="L38" s="35">
-        <v>2.2069687627595802</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.1714213826907098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>84</v>
       </c>
@@ -2922,37 +2922,37 @@
         <v>85</v>
       </c>
       <c r="C39" s="40">
-        <v>13.304715415917499</v>
+        <v>13.304598115491199</v>
       </c>
       <c r="D39" s="41">
-        <v>2.58378943427866</v>
+        <v>2.5837811515500602</v>
       </c>
       <c r="E39" s="41">
-        <v>1.75097387207491</v>
+        <v>1.75096825819927</v>
       </c>
       <c r="F39" s="42">
-        <v>9.3769841381170005E-2</v>
+        <v>9.3769540787730005E-2</v>
       </c>
       <c r="G39" s="43">
-        <v>19379.0541635146</v>
+        <v>19378.945431099801</v>
       </c>
       <c r="H39" s="44">
         <v>3763.43227410175</v>
       </c>
       <c r="I39" s="44">
-        <v>2550.39032742052</v>
+        <v>2550.3903261627302</v>
       </c>
       <c r="J39" s="45">
         <v>136.58096232977499</v>
       </c>
       <c r="K39" s="41">
-        <v>19.001950834652099</v>
+        <v>19.002002995243199</v>
       </c>
       <c r="L39" s="42">
-        <v>5.3707470790779803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>5.3707470804061597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>86</v>
       </c>
@@ -2960,16 +2960,16 @@
         <v>87</v>
       </c>
       <c r="C40" s="25">
-        <v>34.632118353758401</v>
+        <v>34.632141690085597</v>
       </c>
       <c r="D40" s="26">
-        <v>1.78952889022527</v>
+        <v>1.7895300960721501</v>
       </c>
       <c r="E40" s="26">
-        <v>2.2171346409106198</v>
+        <v>2.2171361348931402</v>
       </c>
       <c r="F40" s="27">
-        <v>2.622049079522E-2</v>
+        <v>2.6220508463499999E-2</v>
       </c>
       <c r="G40" s="28">
         <v>132476.6</v>
@@ -2990,7 +2990,7 @@
         <v>1.205840451559</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
@@ -3001,13 +3001,13 @@
         <v>21</v>
       </c>
       <c r="D41" s="41">
-        <v>0.67725751205016005</v>
+        <v>0.67688241938577998</v>
       </c>
       <c r="E41" s="41" t="s">
         <v>21</v>
       </c>
       <c r="F41" s="42">
-        <v>0.11195220208638</v>
+        <v>0.11189019841862</v>
       </c>
       <c r="G41" s="43" t="s">
         <v>21</v>
@@ -3028,7 +3028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>90</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>21</v>
       </c>
       <c r="D42" s="41">
-        <v>0.96927774264584998</v>
+        <v>0.96925536724038996</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>21</v>
@@ -3066,7 +3066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>92</v>
       </c>
@@ -3074,16 +3074,16 @@
         <v>93</v>
       </c>
       <c r="C43" s="25">
-        <v>59.313124305926898</v>
+        <v>59.309963804965797</v>
       </c>
       <c r="D43" s="26">
-        <v>0.83152197830273999</v>
+        <v>0.83147767063824995</v>
       </c>
       <c r="E43" s="26">
-        <v>6.0350737116592796</v>
+        <v>6.0347521326413203</v>
       </c>
       <c r="F43" s="27">
-        <v>0.34120971910102998</v>
+        <v>0.34119153773464</v>
       </c>
       <c r="G43" s="28">
         <v>71975.013475878193</v>
@@ -3104,7 +3104,7 @@
         <v>6.0137315496923804</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>94</v>
       </c>
@@ -3112,16 +3112,16 @@
         <v>95</v>
       </c>
       <c r="C44" s="25">
-        <v>89.222993879663406</v>
+        <v>89.222701001299001</v>
       </c>
       <c r="D44" s="26">
-        <v>2.0740181879188699</v>
+        <v>2.0740113798638098</v>
       </c>
       <c r="E44" s="26">
-        <v>1.52654027701978</v>
+        <v>1.5265352660848099</v>
       </c>
       <c r="F44" s="27">
-        <v>5.1321773561529997E-2</v>
+        <v>5.1321605095570003E-2</v>
       </c>
       <c r="G44" s="28">
         <v>37955.337005952599</v>
@@ -3142,7 +3142,7 @@
         <v>3.5387725844904199</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>34</v>
       </c>
@@ -3150,37 +3150,37 @@
         <v>96</v>
       </c>
       <c r="C45" s="33">
-        <v>36.355087325383302</v>
+        <v>36.354244933545601</v>
       </c>
       <c r="D45" s="34">
-        <v>1.7886593325157201</v>
+        <v>1.78862425205158</v>
       </c>
       <c r="E45" s="34">
-        <v>2.5756746369311001</v>
+        <v>2.5755316338571501</v>
       </c>
       <c r="F45" s="35">
-        <v>8.4593192436469997E-2</v>
+        <v>8.4568786928219994E-2</v>
       </c>
       <c r="G45" s="36">
-        <v>261786.004645345</v>
+        <v>261785.89591293101</v>
       </c>
       <c r="H45" s="37">
         <v>12901.2203997489</v>
       </c>
       <c r="I45" s="37">
-        <v>19004.291532658601</v>
+        <v>19004.291531400799</v>
       </c>
       <c r="J45" s="38">
         <v>725.26275183992198</v>
       </c>
       <c r="K45" s="34">
-        <v>4.8970459270486897</v>
+        <v>4.8970469700439203</v>
       </c>
       <c r="L45" s="35">
-        <v>3.6637033466425799</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.66370334676806</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
@@ -3188,19 +3188,19 @@
         <v>98</v>
       </c>
       <c r="C46" s="25">
-        <v>21.874758853687698</v>
+        <v>21.8793160002677</v>
       </c>
       <c r="D46" s="26">
-        <v>0.31204443385049002</v>
+        <v>0.31204813150406002</v>
       </c>
       <c r="E46" s="26">
-        <v>3.4499275010899599</v>
+        <v>3.4499683819240499</v>
       </c>
       <c r="F46" s="27">
-        <v>8.3613140674139996E-2</v>
+        <v>8.3614131470300002E-2</v>
       </c>
       <c r="G46" s="28">
-        <v>3428.6903314241699</v>
+        <v>3429.3639898819602</v>
       </c>
       <c r="H46" s="29">
         <v>48.910424131945597</v>
@@ -3212,13 +3212,13 @@
         <v>13.105678966654599</v>
       </c>
       <c r="K46" s="26">
-        <v>1.52918944900826</v>
+        <v>1.5290284270163601</v>
       </c>
       <c r="L46" s="27">
         <v>2.5835265421704898</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>99</v>
       </c>
@@ -3226,16 +3226,16 @@
         <v>100</v>
       </c>
       <c r="C47" s="25">
-        <v>21.031688418619101</v>
+        <v>21.031136109103301</v>
       </c>
       <c r="D47" s="26">
-        <v>2.94998327585244</v>
+        <v>2.9499058068541402</v>
       </c>
       <c r="E47" s="26">
-        <v>1.13579959633753</v>
+        <v>1.13576976930165</v>
       </c>
       <c r="F47" s="27">
-        <v>0.12089393306111</v>
+        <v>0.12089075828653</v>
       </c>
       <c r="G47" s="28">
         <v>3777.19204519496</v>
@@ -3256,7 +3256,7 @@
         <v>10.916952327929501</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>101</v>
       </c>
@@ -3264,37 +3264,37 @@
         <v>102</v>
       </c>
       <c r="C48" s="40">
-        <v>129.01558679397399</v>
+        <v>132.00066132218001</v>
       </c>
       <c r="D48" s="41">
-        <v>0.88756956292599998</v>
+        <v>0.88744868624232998</v>
       </c>
       <c r="E48" s="41">
-        <v>4.6998990936943503</v>
+        <v>4.4771787151757296</v>
       </c>
       <c r="F48" s="42">
-        <v>6.8601782447239995E-2</v>
+        <v>6.8592439679869999E-2</v>
       </c>
       <c r="G48" s="43">
-        <v>2413.5528862248002</v>
+        <v>2469.7323733379799</v>
       </c>
       <c r="H48" s="44">
         <v>16.604164919594002</v>
       </c>
       <c r="I48" s="44">
-        <v>87.923136300312393</v>
+        <v>83.768013760937805</v>
       </c>
       <c r="J48" s="45">
         <v>1.28336454641034</v>
       </c>
       <c r="K48" s="41">
-        <v>0.72769212666651995</v>
+        <v>0.71363146911955</v>
       </c>
       <c r="L48" s="42">
-        <v>1.60728927839546</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.64822738732047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>103</v>
       </c>
@@ -3302,37 +3302,37 @@
         <v>104</v>
       </c>
       <c r="C49" s="25">
-        <v>18.964783577578299</v>
+        <v>19.3366716709711</v>
       </c>
       <c r="D49" s="26">
-        <v>2.0409429895456999</v>
+        <v>2.0370532559643002</v>
       </c>
       <c r="E49" s="26">
-        <v>3.8819922452264799</v>
+        <v>3.9707597695248098</v>
       </c>
       <c r="F49" s="27">
-        <v>0.20319977489909</v>
+        <v>0.20281250637066001</v>
       </c>
       <c r="G49" s="28">
-        <v>11939.0500925082</v>
+        <v>12196.412289748299</v>
       </c>
       <c r="H49" s="29">
         <v>1284.8509706669199</v>
       </c>
       <c r="I49" s="29">
-        <v>2443.8612592069298</v>
+        <v>2504.5170170300798</v>
       </c>
       <c r="J49" s="30">
         <v>127.92196026823299</v>
       </c>
       <c r="K49" s="26">
-        <v>11.5927840865892</v>
+        <v>11.459731236258101</v>
       </c>
       <c r="L49" s="27">
-        <v>5.4668829348370602</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+        <v>5.3969335695398701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>105</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="26">
-        <v>0.78831953788036002</v>
+        <v>0.78850193477059005</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>21</v>
@@ -3370,7 +3370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>107</v>
       </c>
@@ -3378,37 +3378,37 @@
         <v>108</v>
       </c>
       <c r="C51" s="18">
-        <v>19.1566817036339</v>
+        <v>19.045134926372601</v>
       </c>
       <c r="D51" s="19">
-        <v>3.5157511565253099</v>
+        <v>3.5157631658985702</v>
       </c>
       <c r="E51" s="19">
-        <v>0.93137100371932002</v>
+        <v>0.83367106552458003</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G51" s="21">
-        <v>13411.255538121901</v>
+        <v>13333.118059254901</v>
       </c>
       <c r="H51" s="22">
         <v>2461.3154771822701</v>
       </c>
       <c r="I51" s="22">
-        <v>652.03643955244604</v>
+        <v>583.63643955244595</v>
       </c>
       <c r="J51" s="23" t="s">
         <v>21</v>
       </c>
       <c r="K51" s="19">
-        <v>17.6273370069195</v>
+        <v>17.676796811222601</v>
       </c>
       <c r="L51" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>109</v>
       </c>
@@ -3419,13 +3419,13 @@
         <v>21</v>
       </c>
       <c r="D52" s="26">
-        <v>0.17358180467501999</v>
+        <v>0.17467527858613</v>
       </c>
       <c r="E52" s="26" t="s">
         <v>21</v>
       </c>
       <c r="F52" s="27">
-        <v>9.1692948425999997E-4</v>
+        <v>9.2270565690000001E-4</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>21</v>
@@ -3446,7 +3446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>111</v>
       </c>
@@ -3454,16 +3454,16 @@
         <v>112</v>
       </c>
       <c r="C53" s="25">
-        <v>22.5001933291088</v>
+        <v>22.4954481766427</v>
       </c>
       <c r="D53" s="26">
-        <v>0.88808082865770999</v>
+        <v>0.88789353786990999</v>
       </c>
       <c r="E53" s="26">
-        <v>0.26046080896620999</v>
+        <v>0.26040587938262999</v>
       </c>
       <c r="F53" s="27">
-        <v>2.1667381779250001E-2</v>
+        <v>2.166281226162E-2</v>
       </c>
       <c r="G53" s="28">
         <v>342.60567573026901</v>
@@ -3484,45 +3484,45 @@
         <v>8.3832111988067304</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>21</v>
+      <c r="C54" s="25">
+        <v>19.437041885818498</v>
+      </c>
+      <c r="D54" s="26">
+        <v>1.7312049295671601</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>21</v>
+      <c r="F54" s="27">
+        <v>0</v>
+      </c>
+      <c r="G54" s="28">
+        <v>590.30296207230799</v>
+      </c>
+      <c r="H54" s="29">
+        <v>52.576693710954501</v>
       </c>
       <c r="I54" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="26" t="s">
-        <v>21</v>
+      <c r="J54" s="30">
+        <v>0</v>
+      </c>
+      <c r="K54" s="26">
+        <v>14.419764630219699</v>
       </c>
       <c r="L54" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>115</v>
       </c>
@@ -3530,16 +3530,16 @@
         <v>116</v>
       </c>
       <c r="C55" s="25">
-        <v>28.9546657623249</v>
+        <v>28.954427081186299</v>
       </c>
       <c r="D55" s="26">
-        <v>4.0441736296911497</v>
+        <v>4.04414029247447</v>
       </c>
       <c r="E55" s="26">
-        <v>0.30888137406108002</v>
+        <v>0.30887882786839999</v>
       </c>
       <c r="F55" s="27">
-        <v>2.2263362044020001E-2</v>
+        <v>2.226317852111E-2</v>
       </c>
       <c r="G55" s="28">
         <v>5108.4295699336999</v>
@@ -3560,7 +3560,7 @@
         <v>11.854416993049099</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>117</v>
       </c>
@@ -3568,37 +3568,37 @@
         <v>118</v>
       </c>
       <c r="C56" s="25">
-        <v>70.244065622370599</v>
+        <v>64.561128421569293</v>
       </c>
       <c r="D56" s="26">
-        <v>1.0596521024093599</v>
+        <v>1.0596559472089</v>
       </c>
       <c r="E56" s="26">
-        <v>2.3635667231331401</v>
+        <v>2.23974826202328</v>
       </c>
       <c r="F56" s="27">
-        <v>3.9894377836120001E-2</v>
+        <v>3.9894522587290003E-2</v>
       </c>
       <c r="G56" s="28">
-        <v>9668.4282726764195</v>
+        <v>8886.1937159448007</v>
       </c>
       <c r="H56" s="29">
         <v>145.85104457383301</v>
       </c>
       <c r="I56" s="29">
-        <v>325.322504154998</v>
+        <v>308.27895078488399</v>
       </c>
       <c r="J56" s="30">
         <v>5.4910820889146601</v>
       </c>
       <c r="K56" s="26">
-        <v>1.60587824956796</v>
+        <v>1.6781451792839599</v>
       </c>
       <c r="L56" s="27">
-        <v>1.8051662360695899</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.85719542058295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>119</v>
       </c>
@@ -3606,75 +3606,75 @@
         <v>120</v>
       </c>
       <c r="C57" s="25">
-        <v>20.262669221723801</v>
+        <v>20.262668743872599</v>
       </c>
       <c r="D57" s="26">
-        <v>1.1315767497812299</v>
+        <v>1.13157674592989</v>
       </c>
       <c r="E57" s="26">
-        <v>2.8576293000889299</v>
+        <v>2.8576275607035502</v>
       </c>
       <c r="F57" s="27">
-        <v>0.12085091378288999</v>
+        <v>0.12085091337157</v>
       </c>
       <c r="G57" s="28">
-        <v>87012.561755854505</v>
+        <v>87012.56</v>
       </c>
       <c r="H57" s="29">
         <v>4859.2508096745196</v>
       </c>
       <c r="I57" s="29">
-        <v>12271.317427555299</v>
+        <v>12271.31</v>
       </c>
       <c r="J57" s="30">
         <v>518.96161772758899</v>
       </c>
       <c r="K57" s="26">
-        <v>5.66214772068746</v>
+        <v>5.6621477786105396</v>
       </c>
       <c r="L57" s="27">
-        <v>4.23846604074458</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+        <v>4.2384673263219197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B58" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C58" s="25">
+        <v>31.944624206945701</v>
+      </c>
+      <c r="D58" s="26">
+        <v>2.1857118210658202</v>
+      </c>
+      <c r="E58" s="26">
+        <v>3.7914454759834499</v>
+      </c>
+      <c r="F58" s="27">
+        <v>0.79392826039983999</v>
+      </c>
+      <c r="G58" s="28">
+        <v>7837.29410293206</v>
+      </c>
+      <c r="H58" s="29">
+        <v>536.24253818028797</v>
+      </c>
+      <c r="I58" s="29">
+        <v>930.19323307777904</v>
+      </c>
+      <c r="J58" s="30">
+        <v>194.782359406496</v>
+      </c>
+      <c r="K58" s="26">
+        <v>7.9562801112408401</v>
+      </c>
+      <c r="L58" s="27">
+        <v>22.219658328377399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>123</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="26">
-        <v>0.57573231071956998</v>
+        <v>0.57570166368495002</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>21</v>
@@ -3712,7 +3712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>125</v>
       </c>
@@ -3720,16 +3720,16 @@
         <v>126</v>
       </c>
       <c r="C60" s="18">
-        <v>30.4863666789491</v>
+        <v>31.250965434121898</v>
       </c>
       <c r="D60" s="19">
-        <v>1.95146093165253</v>
+        <v>2.0004036152731501</v>
       </c>
       <c r="E60" s="19">
-        <v>44.850264473739301</v>
+        <v>45.9751101054581</v>
       </c>
       <c r="F60" s="20">
-        <v>1.8901633708779999</v>
+        <v>1.9375687103094299</v>
       </c>
       <c r="G60" s="21">
         <v>2312.57144212502</v>
@@ -3750,7 +3750,7 @@
         <v>4.1511340840536404</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
         <v>34</v>
       </c>
@@ -3758,37 +3758,37 @@
         <v>127</v>
       </c>
       <c r="C61" s="33">
-        <v>21.718109951788801</v>
+        <v>21.994211871909599</v>
       </c>
       <c r="D61" s="34">
-        <v>1.56635484298759</v>
+        <v>1.5883814484765</v>
       </c>
       <c r="E61" s="34">
-        <v>3.09631075807442</v>
+        <v>3.1246654323524399</v>
       </c>
       <c r="F61" s="35">
-        <v>0.14021616623058</v>
+        <v>0.16500143146129001</v>
       </c>
       <c r="G61" s="36">
-        <v>139414.33760979399</v>
+        <v>147295.77622615601</v>
       </c>
       <c r="H61" s="37">
-        <v>10283.887862502301</v>
+        <v>10872.7070943935</v>
       </c>
       <c r="I61" s="37">
-        <v>19985.812682467102</v>
+        <v>20887.055569903201</v>
       </c>
       <c r="J61" s="38">
-        <v>836.24358556618495</v>
+        <v>1031.02594497268</v>
       </c>
       <c r="K61" s="34">
-        <v>7.4954422831880603</v>
+        <v>7.5481662872294297</v>
       </c>
       <c r="L61" s="35">
-        <v>4.3626434939012002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.1386173238848096</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="47" t="s">
         <v>34</v>
       </c>
@@ -3796,37 +3796,37 @@
         <v>128</v>
       </c>
       <c r="C62" s="49">
-        <v>49.748763459982001</v>
+        <v>48.392799259772602</v>
       </c>
       <c r="D62" s="50">
-        <v>1.71604947159812</v>
+        <v>1.7190782133514899</v>
       </c>
       <c r="E62" s="50">
-        <v>24.9135841790938</v>
+        <v>23.790392654699101</v>
       </c>
       <c r="F62" s="51">
-        <v>0.47939239783311</v>
+        <v>0.48201047104340999</v>
       </c>
       <c r="G62" s="52">
-        <v>1069275.6459081999</v>
+        <v>1103702.9574130001</v>
       </c>
       <c r="H62" s="53">
-        <v>38637.385945724003</v>
+        <v>39227.071848793297</v>
       </c>
       <c r="I62" s="53">
-        <v>587543.33064623398</v>
+        <v>592590.28810461902</v>
       </c>
       <c r="J62" s="54">
-        <v>11654.8136359605</v>
+        <v>11852.610139872801</v>
       </c>
       <c r="K62" s="50">
-        <v>3.5040526753865802</v>
+        <v>3.4996233140414201</v>
       </c>
       <c r="L62" s="51">
-        <v>2.0857735318880701</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.0921708191330199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="47" t="s">
         <v>34</v>
       </c>
@@ -3834,37 +3834,37 @@
         <v>129</v>
       </c>
       <c r="C63" s="56">
-        <v>58.116096340745401</v>
+        <v>58.391016416880099</v>
       </c>
       <c r="D63" s="57">
-        <v>2.2233684770181501</v>
+        <v>2.2455257375493902</v>
       </c>
       <c r="E63" s="57">
-        <v>51.517837722464797</v>
+        <v>51.872106364866099</v>
       </c>
       <c r="F63" s="58">
-        <v>2.0651806103389099</v>
+        <v>2.0965902561441201</v>
       </c>
       <c r="G63" s="59">
-        <v>53080069.5707817</v>
+        <v>53398933.188041098</v>
       </c>
       <c r="H63" s="60">
-        <v>1507748.2491566399</v>
+        <v>1525384.58007487</v>
       </c>
       <c r="I63" s="60">
-        <v>50997686.528168999</v>
+        <v>51346536.466706403</v>
       </c>
       <c r="J63" s="61">
-        <v>1706415.54204205</v>
+        <v>1734139.15352162</v>
       </c>
       <c r="K63" s="57">
-        <v>3.2603038218415299</v>
+        <v>3.2812599248645098</v>
       </c>
       <c r="L63" s="58">
-        <v>3.7197422695576101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.7693306021048398</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="62" t="s">
         <v>34</v>
       </c>
@@ -3872,37 +3872,37 @@
         <v>130</v>
       </c>
       <c r="C64" s="49">
-        <v>54.601576580978097</v>
+        <v>54.186027277394999</v>
       </c>
       <c r="D64" s="50">
-        <v>2.3060602964333499</v>
+        <v>2.2972676472367</v>
       </c>
       <c r="E64" s="50">
-        <v>23.248711954181701</v>
+        <v>23.0503446371786</v>
       </c>
       <c r="F64" s="51">
-        <v>0.57176939034961005</v>
+        <v>0.56749137725262999</v>
       </c>
       <c r="G64" s="52">
-        <v>2382399.5365433898</v>
+        <v>2383616.5156442798</v>
       </c>
       <c r="H64" s="53">
-        <v>102805.162838395</v>
+        <v>103224.390287897</v>
       </c>
       <c r="I64" s="53">
-        <v>998461.79469032702</v>
+        <v>997705.09311723104</v>
       </c>
       <c r="J64" s="54">
-        <v>23386.061759406399</v>
+        <v>23507.5661466452</v>
       </c>
       <c r="K64" s="50">
-        <v>4.2297415035333898</v>
+        <v>4.2457009558126204</v>
       </c>
       <c r="L64" s="51">
-        <v>2.4024604444783102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.4148754221296098</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="62" t="s">
         <v>34</v>
       </c>
@@ -3910,37 +3910,37 @@
         <v>131</v>
       </c>
       <c r="C65" s="64">
-        <v>22.883906873950298</v>
+        <v>22.886309786687701</v>
       </c>
       <c r="D65" s="65">
-        <v>1.3089581452264101</v>
+        <v>1.3090991641071099</v>
       </c>
       <c r="E65" s="65">
-        <v>14.5219285708756</v>
+        <v>14.522904217305801</v>
       </c>
       <c r="F65" s="66">
-        <v>0.29801258944643</v>
+        <v>0.29792562887295998</v>
       </c>
       <c r="G65" s="67">
-        <v>4735341.4218918197</v>
+        <v>4735341.0003148401</v>
       </c>
       <c r="H65" s="68">
-        <v>82330.797479084606</v>
+        <v>82423.815100897002</v>
       </c>
       <c r="I65" s="68">
-        <v>3263897.7359946002</v>
+        <v>3263896.45195165</v>
       </c>
       <c r="J65" s="69">
         <v>19397.253199131999</v>
       </c>
       <c r="K65" s="65">
-        <v>5.4615828651778902</v>
+        <v>5.4668051340501798</v>
       </c>
       <c r="L65" s="66">
-        <v>2.89368444698813</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.8936892721296998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="62" t="s">
         <v>34</v>
       </c>
@@ -3948,37 +3948,37 @@
         <v>132</v>
       </c>
       <c r="C66" s="71">
-        <v>57.724233533023899</v>
+        <v>57.897593002498702</v>
       </c>
       <c r="D66" s="72">
-        <v>2.1917431309344799</v>
+        <v>2.2124225516746199</v>
       </c>
       <c r="E66" s="72">
-        <v>50.308464340114</v>
+        <v>50.525929732231802</v>
       </c>
       <c r="F66" s="73">
-        <v>1.97307095297372</v>
+        <v>2.0019414353972902</v>
       </c>
       <c r="G66" s="74">
-        <v>54149345.2166899</v>
+        <v>54502636.145454101</v>
       </c>
       <c r="H66" s="75">
-        <v>1546385.63510236</v>
+        <v>1564611.65192367</v>
       </c>
       <c r="I66" s="75">
-        <v>51585229.858815297</v>
+        <v>51939126.754811101</v>
       </c>
       <c r="J66" s="76">
-        <v>1718070.35567801</v>
+        <v>1745991.7636614901</v>
       </c>
       <c r="K66" s="72">
-        <v>3.2658011772613098</v>
+        <v>3.2862968708136999</v>
       </c>
       <c r="L66" s="73">
-        <v>3.7000475180674099</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.7490072849100402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="62" t="s">
         <v>34</v>
       </c>
@@ -3986,37 +3986,37 @@
         <v>133</v>
       </c>
       <c r="C67" s="78">
-        <v>82.159572657814806</v>
+        <v>74.698667989209</v>
       </c>
       <c r="D67" s="79">
-        <v>1.90079852234406</v>
+        <v>1.89999089315731</v>
       </c>
       <c r="E67" s="79">
-        <v>37.7290335708133</v>
+        <v>33.554350961008502</v>
       </c>
       <c r="F67" s="80">
-        <v>0.63601686624280995</v>
+        <v>0.63572462824766995</v>
       </c>
       <c r="G67" s="81">
-        <v>603379.74077919498</v>
+        <v>615297.22294902301</v>
       </c>
       <c r="H67" s="82">
         <v>15981.291762843901</v>
       </c>
       <c r="I67" s="82">
-        <v>298281.06837924698</v>
+        <v>299756.62590151699</v>
       </c>
       <c r="J67" s="83">
         <v>6318.3764824045002</v>
       </c>
       <c r="K67" s="79">
-        <v>2.4824329557711202</v>
+        <v>2.5379156494075601</v>
       </c>
       <c r="L67" s="80">
-        <v>2.1741118274933702</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.1400159900093301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="62" t="s">
         <v>34</v>
       </c>
@@ -4024,37 +4024,37 @@
         <v>134</v>
       </c>
       <c r="C68" s="64">
-        <v>35.460495589670302</v>
+        <v>35.363638346935602</v>
       </c>
       <c r="D68" s="65">
-        <v>1.50556513085725</v>
+        <v>1.5160661014627901</v>
       </c>
       <c r="E68" s="65">
-        <v>2.9385184416694101</v>
+        <v>2.9548939779057402</v>
       </c>
       <c r="F68" s="66">
-        <v>0.10192166004738</v>
+        <v>0.11333155094470999</v>
       </c>
       <c r="G68" s="67">
-        <v>410525.239970528</v>
+        <v>417760.196137705</v>
       </c>
       <c r="H68" s="68">
-        <v>19552.773358672701</v>
+        <v>20089.015896853001</v>
       </c>
       <c r="I68" s="68">
-        <v>36351.790751404798</v>
+        <v>37257.188761380297</v>
       </c>
       <c r="J68" s="69">
-        <v>1423.6486490319401</v>
+        <v>1618.4310084384399</v>
       </c>
       <c r="K68" s="65">
-        <v>4.7691742393439398</v>
+        <v>4.8255281701036701</v>
       </c>
       <c r="L68" s="66">
-        <v>3.9278032524093298</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+        <v>4.3732707937223303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="62" t="s">
         <v>34</v>
       </c>
@@ -4062,37 +4062,37 @@
         <v>135</v>
       </c>
       <c r="C69" s="64">
-        <v>36.690634136619003</v>
+        <v>27.2731593759198</v>
       </c>
       <c r="D69" s="65">
-        <v>0.74768207435212997</v>
+        <v>0.74560397091069996</v>
       </c>
       <c r="E69" s="65">
-        <v>2.0405584313023999</v>
+        <v>1.822559835521</v>
       </c>
       <c r="F69" s="66">
-        <v>-4.1410227333000003E-2</v>
+        <v>-4.1309762541899997E-2</v>
       </c>
       <c r="G69" s="67">
-        <v>60876.436250935803</v>
+        <v>72793.918420763293</v>
       </c>
       <c r="H69" s="68">
         <v>2138.1350130799201</v>
       </c>
       <c r="I69" s="68">
-        <v>3393.0233183550999</v>
+        <v>4868.5808406246797</v>
       </c>
       <c r="J69" s="69">
         <v>-64.542951375607998</v>
       </c>
       <c r="K69" s="65">
-        <v>2.07337977734506</v>
+        <v>2.6196781544193302</v>
       </c>
       <c r="L69" s="66">
-        <v>0.13274302042426001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-3.4843022781727</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="62" t="s">
         <v>34</v>
       </c>
@@ -4100,37 +4100,37 @@
         <v>136</v>
       </c>
       <c r="C70" s="64">
-        <v>34.152545664949201</v>
+        <v>40.009529387521297</v>
       </c>
       <c r="D70" s="65">
-        <v>2.1619031441017502</v>
+        <v>2.1534905252283001</v>
       </c>
       <c r="E70" s="65">
-        <v>3.8057489466351702</v>
+        <v>5.3328770803803902</v>
       </c>
       <c r="F70" s="66">
-        <v>0.11311002504985999</v>
+        <v>0.11254899920245</v>
       </c>
       <c r="G70" s="67">
-        <v>56400.0564577736</v>
+        <v>70611.408381306304</v>
       </c>
       <c r="H70" s="68">
         <v>2994.16807779389</v>
       </c>
       <c r="I70" s="68">
-        <v>5426.4924934015198</v>
+        <v>8076.3720995988097</v>
       </c>
       <c r="J70" s="69">
         <v>111.733846462684</v>
       </c>
       <c r="K70" s="65">
-        <v>5.68588561040972</v>
+        <v>4.39785968082208</v>
       </c>
       <c r="L70" s="66">
-        <v>2.4923038707022198</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.6913103497097299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="62" t="s">
         <v>34</v>
       </c>
@@ -4138,37 +4138,37 @@
         <v>137</v>
       </c>
       <c r="C71" s="64">
-        <v>21.718109951788801</v>
+        <v>21.994211871909599</v>
       </c>
       <c r="D71" s="65">
-        <v>1.56635484298759</v>
+        <v>1.5883814484765</v>
       </c>
       <c r="E71" s="65">
-        <v>3.09631075807442</v>
+        <v>3.1246654323524399</v>
       </c>
       <c r="F71" s="66">
-        <v>0.14021616623058</v>
+        <v>0.16500143146129001</v>
       </c>
       <c r="G71" s="67">
-        <v>139414.33760979399</v>
+        <v>147295.77622615601</v>
       </c>
       <c r="H71" s="68">
-        <v>10283.887862502301</v>
+        <v>10872.7070943935</v>
       </c>
       <c r="I71" s="68">
-        <v>19985.812682467102</v>
+        <v>20887.055569903201</v>
       </c>
       <c r="J71" s="69">
-        <v>836.24358556618495</v>
+        <v>1031.02594497268</v>
       </c>
       <c r="K71" s="65">
-        <v>7.4954422831880603</v>
+        <v>7.5481662872294297</v>
       </c>
       <c r="L71" s="66">
-        <v>4.3626434939012002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+        <v>5.1386173238848096</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="62" t="s">
         <v>34</v>
       </c>
@@ -4176,37 +4176,37 @@
         <v>138</v>
       </c>
       <c r="C72" s="64">
-        <v>68.836928532987898</v>
+        <v>42.852043377603401</v>
       </c>
       <c r="D72" s="65">
-        <v>0.56884405169050001</v>
+        <v>0.56623162046838005</v>
       </c>
       <c r="E72" s="65">
-        <v>0.46289792542701003</v>
+        <v>1.1597387061798901</v>
       </c>
       <c r="F72" s="66">
-        <v>-2.93264101547E-2</v>
+        <v>-2.9252814994099999E-2</v>
       </c>
       <c r="G72" s="67">
-        <v>46580.095383922802</v>
+        <v>58497.5775537503</v>
       </c>
       <c r="H72" s="68">
         <v>1398.5206955054</v>
       </c>
       <c r="I72" s="68">
-        <v>173.651709381063</v>
+        <v>1649.20923165064</v>
       </c>
       <c r="J72" s="69">
         <v>-64.536312873585004</v>
       </c>
       <c r="K72" s="65">
-        <v>1.05522818165693</v>
+        <v>1.92898063016232</v>
       </c>
       <c r="L72" s="66">
-        <v>0.18909068610971</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-3.6285583150638998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="62" t="s">
         <v>34</v>
       </c>
@@ -4214,37 +4214,37 @@
         <v>139</v>
       </c>
       <c r="C73" s="64">
-        <v>96.242164380724603</v>
+        <v>97.150580575442504</v>
       </c>
       <c r="D73" s="65">
-        <v>2.2317969861051901</v>
+        <v>2.2282457091057202</v>
       </c>
       <c r="E73" s="65">
-        <v>83.272835772126598</v>
+        <v>83.558987780400201</v>
       </c>
       <c r="F73" s="66">
-        <v>1.83469214721989</v>
+        <v>1.8317643571468001</v>
       </c>
       <c r="G73" s="67">
-        <v>609505.47454495903</v>
+        <v>614201.53842931602</v>
       </c>
       <c r="H73" s="68">
-        <v>13546.8568086956</v>
+        <v>13547.723479873701</v>
       </c>
       <c r="I73" s="68">
-        <v>547278.862258257</v>
+        <v>548932.83720494597</v>
       </c>
       <c r="J73" s="69">
-        <v>10156.0495649653</v>
+        <v>10159.0637094711</v>
       </c>
       <c r="K73" s="65">
-        <v>2.1716680262663801</v>
+        <v>2.1640566381752002</v>
       </c>
       <c r="L73" s="66">
-        <v>1.9508553937055899</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.94599556927998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="62" t="s">
         <v>34</v>
       </c>
@@ -4252,37 +4252,37 @@
         <v>140</v>
       </c>
       <c r="C74" s="64">
-        <v>38.914646700679597</v>
+        <v>38.914150910211603</v>
       </c>
       <c r="D74" s="65">
-        <v>1.7875341771629401</v>
+        <v>1.7874513915700301</v>
       </c>
       <c r="E74" s="65">
-        <v>3.1083043147409199</v>
+        <v>3.1082864401049002</v>
       </c>
       <c r="F74" s="66">
-        <v>0.16198554191483</v>
+        <v>0.16197835362891</v>
       </c>
       <c r="G74" s="67">
-        <v>129309.404645345</v>
+        <v>129309.295912931</v>
       </c>
       <c r="H74" s="68">
         <v>6055.8203997488999</v>
       </c>
       <c r="I74" s="68">
-        <v>10523.1915326586</v>
+        <v>10523.1915314008</v>
       </c>
       <c r="J74" s="69">
         <v>624.96275183992202</v>
       </c>
       <c r="K74" s="65">
-        <v>4.4985668570974804</v>
+        <v>4.49856880274569</v>
       </c>
       <c r="L74" s="66">
-        <v>5.6989449051778598</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.6989449055346597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="62" t="s">
         <v>34</v>
       </c>
@@ -4290,37 +4290,37 @@
         <v>141</v>
       </c>
       <c r="C75" s="71">
-        <v>77.6834440508254</v>
+        <v>83.780145364130604</v>
       </c>
       <c r="D75" s="72">
-        <v>3.2683672479403398</v>
+        <v>3.2706992231559702</v>
       </c>
       <c r="E75" s="72">
-        <v>4.6318965602296496</v>
+        <v>6.9593634424295496</v>
       </c>
       <c r="F75" s="73">
-        <v>0.16913707725161001</v>
+        <v>0.16924942761577999</v>
       </c>
       <c r="G75" s="74">
-        <v>66720.935686480501</v>
+        <v>71056.0315304658</v>
       </c>
       <c r="H75" s="75">
         <v>2344.6392986737501</v>
       </c>
       <c r="I75" s="75">
-        <v>3310.9592014955501</v>
+        <v>4950.7215819058501</v>
       </c>
       <c r="J75" s="76">
         <v>122.444877840985</v>
       </c>
       <c r="K75" s="72">
-        <v>3.55962276687896</v>
+        <v>3.4530615736008898</v>
       </c>
       <c r="L75" s="73">
-        <v>3.4584858849470201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.4572915599825502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="62" t="s">
         <v>34</v>
       </c>
@@ -4328,25 +4328,25 @@
         <v>142</v>
       </c>
       <c r="C76" s="78">
-        <v>79.940829681193307</v>
+        <v>80.727632667053101</v>
       </c>
       <c r="D76" s="79">
-        <v>1.85422911275599</v>
+        <v>1.85463887799892</v>
       </c>
       <c r="E76" s="79">
-        <v>47.959675872383897</v>
+        <v>50.596975146750097</v>
       </c>
       <c r="F76" s="80">
-        <v>0.51147006983928001</v>
+        <v>0.51174946250520004</v>
       </c>
       <c r="G76" s="81">
-        <v>2841006.8408494201</v>
+        <v>2874960.5508562201</v>
       </c>
       <c r="H76" s="82">
         <v>43081.328147297303</v>
       </c>
       <c r="I76" s="82">
-        <v>1750558.3606362699</v>
+        <v>1864202.1092180701</v>
       </c>
       <c r="J76" s="83">
         <v>12438.076507481401</v>
@@ -4358,7 +4358,7 @@
         <v>2.6998375482364798</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="62" t="s">
         <v>34</v>
       </c>
@@ -4366,37 +4366,37 @@
         <v>143</v>
       </c>
       <c r="C77" s="64">
-        <v>53.430217617031197</v>
+        <v>53.477096954008204</v>
       </c>
       <c r="D77" s="65">
-        <v>2.3477255167898199</v>
+        <v>2.3635419257264898</v>
       </c>
       <c r="E77" s="65">
-        <v>25.856738500850199</v>
+        <v>25.852847049598601</v>
       </c>
       <c r="F77" s="66">
-        <v>0.65159869549225002</v>
+        <v>0.65814959416725005</v>
       </c>
       <c r="G77" s="67">
-        <v>1538262.4326911301</v>
+        <v>1540142.5294571701</v>
       </c>
       <c r="H77" s="68">
-        <v>69778.037082354902</v>
+        <v>70305.5393455718</v>
       </c>
       <c r="I77" s="68">
-        <v>730188.94197970501</v>
+        <v>730130.252748381</v>
       </c>
       <c r="J77" s="69">
-        <v>17248.140467915098</v>
+        <v>17439.159955196799</v>
       </c>
       <c r="K77" s="65">
-        <v>4.4173420051200099</v>
+        <v>4.4470380273032202</v>
       </c>
       <c r="L77" s="66">
-        <v>2.4207643465926498</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.4463404321988702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="62" t="s">
         <v>34</v>
       </c>
@@ -4404,37 +4404,37 @@
         <v>144</v>
       </c>
       <c r="C78" s="64">
-        <v>134.58735838015701</v>
+        <v>136.117953747744</v>
       </c>
       <c r="D78" s="65">
-        <v>4.7734169161231002</v>
+        <v>4.7886695314059002</v>
       </c>
       <c r="E78" s="65">
-        <v>144.15862805823201</v>
+        <v>145.48033880186699</v>
       </c>
       <c r="F78" s="66">
-        <v>4.4063092216186197</v>
+        <v>4.4438450054255298</v>
       </c>
       <c r="G78" s="67">
-        <v>22357976.312177699</v>
+        <v>22614103.480012499</v>
       </c>
       <c r="H78" s="68">
-        <v>779157.27426806698</v>
+        <v>779935.903648493</v>
       </c>
       <c r="I78" s="68">
-        <v>24934417.6538366</v>
+        <v>25135268.7084709</v>
       </c>
       <c r="J78" s="69">
-        <v>768914.09361647395</v>
+        <v>773402.30944887595</v>
       </c>
       <c r="K78" s="65">
-        <v>3.6066160487563601</v>
+        <v>3.5787832368909598</v>
       </c>
       <c r="L78" s="66">
-        <v>3.1583004994642199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.16335678108014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="62" t="s">
         <v>34</v>
       </c>
@@ -4442,37 +4442,37 @@
         <v>145</v>
       </c>
       <c r="C79" s="71">
-        <v>79.224233834341007</v>
+        <v>79.615668389179703</v>
       </c>
       <c r="D79" s="72">
-        <v>2.3125591302771298</v>
+        <v>2.3309947598268299</v>
       </c>
       <c r="E79" s="72">
-        <v>79.604404073165199</v>
+        <v>79.954929584762496</v>
       </c>
       <c r="F79" s="73">
-        <v>2.7965393356768402</v>
+        <v>2.8403217742048801</v>
       </c>
       <c r="G79" s="74">
-        <v>42984180.507339202</v>
+        <v>43237368.387037002</v>
       </c>
       <c r="H79" s="75">
-        <v>1234459.5447024601</v>
+        <v>1245871.5255722399</v>
       </c>
       <c r="I79" s="75">
-        <v>44616047.861036502</v>
+        <v>44829118.4908932</v>
       </c>
       <c r="J79" s="76">
-        <v>1603858.02455237</v>
+        <v>1628750.5454281799</v>
       </c>
       <c r="K79" s="72">
-        <v>3.00070321548908</v>
+        <v>3.0134095562729901</v>
       </c>
       <c r="L79" s="73">
-        <v>3.7008529482361201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.7487616886763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="62" t="s">
         <v>34</v>
       </c>
@@ -4480,37 +4480,37 @@
         <v>146</v>
       </c>
       <c r="C80" s="78">
-        <v>19.0614225238368</v>
+        <v>23.336312271310899</v>
       </c>
       <c r="D80" s="79">
-        <v>2.5074757786566999</v>
+        <v>2.50190668486387</v>
       </c>
       <c r="E80" s="79">
-        <v>2.92976846500245</v>
+        <v>3.9461098479499301</v>
       </c>
       <c r="F80" s="80">
-        <v>0.1187973363186</v>
+        <v>0.11851745510764999</v>
       </c>
       <c r="G80" s="81">
-        <v>39108.745748133697</v>
+        <v>53376.168426364799</v>
       </c>
       <c r="H80" s="82">
         <v>6479.5082291524895</v>
       </c>
       <c r="I80" s="82">
-        <v>5844.7281227461599</v>
+        <v>8490.4526051462908</v>
       </c>
       <c r="J80" s="83">
         <v>300.30412687618502</v>
       </c>
       <c r="K80" s="79">
-        <v>14.796868826854499</v>
+        <v>11.016083078642501</v>
       </c>
       <c r="L80" s="80">
-        <v>4.1116646737781002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.0412630763752801</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="62" t="s">
         <v>34</v>
       </c>
@@ -4518,37 +4518,37 @@
         <v>147</v>
       </c>
       <c r="C81" s="64">
-        <v>38.994125667030701</v>
+        <v>39.548111042519601</v>
       </c>
       <c r="D81" s="65">
-        <v>2.8490187140931198</v>
+        <v>2.94478126554035</v>
       </c>
       <c r="E81" s="65">
-        <v>25.663230665091799</v>
+        <v>25.979732466312701</v>
       </c>
       <c r="F81" s="66">
-        <v>1.51914507699318</v>
+        <v>1.5656339990519099</v>
       </c>
       <c r="G81" s="67">
-        <v>1032116.11410135</v>
+        <v>1063689.6115458601</v>
       </c>
       <c r="H81" s="68">
-        <v>80608.581319636898</v>
+        <v>85903.937099901901</v>
       </c>
       <c r="I81" s="68">
-        <v>669045.46904884197</v>
+        <v>687990.96797804604</v>
       </c>
       <c r="J81" s="69">
-        <v>46224.587067684603</v>
+        <v>48754.330251442203</v>
       </c>
       <c r="K81" s="65">
-        <v>7.1020548086119799</v>
+        <v>7.3678619457292003</v>
       </c>
       <c r="L81" s="66">
-        <v>6.65915907831618</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+        <v>6.8381018502078597</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="62" t="s">
         <v>34</v>
       </c>
@@ -4556,37 +4556,37 @@
         <v>148</v>
       </c>
       <c r="C82" s="64">
-        <v>53.951431182420698</v>
+        <v>51.7289351748109</v>
       </c>
       <c r="D82" s="65">
-        <v>1.59101058873733</v>
+        <v>1.5966744758071401</v>
       </c>
       <c r="E82" s="65">
-        <v>28.0439544544484</v>
+        <v>26.535062680877999</v>
       </c>
       <c r="F82" s="66">
-        <v>0.53945114165399999</v>
+        <v>0.54186239235920997</v>
       </c>
       <c r="G82" s="67">
-        <v>1030166.90016007</v>
+        <v>1050326.78898663</v>
       </c>
       <c r="H82" s="68">
-        <v>32157.8777165715</v>
+        <v>32747.563619640801</v>
       </c>
       <c r="I82" s="68">
-        <v>581698.60252348799</v>
+        <v>584099.83549947303</v>
       </c>
       <c r="J82" s="69">
-        <v>11354.509509084301</v>
+        <v>11552.3060129966</v>
       </c>
       <c r="K82" s="65">
-        <v>3.0582265439515601</v>
+        <v>3.1205424487846698</v>
       </c>
       <c r="L82" s="66">
-        <v>2.06370063785694</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.0782540190715499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="62" t="s">
         <v>34</v>
       </c>
@@ -4594,37 +4594,37 @@
         <v>149</v>
       </c>
       <c r="C83" s="71">
-        <v>59.323096234591198</v>
+        <v>59.592149500822401</v>
       </c>
       <c r="D83" s="72">
-        <v>2.1679231402692198</v>
+        <v>2.1826226310474302</v>
       </c>
       <c r="E83" s="72">
-        <v>53.107785371671902</v>
+        <v>53.480582971588802</v>
       </c>
       <c r="F83" s="73">
-        <v>2.1125592504928399</v>
+        <v>2.1433543447056098</v>
       </c>
       <c r="G83" s="74">
-        <v>52047953.456680298</v>
+        <v>52335243.5764952</v>
       </c>
       <c r="H83" s="75">
-        <v>1427139.667837</v>
+        <v>1439480.6429749699</v>
       </c>
       <c r="I83" s="75">
-        <v>50328641.059120201</v>
+        <v>50658545.498728402</v>
       </c>
       <c r="J83" s="76">
-        <v>1660190.9549743601</v>
+        <v>1685384.82327018</v>
       </c>
       <c r="K83" s="72">
-        <v>3.1707335963558601</v>
+        <v>3.1836262936939002</v>
       </c>
       <c r="L83" s="73">
-        <v>3.67555016431989</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.72201777255543</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="62" t="s">
         <v>34</v>
       </c>
@@ -4632,37 +4632,37 @@
         <v>150</v>
       </c>
       <c r="C84" s="78">
-        <v>69.499203270528795</v>
+        <v>68.712769420015903</v>
       </c>
       <c r="D84" s="79">
-        <v>1.16657329783616</v>
+        <v>1.1714342240090001</v>
       </c>
       <c r="E84" s="79">
-        <v>3.4719858176028802</v>
+        <v>3.49794173210659</v>
       </c>
       <c r="F84" s="80">
-        <v>7.0101678377609999E-2</v>
+        <v>7.0335510183060002E-2</v>
       </c>
       <c r="G84" s="81">
-        <v>162728.61576704701</v>
+        <v>162536.684172387</v>
       </c>
       <c r="H84" s="82">
-        <v>3565.0165199789999</v>
+        <v>3617.5932136899501</v>
       </c>
       <c r="I84" s="82">
-        <v>7423.4874852338098</v>
+        <v>7416.6645466858499</v>
       </c>
       <c r="J84" s="83">
         <v>194.95034256538901</v>
       </c>
       <c r="K84" s="79">
-        <v>1.9798226411423301</v>
+        <v>2.0126602715894801</v>
       </c>
       <c r="L84" s="80">
-        <v>3.0759170930317201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.07582059637953</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="62" t="s">
         <v>34</v>
       </c>
@@ -4670,16 +4670,16 @@
         <v>151</v>
       </c>
       <c r="C85" s="64">
-        <v>7.9071365101888196</v>
+        <v>7.9069590139872901</v>
       </c>
       <c r="D85" s="65">
-        <v>3.6226851339529999E-2</v>
+        <v>3.6226038133819999E-2</v>
       </c>
       <c r="E85" s="65">
-        <v>0.66458927590220995</v>
+        <v>0.66457435747100002</v>
       </c>
       <c r="F85" s="66">
-        <v>2.573649327E-5</v>
+        <v>2.573591555E-5</v>
       </c>
       <c r="G85" s="67">
         <v>1592.14526705648</v>
@@ -4700,7 +4700,7 @@
         <v>4.4928122358499998E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="62" t="s">
         <v>34</v>
       </c>
@@ -4708,37 +4708,37 @@
         <v>152</v>
       </c>
       <c r="C86" s="64">
-        <v>29.760349740908801</v>
+        <v>29.455500772137299</v>
       </c>
       <c r="D86" s="65">
-        <v>1.7174896298581099</v>
+        <v>1.7225199965432101</v>
       </c>
       <c r="E86" s="65">
-        <v>2.8078753019437399</v>
+        <v>2.9098321107232601</v>
       </c>
       <c r="F86" s="66">
-        <v>9.1068577459979996E-2</v>
+        <v>0.10076536853593999</v>
       </c>
       <c r="G86" s="67">
-        <v>426201.49929596297</v>
+        <v>460403.59486792999</v>
       </c>
       <c r="H86" s="68">
-        <v>25973.113348428498</v>
+        <v>26509.355886608799</v>
       </c>
       <c r="I86" s="68">
-        <v>41406.415818697198</v>
+        <v>46450.138771890299</v>
       </c>
       <c r="J86" s="69">
-        <v>1389.1144445827899</v>
+        <v>1583.89680398928</v>
       </c>
       <c r="K86" s="65">
-        <v>6.03587724989971</v>
+        <v>5.8442701700256396</v>
       </c>
       <c r="L86" s="66">
-        <v>3.8062768190143701</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.6975836626657199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="62" t="s">
         <v>34</v>
       </c>
@@ -4746,37 +4746,37 @@
         <v>153</v>
       </c>
       <c r="C87" s="64">
-        <v>20.291669826692001</v>
+        <v>20.282909856235101</v>
       </c>
       <c r="D87" s="65">
-        <v>1.2375107916135699</v>
+        <v>1.2385336040142401</v>
       </c>
       <c r="E87" s="65">
-        <v>6.9545652229053898</v>
+        <v>6.9743718759155504</v>
       </c>
       <c r="F87" s="66">
-        <v>0.19472585487301</v>
+        <v>0.19476169230181001</v>
       </c>
       <c r="G87" s="67">
-        <v>1074498.3599005099</v>
+        <v>1074630.9630227201</v>
       </c>
       <c r="H87" s="68">
-        <v>66285.885816394104</v>
+        <v>66606.029334768798</v>
       </c>
       <c r="I87" s="68">
-        <v>369636.19774130097</v>
+        <v>371322.20974207798</v>
       </c>
       <c r="J87" s="69">
-        <v>10390.168083770201</v>
+        <v>10456.453294916901</v>
       </c>
       <c r="K87" s="65">
-        <v>6.3281791643486196</v>
+        <v>6.33568410135946</v>
       </c>
       <c r="L87" s="66">
-        <v>2.77961538977749</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.7820342068002999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="62" t="s">
         <v>34</v>
       </c>
@@ -4784,37 +4784,37 @@
         <v>154</v>
       </c>
       <c r="C88" s="64">
-        <v>127.667565516058</v>
+        <v>127.38945843560001</v>
       </c>
       <c r="D88" s="65">
-        <v>2.1558338274664202</v>
+        <v>2.1509337962716</v>
       </c>
       <c r="E88" s="65">
-        <v>143.77104970335199</v>
+        <v>143.39571412978</v>
       </c>
       <c r="F88" s="66">
-        <v>2.39767084244547</v>
+        <v>2.3926144609662301</v>
       </c>
       <c r="G88" s="67">
-        <v>476395.747585012</v>
+        <v>476812.89511249698</v>
       </c>
       <c r="H88" s="68">
-        <v>9057.7811149808895</v>
+        <v>9058.6477861589701</v>
       </c>
       <c r="I88" s="68">
-        <v>536871.61192125804</v>
+        <v>536881.66936499695</v>
       </c>
       <c r="J88" s="69">
-        <v>10067.4623498859</v>
+        <v>10070.4764943916</v>
       </c>
       <c r="K88" s="65">
-        <v>1.8270009477281499</v>
+        <v>1.82638582337152</v>
       </c>
       <c r="L88" s="66">
-        <v>1.95269343831069</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.95324293575895</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="62" t="s">
         <v>34</v>
       </c>
@@ -4822,37 +4822,37 @@
         <v>155</v>
       </c>
       <c r="C89" s="64">
-        <v>33.3743102830813</v>
+        <v>33.307556015504503</v>
       </c>
       <c r="D89" s="65">
-        <v>2.4186560379346198</v>
+        <v>2.4109216918083698</v>
       </c>
       <c r="E89" s="65">
-        <v>19.924035442266199</v>
+        <v>19.880443053230401</v>
       </c>
       <c r="F89" s="66">
-        <v>0.86995375635842997</v>
+        <v>0.86659121266951</v>
       </c>
       <c r="G89" s="67">
-        <v>6853275.5712793004</v>
+        <v>6852467.9666192997</v>
       </c>
       <c r="H89" s="68">
-        <v>185093.11859906599</v>
+        <v>185320.177513203</v>
       </c>
       <c r="I89" s="68">
-        <v>4301821.18448833</v>
+        <v>4299436.4021371901</v>
       </c>
       <c r="J89" s="69">
-        <v>63646.704079387397</v>
+        <v>63631.093927947702</v>
       </c>
       <c r="K89" s="65">
-        <v>4.9939239431145399</v>
+        <v>5.0010589642183998</v>
       </c>
       <c r="L89" s="66">
-        <v>3.7148036778474398</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.7180435368312001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="62" t="s">
         <v>34</v>
       </c>
@@ -4860,37 +4860,37 @@
         <v>156</v>
       </c>
       <c r="C90" s="71">
-        <v>86.929863166266799</v>
+        <v>87.509539246386197</v>
       </c>
       <c r="D90" s="72">
-        <v>2.4537890056082299</v>
+        <v>2.4919734786051002</v>
       </c>
       <c r="E90" s="72">
-        <v>86.988131639663294</v>
+        <v>87.694547430089401</v>
       </c>
       <c r="F90" s="73">
-        <v>2.99688913552116</v>
+        <v>3.0506222933039302</v>
       </c>
       <c r="G90" s="74">
-        <v>45154653.277594998</v>
+        <v>45474191.896392196</v>
       </c>
       <c r="H90" s="75">
-        <v>1256403.42522847</v>
+        <v>1273492.5537141999</v>
       </c>
       <c r="I90" s="75">
-        <v>46327937.1426678</v>
+        <v>46677485.851555601</v>
       </c>
       <c r="J90" s="76">
-        <v>1632381.95119563</v>
+        <v>1660054.8876155</v>
       </c>
       <c r="K90" s="72">
-        <v>3.0306990879355</v>
+        <v>3.0545264291933001</v>
       </c>
       <c r="L90" s="73">
-        <v>3.7274183084243999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.77918072473661</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="62" t="s">
         <v>34</v>
       </c>
@@ -4898,37 +4898,37 @@
         <v>157</v>
       </c>
       <c r="C91" s="78">
-        <v>54.160454531208799</v>
+        <v>53.998782773172501</v>
       </c>
       <c r="D91" s="79">
-        <v>1.55518659976872</v>
+        <v>1.58376165638093</v>
       </c>
       <c r="E91" s="79">
-        <v>3.8614579261409299</v>
+        <v>4.4498361265451098</v>
       </c>
       <c r="F91" s="80">
-        <v>9.7726090823660003E-2</v>
+        <v>0.13757758241407</v>
       </c>
       <c r="G91" s="81">
-        <v>202473.799741139</v>
+        <v>214398.75226474201</v>
       </c>
       <c r="H91" s="82">
-        <v>6648.9406425302705</v>
+        <v>7237.7598744215102</v>
       </c>
       <c r="I91" s="82">
-        <v>13201.2125481496</v>
+        <v>15758.2803456291</v>
       </c>
       <c r="J91" s="83">
-        <v>317.99582153204301</v>
+        <v>512.77818093853898</v>
       </c>
       <c r="K91" s="79">
-        <v>3.0747904127592198</v>
+        <v>3.22751798383598</v>
       </c>
       <c r="L91" s="80">
-        <v>3.10140655281019</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+        <v>4.08106749083721</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="62" t="s">
         <v>34</v>
       </c>
@@ -4936,37 +4936,37 @@
         <v>158</v>
       </c>
       <c r="C92" s="64">
-        <v>13.085525326191799</v>
+        <v>13.0854494834518</v>
       </c>
       <c r="D92" s="65">
-        <v>0.80239468024454996</v>
+        <v>0.81918013281608004</v>
       </c>
       <c r="E92" s="65">
-        <v>0.80094208822498003</v>
+        <v>0.80043831162947998</v>
       </c>
       <c r="F92" s="66">
-        <v>2.035270654548E-2</v>
+        <v>2.034778101819E-2</v>
       </c>
       <c r="G92" s="67">
         <v>62746.061521785399</v>
       </c>
       <c r="H92" s="68">
-        <v>3877.1559705033401</v>
+        <v>3953.3138798967698</v>
       </c>
       <c r="I92" s="68">
-        <v>3351.8445936446701</v>
+        <v>3348.1198285922201</v>
       </c>
       <c r="J92" s="69">
-        <v>95.123580117480202</v>
+        <v>95.069646893458298</v>
       </c>
       <c r="K92" s="65">
-        <v>6.2610500448961899</v>
+        <v>6.3912039735615496</v>
       </c>
       <c r="L92" s="66">
-        <v>3.8661996464609798</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.8683507685321099</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="62" t="s">
         <v>34</v>
       </c>
@@ -4974,37 +4974,37 @@
         <v>159</v>
       </c>
       <c r="C93" s="64">
-        <v>2046.2228599114401</v>
+        <v>2041.6858540900801</v>
       </c>
       <c r="D93" s="65">
-        <v>28.441134982597699</v>
+        <v>28.382574860605999</v>
       </c>
       <c r="E93" s="65">
-        <v>1731.60971490884</v>
+        <v>1727.8299513045999</v>
       </c>
       <c r="F93" s="66">
-        <v>37.553846355923099</v>
+        <v>37.469687938725599</v>
       </c>
       <c r="G93" s="67">
-        <v>337963.78184215399</v>
+        <v>338019.961329268</v>
       </c>
       <c r="H93" s="68">
         <v>5020.7447873947303</v>
       </c>
       <c r="I93" s="68">
-        <v>285675.17261195899</v>
+        <v>285671.01748942002</v>
       </c>
       <c r="J93" s="69">
         <v>6192.92474615845</v>
       </c>
       <c r="K93" s="65">
-        <v>1.5038867848783799</v>
+        <v>1.5036842087493301</v>
       </c>
       <c r="L93" s="66">
-        <v>2.21397663123749</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.2139923283576399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="62" t="s">
         <v>34</v>
       </c>
@@ -5012,37 +5012,37 @@
         <v>160</v>
       </c>
       <c r="C94" s="64">
-        <v>371.46288478766701</v>
+        <v>377.41637352431502</v>
       </c>
       <c r="D94" s="65">
-        <v>3.24433529122765</v>
+        <v>3.1295372791010299</v>
       </c>
       <c r="E94" s="65">
-        <v>235.390898572597</v>
+        <v>256.63081533232099</v>
       </c>
       <c r="F94" s="66">
-        <v>4.758293762304E-2</v>
+        <v>6.0671840758619998E-2</v>
       </c>
       <c r="G94" s="67">
-        <v>2053173.24689634</v>
+        <v>2087303.4530410799</v>
       </c>
       <c r="H94" s="68">
-        <v>4783.3258006507003</v>
+        <v>5107.2693045811802</v>
       </c>
       <c r="I94" s="68">
-        <v>1271715.0565245501</v>
+        <v>1385341.63284584</v>
       </c>
       <c r="J94" s="69">
-        <v>88.191747347184801</v>
+        <v>130.06267925722301</v>
       </c>
       <c r="K94" s="65">
-        <v>4.7762112704725999</v>
+        <v>4.8792563887493197</v>
       </c>
       <c r="L94" s="66">
-        <v>1.6856922269724</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.1870440972238798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="62" t="s">
         <v>34</v>
       </c>
@@ -5050,37 +5050,37 @@
         <v>161</v>
       </c>
       <c r="C95" s="64">
-        <v>42.5660383774675</v>
+        <v>42.017340044251704</v>
       </c>
       <c r="D95" s="65">
-        <v>1.8840739018588499</v>
+        <v>1.88166827756084</v>
       </c>
       <c r="E95" s="65">
-        <v>2.4194891146887501</v>
+        <v>2.40866298788068</v>
       </c>
       <c r="F95" s="66">
-        <v>1.8154407605859998E-2</v>
+        <v>1.8155800825949999E-2</v>
       </c>
       <c r="G95" s="67">
-        <v>61196.4919816486</v>
+        <v>60414.257424916897</v>
       </c>
       <c r="H95" s="68">
-        <v>3345.7050699588399</v>
+        <v>3345.7021388744001</v>
       </c>
       <c r="I95" s="68">
-        <v>3436.8551063549398</v>
+        <v>3419.8121678069701</v>
       </c>
       <c r="J95" s="69">
-        <v>28.0600770348772</v>
+        <v>28.0694171629005</v>
       </c>
       <c r="K95" s="65">
-        <v>4.5234216961212104</v>
+        <v>4.5520376035502697</v>
       </c>
       <c r="L95" s="66">
-        <v>0.71958620667943995</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.72168376043090998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="62" t="s">
         <v>34</v>
       </c>
@@ -5088,37 +5088,37 @@
         <v>162</v>
       </c>
       <c r="C96" s="71">
-        <v>54.895013256311699</v>
+        <v>54.771569875270202</v>
       </c>
       <c r="D96" s="72">
-        <v>3.7047873758133298</v>
+        <v>3.70315425640353</v>
       </c>
       <c r="E96" s="72">
-        <v>8.5922781874925391</v>
+        <v>8.5647284577031702</v>
       </c>
       <c r="F96" s="73">
-        <v>0.30933598386127997</v>
+        <v>0.30919946063092002</v>
       </c>
       <c r="G96" s="74">
-        <v>249612.84167296099</v>
+        <v>249475.40492598101</v>
       </c>
       <c r="H96" s="75">
-        <v>19319.223155009498</v>
+        <v>19326.144802024399</v>
       </c>
       <c r="I96" s="75">
-        <v>36189.149994253399</v>
+        <v>36180.882080076502</v>
       </c>
       <c r="J96" s="76">
-        <v>1267.2226109854801</v>
+        <v>1267.3965109854801</v>
       </c>
       <c r="K96" s="72">
-        <v>7.1958805076854002</v>
+        <v>7.2006550724478897</v>
       </c>
       <c r="L96" s="73">
-        <v>1.3239755007959799</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.32447366386932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="62" t="s">
         <v>34</v>
       </c>
@@ -5126,37 +5126,37 @@
         <v>163</v>
       </c>
       <c r="C97" s="78">
-        <v>31.624337064585202</v>
+        <v>30.163745571013099</v>
       </c>
       <c r="D97" s="79">
-        <v>1.4714017087003199</v>
+        <v>1.47153967552399</v>
       </c>
       <c r="E97" s="79">
-        <v>3.44642195504687</v>
+        <v>3.5068430220568301</v>
       </c>
       <c r="F97" s="80">
-        <v>0.1032730827561</v>
+        <v>0.10320223518979001</v>
       </c>
       <c r="G97" s="81">
-        <v>250446.62730692601</v>
+        <v>266709.12833881</v>
       </c>
       <c r="H97" s="82">
-        <v>14298.353025403499</v>
+        <v>14350.9297191145</v>
       </c>
       <c r="I97" s="82">
-        <v>27665.173888703699</v>
+        <v>30828.2536908207</v>
       </c>
       <c r="J97" s="83">
         <v>962.51203225982204</v>
       </c>
       <c r="K97" s="79">
-        <v>4.3813649214839998</v>
+        <v>4.2142269043778002</v>
       </c>
       <c r="L97" s="80">
-        <v>3.7924631951532501</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.0860156484042398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="62" t="s">
         <v>34</v>
       </c>
@@ -5164,37 +5164,37 @@
         <v>164</v>
       </c>
       <c r="C98" s="71">
-        <v>15.561673464932399</v>
+        <v>15.560854965891499</v>
       </c>
       <c r="D98" s="72">
-        <v>1.0423373870709201</v>
+        <v>1.05020940046308</v>
       </c>
       <c r="E98" s="72">
-        <v>1.17065038347686</v>
+        <v>1.1703202951081599</v>
       </c>
       <c r="F98" s="73">
-        <v>2.7339055875000001E-2</v>
+        <v>2.7554612200070001E-2</v>
       </c>
       <c r="G98" s="74">
-        <v>137421.45062971799</v>
+        <v>137431.88391894699</v>
       </c>
       <c r="H98" s="75">
-        <v>9403.3788966062893</v>
+        <v>9715.9932000691497</v>
       </c>
       <c r="I98" s="75">
-        <v>11013.8110996097</v>
+        <v>11012.4769014965</v>
       </c>
       <c r="J98" s="76">
-        <v>367.29606944624101</v>
+        <v>382.64407660807899</v>
       </c>
       <c r="K98" s="72">
-        <v>6.7941702901216701</v>
+        <v>6.84990250165162</v>
       </c>
       <c r="L98" s="73">
-        <v>4.0386732729527104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.7483864031178298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="84"/>
       <c r="B99" s="85"/>
       <c r="C99" s="53"/>
@@ -5208,7 +5208,7 @@
       <c r="K99" s="53"/>
       <c r="L99" s="53"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
@@ -5223,7 +5223,7 @@
       <c r="K100" s="86"/>
       <c r="L100" s="86"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
@@ -5238,7 +5238,7 @@
       <c r="K101" s="86"/>
       <c r="L101" s="86"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>167</v>
       </c>
@@ -5253,7 +5253,7 @@
       <c r="K102" s="86"/>
       <c r="L102" s="86"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>168</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="K103" s="86"/>
       <c r="L103" s="86"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="K104" s="86"/>
       <c r="L104" s="86"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>170</v>
       </c>
@@ -5298,7 +5298,7 @@
       <c r="K105" s="86"/>
       <c r="L105" s="86"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>171</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="K106" s="86"/>
       <c r="L106" s="86"/>
     </row>
-    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="87"/>
       <c r="C107" s="86"/>
       <c r="D107" s="86"/>
@@ -5326,7 +5326,7 @@
       <c r="K107" s="86"/>
       <c r="L107" s="86"/>
     </row>
-    <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="87"/>
       <c r="C108" s="86"/>
       <c r="D108" s="86"/>
@@ -5339,7 +5339,7 @@
       <c r="K108" s="86"/>
       <c r="L108" s="86"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>174</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="K109" s="86"/>
       <c r="L109" s="86"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>175</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="K110" s="86"/>
       <c r="L110" s="86"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>176</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="K111" s="86"/>
       <c r="L111" s="86"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>172</v>
       </c>
@@ -5399,7 +5399,7 @@
       <c r="K112" s="86"/>
       <c r="L112" s="86"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>173</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="K113" s="86"/>
       <c r="L113" s="86"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="86"/>
       <c r="D114" s="86"/>
@@ -5429,12 +5429,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7E696392-BE4C-4084-9A2E-1A3BC12C1CE7}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{77A12B42-D7FC-4D8C-B134-EE2D9D2BBC0B}"/>
-    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{30F7292F-BB56-4DE4-867F-A1862FC97607}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{8FC708D2-6A8A-4BC9-92ED-C61790B67623}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{8F5688E6-E98B-4120-9922-C6D1B156030B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{E304CE5C-EEBA-4F61-AE5F-23D7F15570F3}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9F9B104E-6778-4055-8AB9-EE44BF9DC1E6}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CA4048C8-D7C9-494A-90AA-27BA494E70ED}"/>
+    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{C2E7FD61-5D60-46AC-99CD-B6B822FBCAA5}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{4A0BD83E-128C-4DE0-A3B7-11A7E23B4ADA}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{B6CC540E-07B0-4D16-A011-619AE565D374}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{0D795B96-FB2E-4BE0-9B57-F484F0CA6435}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
